--- a/Excel/AffectorValue.xlsx
+++ b/Excel/AffectorValue.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20780D00-90AD-43F5-BCEC-CB29089CEA5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A020A95-7856-4D22-B350-D30F50755264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{F996C25F-1351-4433-9C2A-F11BFB8CD6D3}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="ActorStateTable" sheetId="3" r:id="rId3"/>
     <sheet name="ConditionValueTable" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="481">
   <si>
     <t>id|String</t>
   </si>
@@ -1455,53 +1458,28 @@
     <t>IceStormCreate</t>
   </si>
   <si>
-    <t>IceStormCreate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>IceStormAttack</t>
   </si>
   <si>
-    <t>IceStormAttack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FallingSwordCreate</t>
   </si>
   <si>
-    <t>FallingSwordCreate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FallingSwordAttack</t>
   </si>
   <si>
-    <t>FallingSwordAttack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MeteorCreate</t>
   </si>
   <si>
-    <t>MeteorCreate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MeteorAttack</t>
   </si>
   <si>
-    <t>MeteorAttack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>FallingSwordSkillInfo</t>
+  </si>
+  <si>
+    <t>MeteorSkillInfo</t>
   </si>
   <si>
     <t>IceStormSkillInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FallingSwordSkillInfo</t>
-  </si>
-  <si>
-    <t>MeteorSkillInfo</t>
   </si>
 </sst>
 </file>
@@ -1879,8 +1857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43ED1DAD-52FA-4BDA-9F73-B0C57AAAD8AB}">
   <dimension ref="A1:C356"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2087,7 +2065,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B25">
         <v>21</v>
@@ -2095,7 +2073,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B26">
         <v>2</v>
@@ -2103,7 +2081,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B27">
         <v>21</v>
@@ -2111,7 +2089,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="B28">
         <v>2</v>
@@ -2119,7 +2097,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="B29">
         <v>21</v>
@@ -2127,7 +2105,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="B30">
         <v>2</v>
@@ -4752,9 +4730,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D852FB9-0F3C-4905-91BD-A30305123037}">
   <dimension ref="A1:O742"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5147,12 +5123,12 @@
         <v>1</v>
       </c>
       <c r="L25" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -5166,18 +5142,18 @@
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
       <c r="L27" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -5191,18 +5167,18 @@
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
       <c r="L29" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -7558,7 +7534,7 @@
         <v>187</v>
       </c>
       <c r="M191">
-        <v>1.2</v>
+        <v>1.1519999999999999</v>
       </c>
     </row>
     <row r="192" spans="2:15" x14ac:dyDescent="0.3">
@@ -7590,7 +7566,7 @@
         <v>187</v>
       </c>
       <c r="M192">
-        <v>1.2</v>
+        <v>1.1519999999999999</v>
       </c>
     </row>
     <row r="193" spans="2:15" x14ac:dyDescent="0.3">

--- a/Excel/AffectorValue.xlsx
+++ b/Excel/AffectorValue.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{248A4FD2-E82A-4C55-AB16-C09BDBBD049C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E9AEA7-2D8C-4542-B8CF-472766798E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{F996C25F-1351-4433-9C2A-F11BFB8CD6D3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{F996C25F-1351-4433-9C2A-F11BFB8CD6D3}"/>
   </bookViews>
   <sheets>
     <sheet name="AffectorValueTable" sheetId="1" r:id="rId1"/>
@@ -1872,8 +1872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43ED1DAD-52FA-4BDA-9F73-B0C57AAAD8AB}">
   <dimension ref="A1:C360"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4777,7 +4777,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D852FB9-0F3C-4905-91BD-A30305123037}">
   <dimension ref="A1:O746"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5290,7 +5290,7 @@
         <v>1</v>
       </c>
       <c r="E34">
-        <v>1.75</v>
+        <v>0.75</v>
       </c>
       <c r="O34">
         <v>1</v>

--- a/Excel/AffectorValue.xlsx
+++ b/Excel/AffectorValue.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65244AA3-A1B7-4967-A131-5AC47CFFD795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D67084-E2EF-4071-867E-042163134682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{F996C25F-1351-4433-9C2A-F11BFB8CD6D3}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1412" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1412" uniqueCount="495">
   <si>
     <t>id|String</t>
   </si>
@@ -1506,9 +1506,6 @@
     <t>ShacklesSkillInfo</t>
   </si>
   <si>
-    <t>ElectronicSphereCreate</t>
-  </si>
-  <si>
     <t>ElectronicSphereTransportAttack</t>
   </si>
   <si>
@@ -1519,6 +1516,12 @@
   </si>
   <si>
     <t>ElectronicSphereSkillInfo</t>
+  </si>
+  <si>
+    <t>ElectronicSphereTransportSummon</t>
+  </si>
+  <si>
+    <t>ChargingPoisonSkillInfo</t>
   </si>
 </sst>
 </file>
@@ -1896,7 +1899,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43ED1DAD-52FA-4BDA-9F73-B0C57AAAD8AB}">
   <dimension ref="A1:C366"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2198,15 +2203,15 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="B37">
-        <v>21</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B38">
         <v>94</v>
@@ -2214,7 +2219,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B39">
         <v>21</v>
@@ -2222,7 +2227,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B40">
         <v>2</v>
@@ -5390,18 +5395,21 @@
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
+      <c r="E37">
+        <v>4</v>
+      </c>
       <c r="L37" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -5415,18 +5423,18 @@
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
       <c r="L39" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C40">
         <v>1</v>

--- a/Excel/AffectorValue.xlsx
+++ b/Excel/AffectorValue.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D67084-E2EF-4071-867E-042163134682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43160117-F2CC-48DF-A810-85C007765DEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{F996C25F-1351-4433-9C2A-F11BFB8CD6D3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{F996C25F-1351-4433-9C2A-F11BFB8CD6D3}"/>
   </bookViews>
   <sheets>
     <sheet name="AffectorValueTable" sheetId="1" r:id="rId1"/>
@@ -1899,7 +1899,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43ED1DAD-52FA-4BDA-9F73-B0C57AAAD8AB}">
   <dimension ref="A1:C366"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -4852,7 +4852,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D852FB9-0F3C-4905-91BD-A30305123037}">
   <dimension ref="A1:O752"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5882,7 +5882,7 @@
         <v>1</v>
       </c>
       <c r="I72">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O72" t="s">
         <v>262</v>
@@ -6638,7 +6638,7 @@
         <v>-0.5</v>
       </c>
       <c r="I126">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="127" spans="2:15" x14ac:dyDescent="0.3">
@@ -6741,7 +6741,7 @@
         <v>0.11</v>
       </c>
       <c r="I134">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="135" spans="2:15" x14ac:dyDescent="0.3">
@@ -7850,7 +7850,7 @@
         <v>-0.5</v>
       </c>
       <c r="I204">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K204">
         <v>1</v>
@@ -8419,7 +8419,7 @@
         <v>0.75</v>
       </c>
       <c r="I229">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="230" spans="2:15" x14ac:dyDescent="0.3">
@@ -8614,7 +8614,7 @@
         <v>0.1</v>
       </c>
       <c r="I238">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="239" spans="2:15" x14ac:dyDescent="0.3">
@@ -9059,7 +9059,7 @@
         <v>0.15</v>
       </c>
       <c r="I261">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="262" spans="2:12" x14ac:dyDescent="0.3">
@@ -9076,7 +9076,7 @@
         <v>0.315</v>
       </c>
       <c r="I262">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="263" spans="2:12" x14ac:dyDescent="0.3">
@@ -9093,7 +9093,7 @@
         <v>0.495</v>
       </c>
       <c r="I263">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="264" spans="2:12" x14ac:dyDescent="0.3">
@@ -9110,7 +9110,7 @@
         <v>0.69</v>
       </c>
       <c r="I264">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="265" spans="2:12" x14ac:dyDescent="0.3">
@@ -9127,7 +9127,7 @@
         <v>0.9</v>
       </c>
       <c r="I265">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="266" spans="2:12" x14ac:dyDescent="0.3">
@@ -9144,7 +9144,7 @@
         <v>1.125</v>
       </c>
       <c r="I266">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="267" spans="2:12" x14ac:dyDescent="0.3">
@@ -9161,7 +9161,7 @@
         <v>1.365</v>
       </c>
       <c r="I267">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="268" spans="2:12" x14ac:dyDescent="0.3">
@@ -9178,7 +9178,7 @@
         <v>1.62</v>
       </c>
       <c r="I268">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="269" spans="2:12" x14ac:dyDescent="0.3">
@@ -9195,7 +9195,7 @@
         <v>1.89</v>
       </c>
       <c r="I269">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="270" spans="2:12" x14ac:dyDescent="0.3">
@@ -9212,7 +9212,7 @@
         <v>0.25</v>
       </c>
       <c r="I270">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="271" spans="2:12" x14ac:dyDescent="0.3">
@@ -9229,7 +9229,7 @@
         <v>0.52500000000000002</v>
       </c>
       <c r="I271">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="272" spans="2:12" x14ac:dyDescent="0.3">
@@ -9246,7 +9246,7 @@
         <v>0.82499999999999996</v>
       </c>
       <c r="I272">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="273" spans="2:9" x14ac:dyDescent="0.3">
@@ -9263,7 +9263,7 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="I273">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="274" spans="2:9" x14ac:dyDescent="0.3">
@@ -9280,7 +9280,7 @@
         <v>1.5</v>
       </c>
       <c r="I274">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="275" spans="2:9" x14ac:dyDescent="0.3">
@@ -9297,7 +9297,7 @@
         <v>1.875</v>
       </c>
       <c r="I275">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="276" spans="2:9" x14ac:dyDescent="0.3">
@@ -9314,7 +9314,7 @@
         <v>2.2749999999999999</v>
       </c>
       <c r="I276">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="277" spans="2:9" x14ac:dyDescent="0.3">
@@ -9331,7 +9331,7 @@
         <v>2.7</v>
       </c>
       <c r="I277">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="278" spans="2:9" x14ac:dyDescent="0.3">
@@ -9348,7 +9348,7 @@
         <v>3.15</v>
       </c>
       <c r="I278">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="279" spans="2:9" x14ac:dyDescent="0.3">
@@ -9365,7 +9365,7 @@
         <v>3.15</v>
       </c>
       <c r="I279">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="280" spans="2:9" x14ac:dyDescent="0.3">
@@ -9382,7 +9382,7 @@
         <v>0.45</v>
       </c>
       <c r="I280">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="281" spans="2:9" x14ac:dyDescent="0.3">
@@ -9399,7 +9399,7 @@
         <v>0.94499999999999995</v>
       </c>
       <c r="I281">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="282" spans="2:9" x14ac:dyDescent="0.3">
@@ -9416,7 +9416,7 @@
         <v>1.4850000000000001</v>
       </c>
       <c r="I282">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="283" spans="2:9" x14ac:dyDescent="0.3">
@@ -9433,7 +9433,7 @@
         <v>1.4850000000000001</v>
       </c>
       <c r="I283">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="284" spans="2:9" x14ac:dyDescent="0.3">
@@ -9841,7 +9841,7 @@
         <v>0.1125</v>
       </c>
       <c r="I307">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="308" spans="2:9" x14ac:dyDescent="0.3">
@@ -9858,7 +9858,7 @@
         <v>0.23624999999999999</v>
       </c>
       <c r="I308">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="309" spans="2:9" x14ac:dyDescent="0.3">
@@ -9875,7 +9875,7 @@
         <v>0.37125000000000002</v>
       </c>
       <c r="I309">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="310" spans="2:9" x14ac:dyDescent="0.3">
@@ -9892,7 +9892,7 @@
         <v>0.51749999999999996</v>
       </c>
       <c r="I310">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="311" spans="2:9" x14ac:dyDescent="0.3">
@@ -9909,7 +9909,7 @@
         <v>0.67500000000000004</v>
       </c>
       <c r="I311">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="312" spans="2:9" x14ac:dyDescent="0.3">
@@ -9926,7 +9926,7 @@
         <v>0.84375</v>
       </c>
       <c r="I312">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="313" spans="2:9" x14ac:dyDescent="0.3">
@@ -9943,7 +9943,7 @@
         <v>1.0237499999999999</v>
       </c>
       <c r="I313">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="314" spans="2:9" x14ac:dyDescent="0.3">
@@ -9960,7 +9960,7 @@
         <v>1.2150000000000001</v>
       </c>
       <c r="I314">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="315" spans="2:9" x14ac:dyDescent="0.3">
@@ -9977,7 +9977,7 @@
         <v>1.4175</v>
       </c>
       <c r="I315">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="316" spans="2:9" x14ac:dyDescent="0.3">
@@ -9994,7 +9994,7 @@
         <v>0.1875</v>
       </c>
       <c r="I316">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="317" spans="2:9" x14ac:dyDescent="0.3">
@@ -10011,7 +10011,7 @@
         <v>0.39374999999999999</v>
       </c>
       <c r="I317">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="318" spans="2:9" x14ac:dyDescent="0.3">
@@ -10028,7 +10028,7 @@
         <v>0.61875000000000002</v>
       </c>
       <c r="I318">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="319" spans="2:9" x14ac:dyDescent="0.3">
@@ -10045,7 +10045,7 @@
         <v>0.86250000000000004</v>
       </c>
       <c r="I319">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="320" spans="2:9" x14ac:dyDescent="0.3">
@@ -10062,7 +10062,7 @@
         <v>1.125</v>
       </c>
       <c r="I320">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="321" spans="2:9" x14ac:dyDescent="0.3">
@@ -10079,7 +10079,7 @@
         <v>1.125</v>
       </c>
       <c r="I321">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="322" spans="2:9" x14ac:dyDescent="0.3">
@@ -10096,7 +10096,7 @@
         <v>0.33750000000000002</v>
       </c>
       <c r="I322">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="323" spans="2:9" x14ac:dyDescent="0.3">
@@ -10113,7 +10113,7 @@
         <v>0.70874999999999999</v>
       </c>
       <c r="I323">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="324" spans="2:9" x14ac:dyDescent="0.3">
@@ -10130,7 +10130,7 @@
         <v>1.11375</v>
       </c>
       <c r="I324">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="325" spans="2:9" x14ac:dyDescent="0.3">
@@ -10147,7 +10147,7 @@
         <v>1.11375</v>
       </c>
       <c r="I325">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="326" spans="2:9" x14ac:dyDescent="0.3">
@@ -10164,7 +10164,7 @@
         <v>6.25E-2</v>
       </c>
       <c r="I326">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="327" spans="2:9" x14ac:dyDescent="0.3">
@@ -10181,7 +10181,7 @@
         <v>0.13125000000000001</v>
       </c>
       <c r="I327">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="328" spans="2:9" x14ac:dyDescent="0.3">
@@ -10198,7 +10198,7 @@
         <v>0.20624999999999999</v>
       </c>
       <c r="I328">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="329" spans="2:9" x14ac:dyDescent="0.3">
@@ -10215,7 +10215,7 @@
         <v>0.28749999999999998</v>
       </c>
       <c r="I329">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="330" spans="2:9" x14ac:dyDescent="0.3">
@@ -10232,7 +10232,7 @@
         <v>0.375</v>
       </c>
       <c r="I330">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="331" spans="2:9" x14ac:dyDescent="0.3">
@@ -10249,7 +10249,7 @@
         <v>0.46875</v>
       </c>
       <c r="I331">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="332" spans="2:9" x14ac:dyDescent="0.3">
@@ -10266,7 +10266,7 @@
         <v>0.56874999999999998</v>
       </c>
       <c r="I332">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="333" spans="2:9" x14ac:dyDescent="0.3">
@@ -10283,7 +10283,7 @@
         <v>0.67500000000000004</v>
       </c>
       <c r="I333">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="334" spans="2:9" x14ac:dyDescent="0.3">
@@ -10300,7 +10300,7 @@
         <v>0.78749999999999998</v>
       </c>
       <c r="I334">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="335" spans="2:9" x14ac:dyDescent="0.3">
@@ -10317,7 +10317,7 @@
         <v>0.104166667</v>
       </c>
       <c r="I335">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="336" spans="2:9" x14ac:dyDescent="0.3">
@@ -10334,7 +10334,7 @@
         <v>0.21875</v>
       </c>
       <c r="I336">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="337" spans="2:9" x14ac:dyDescent="0.3">
@@ -10351,7 +10351,7 @@
         <v>0.34375</v>
       </c>
       <c r="I337">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="338" spans="2:9" x14ac:dyDescent="0.3">
@@ -10368,7 +10368,7 @@
         <v>0.47916666699999999</v>
       </c>
       <c r="I338">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="339" spans="2:9" x14ac:dyDescent="0.3">
@@ -10385,7 +10385,7 @@
         <v>0.625</v>
       </c>
       <c r="I339">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="340" spans="2:9" x14ac:dyDescent="0.3">
@@ -10402,7 +10402,7 @@
         <v>0.78125</v>
       </c>
       <c r="I340">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="341" spans="2:9" x14ac:dyDescent="0.3">
@@ -10419,7 +10419,7 @@
         <v>0.94791666699999999</v>
       </c>
       <c r="I341">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="342" spans="2:9" x14ac:dyDescent="0.3">
@@ -10436,7 +10436,7 @@
         <v>1.125</v>
       </c>
       <c r="I342">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="343" spans="2:9" x14ac:dyDescent="0.3">
@@ -10453,7 +10453,7 @@
         <v>1.3125</v>
       </c>
       <c r="I343">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="344" spans="2:9" x14ac:dyDescent="0.3">
@@ -10470,7 +10470,7 @@
         <v>1.3125</v>
       </c>
       <c r="I344">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="345" spans="2:9" x14ac:dyDescent="0.3">
@@ -10487,7 +10487,7 @@
         <v>0.1875</v>
       </c>
       <c r="I345">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="346" spans="2:9" x14ac:dyDescent="0.3">
@@ -10504,7 +10504,7 @@
         <v>0.39374999999999999</v>
       </c>
       <c r="I346">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="347" spans="2:9" x14ac:dyDescent="0.3">
@@ -10521,7 +10521,7 @@
         <v>0.61875000000000002</v>
       </c>
       <c r="I347">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="348" spans="2:9" x14ac:dyDescent="0.3">
@@ -10538,7 +10538,7 @@
         <v>0.86250000000000004</v>
       </c>
       <c r="I348">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="349" spans="2:9" x14ac:dyDescent="0.3">
@@ -10555,7 +10555,7 @@
         <v>1.125</v>
       </c>
       <c r="I349">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="350" spans="2:9" x14ac:dyDescent="0.3">
@@ -10572,7 +10572,7 @@
         <v>1.125</v>
       </c>
       <c r="I350">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="351" spans="2:9" x14ac:dyDescent="0.3">
@@ -10589,7 +10589,7 @@
         <v>4.6875E-2</v>
       </c>
       <c r="I351">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="352" spans="2:9" x14ac:dyDescent="0.3">
@@ -10606,7 +10606,7 @@
         <v>9.8437499999999997E-2</v>
       </c>
       <c r="I352">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="353" spans="2:9" x14ac:dyDescent="0.3">
@@ -10623,7 +10623,7 @@
         <v>0.15468750000000001</v>
       </c>
       <c r="I353">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="354" spans="2:9" x14ac:dyDescent="0.3">
@@ -10640,7 +10640,7 @@
         <v>0.21562500000000001</v>
       </c>
       <c r="I354">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="355" spans="2:9" x14ac:dyDescent="0.3">
@@ -10657,7 +10657,7 @@
         <v>0.28125</v>
       </c>
       <c r="I355">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="356" spans="2:9" x14ac:dyDescent="0.3">
@@ -14828,7 +14828,7 @@
         <v>0.15</v>
       </c>
       <c r="I654">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="655" spans="2:13" x14ac:dyDescent="0.3">
@@ -14845,7 +14845,7 @@
         <v>0.315</v>
       </c>
       <c r="I655">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="656" spans="2:13" x14ac:dyDescent="0.3">
@@ -14862,7 +14862,7 @@
         <v>0.495</v>
       </c>
       <c r="I656">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="657" spans="2:15" x14ac:dyDescent="0.3">
@@ -14879,7 +14879,7 @@
         <v>0.69</v>
       </c>
       <c r="I657">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="658" spans="2:15" x14ac:dyDescent="0.3">
@@ -14896,7 +14896,7 @@
         <v>0.9</v>
       </c>
       <c r="I658">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="659" spans="2:15" x14ac:dyDescent="0.3">
@@ -14964,7 +14964,7 @@
         <v>1</v>
       </c>
       <c r="I662">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K662">
         <v>1</v>
@@ -14987,7 +14987,7 @@
         <v>1.4</v>
       </c>
       <c r="I663">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K663">
         <v>1</v>
@@ -15010,7 +15010,7 @@
         <v>1.75</v>
       </c>
       <c r="I664">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K664">
         <v>1</v>
@@ -15084,7 +15084,7 @@
         <v>0.8</v>
       </c>
       <c r="I668">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K668">
         <v>1</v>
@@ -15107,7 +15107,7 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="I669">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K669">
         <v>1</v>
@@ -15130,7 +15130,7 @@
         <v>1.4</v>
       </c>
       <c r="I670">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K670">
         <v>1</v>

--- a/Excel/AffectorValue.xlsx
+++ b/Excel/AffectorValue.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0590BBEC-C78E-47E2-B555-91FA14E52592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{137C2472-7BAB-43B9-8087-7130566DDF2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{F996C25F-1351-4433-9C2A-F11BFB8CD6D3}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1434" uniqueCount="507">
   <si>
     <t>id|String</t>
   </si>
@@ -1555,6 +1555,9 @@
   </si>
   <si>
     <t>Magic circle 26_D3</t>
+  </si>
+  <si>
+    <t>FireBirdEffect</t>
   </si>
 </sst>
 </file>
@@ -1932,7 +1935,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43ED1DAD-52FA-4BDA-9F73-B0C57AAAD8AB}">
   <dimension ref="A1:C374"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5610,6 +5615,9 @@
       <c r="L45" t="s">
         <v>501</v>
       </c>
+      <c r="O45" t="s">
+        <v>506</v>
+      </c>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B46" t="s">

--- a/Excel/AffectorValue.xlsx
+++ b/Excel/AffectorValue.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{137C2472-7BAB-43B9-8087-7130566DDF2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EABCE75A-8B8E-4660-AE1F-FECE56AE4D56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{F996C25F-1351-4433-9C2A-F11BFB8CD6D3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{F996C25F-1351-4433-9C2A-F11BFB8CD6D3}"/>
   </bookViews>
   <sheets>
     <sheet name="AffectorValueTable" sheetId="1" r:id="rId1"/>
@@ -1935,7 +1935,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43ED1DAD-52FA-4BDA-9F73-B0C57AAAD8AB}">
   <dimension ref="A1:C374"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -4952,7 +4952,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D852FB9-0F3C-4905-91BD-A30305123037}">
   <dimension ref="A1:O760"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>

--- a/Excel/AffectorValue.xlsx
+++ b/Excel/AffectorValue.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EABCE75A-8B8E-4660-AE1F-FECE56AE4D56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA2846A-893A-488D-9E16-5602B6BCEA73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{F996C25F-1351-4433-9C2A-F11BFB8CD6D3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{F996C25F-1351-4433-9C2A-F11BFB8CD6D3}"/>
   </bookViews>
   <sheets>
     <sheet name="AffectorValueTable" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1434" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1436" uniqueCount="508">
   <si>
     <t>id|String</t>
   </si>
@@ -1558,6 +1558,9 @@
   </si>
   <si>
     <t>FireBirdEffect</t>
+  </si>
+  <si>
+    <t>AddForceKnockback</t>
   </si>
 </sst>
 </file>
@@ -1933,9 +1936,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43ED1DAD-52FA-4BDA-9F73-B0C57AAAD8AB}">
-  <dimension ref="A1:C374"/>
+  <dimension ref="A1:C375"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -4063,23 +4066,23 @@
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>361</v>
+        <v>507</v>
       </c>
       <c r="B265">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>309</v>
+        <v>361</v>
       </c>
       <c r="B266">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="B267">
         <v>8</v>
@@ -4087,7 +4090,7 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B268">
         <v>8</v>
@@ -4095,15 +4098,15 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>51</v>
+        <v>317</v>
       </c>
       <c r="B269">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B270">
         <v>7</v>
@@ -4111,7 +4114,7 @@
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B271">
         <v>7</v>
@@ -4119,7 +4122,7 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B272">
         <v>7</v>
@@ -4127,7 +4130,7 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B273">
         <v>7</v>
@@ -4135,7 +4138,7 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B274">
         <v>7</v>
@@ -4143,7 +4146,7 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B275">
         <v>7</v>
@@ -4151,7 +4154,7 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B276">
         <v>7</v>
@@ -4159,7 +4162,7 @@
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B277">
         <v>7</v>
@@ -4167,7 +4170,7 @@
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>158</v>
+        <v>59</v>
       </c>
       <c r="B278">
         <v>7</v>
@@ -4175,7 +4178,7 @@
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="B279">
         <v>7</v>
@@ -4183,7 +4186,7 @@
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="B280">
         <v>7</v>
@@ -4191,7 +4194,7 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="B281">
         <v>7</v>
@@ -4199,7 +4202,7 @@
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="B282">
         <v>7</v>
@@ -4207,7 +4210,7 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="B283">
         <v>7</v>
@@ -4215,7 +4218,7 @@
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="B284">
         <v>7</v>
@@ -4223,7 +4226,7 @@
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B285">
         <v>7</v>
@@ -4231,7 +4234,7 @@
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B286">
         <v>7</v>
@@ -4239,7 +4242,7 @@
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>337</v>
+        <v>62</v>
       </c>
       <c r="B287">
         <v>7</v>
@@ -4247,15 +4250,15 @@
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>63</v>
+        <v>337</v>
       </c>
       <c r="B288">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>161</v>
+        <v>63</v>
       </c>
       <c r="B289">
         <v>14</v>
@@ -4263,7 +4266,7 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B290">
         <v>14</v>
@@ -4271,7 +4274,7 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B291">
         <v>14</v>
@@ -4279,7 +4282,7 @@
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>64</v>
+        <v>163</v>
       </c>
       <c r="B292">
         <v>14</v>
@@ -4287,7 +4290,7 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>164</v>
+        <v>64</v>
       </c>
       <c r="B293">
         <v>14</v>
@@ -4295,7 +4298,7 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B294">
         <v>14</v>
@@ -4303,7 +4306,7 @@
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B295">
         <v>14</v>
@@ -4311,31 +4314,31 @@
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B296">
-        <v>64</v>
+        <v>14</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B297">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>40</v>
+        <v>168</v>
       </c>
       <c r="B298">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>169</v>
+        <v>40</v>
       </c>
       <c r="B299">
         <v>57</v>
@@ -4343,7 +4346,7 @@
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>41</v>
+        <v>169</v>
       </c>
       <c r="B300">
         <v>57</v>
@@ -4351,7 +4354,7 @@
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>170</v>
+        <v>41</v>
       </c>
       <c r="B301">
         <v>57</v>
@@ -4359,7 +4362,7 @@
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>42</v>
+        <v>170</v>
       </c>
       <c r="B302">
         <v>57</v>
@@ -4367,7 +4370,7 @@
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>171</v>
+        <v>42</v>
       </c>
       <c r="B303">
         <v>57</v>
@@ -4375,79 +4378,79 @@
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>43</v>
+        <v>171</v>
       </c>
       <c r="B304">
-        <v>31</v>
+        <v>57</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B305">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B306">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B307">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B308">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B309">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B310">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B311">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B312">
-        <v>68</v>
+        <v>39</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B313">
         <v>68</v>
@@ -4455,7 +4458,7 @@
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>338</v>
+        <v>66</v>
       </c>
       <c r="B314">
         <v>68</v>
@@ -4463,7 +4466,7 @@
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B315">
         <v>68</v>
@@ -4471,47 +4474,47 @@
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>67</v>
+        <v>339</v>
       </c>
       <c r="B316">
-        <v>13</v>
+        <v>68</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B317">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B318">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B319">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B320">
-        <v>68</v>
+        <v>7</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B321">
         <v>68</v>
@@ -4519,31 +4522,31 @@
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B322">
-        <v>13</v>
+        <v>68</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B323">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B324">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B325">
         <v>16</v>
@@ -4551,15 +4554,15 @@
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B326">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B327">
         <v>17</v>
@@ -4567,7 +4570,7 @@
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>340</v>
+        <v>78</v>
       </c>
       <c r="B328">
         <v>17</v>
@@ -4575,7 +4578,7 @@
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B329">
         <v>17</v>
@@ -4583,15 +4586,15 @@
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B330">
-        <v>84</v>
+        <v>17</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B331">
         <v>84</v>
@@ -4599,15 +4602,15 @@
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>79</v>
+        <v>343</v>
       </c>
       <c r="B332">
-        <v>18</v>
+        <v>84</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B333">
         <v>18</v>
@@ -4615,15 +4618,15 @@
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B334">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B335">
         <v>19</v>
@@ -4631,15 +4634,15 @@
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B336">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B337">
         <v>20</v>
@@ -4647,95 +4650,95 @@
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="B338">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B339">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B340">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>344</v>
+        <v>104</v>
       </c>
       <c r="B341">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>85</v>
+        <v>344</v>
       </c>
       <c r="B342">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B343">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>172</v>
+        <v>86</v>
       </c>
       <c r="B344">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B345">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>105</v>
+        <v>173</v>
       </c>
       <c r="B346">
-        <v>61</v>
+        <v>7</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B347">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="B348">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>174</v>
+        <v>87</v>
       </c>
       <c r="B349">
         <v>58</v>
@@ -4743,71 +4746,71 @@
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>90</v>
+        <v>174</v>
       </c>
       <c r="B350">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B351">
-        <v>8</v>
+        <v>41</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B352">
-        <v>40</v>
+        <v>8</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B353">
-        <v>9</v>
+        <v>40</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B354">
-        <v>42</v>
+        <v>9</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B355">
-        <v>60</v>
+        <v>42</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="B356">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>175</v>
+        <v>108</v>
       </c>
       <c r="B357">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B358">
         <v>66</v>
@@ -4815,23 +4818,23 @@
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B359">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>467</v>
+        <v>177</v>
       </c>
       <c r="B360">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B361">
         <v>82</v>
@@ -4839,23 +4842,23 @@
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>345</v>
+        <v>468</v>
       </c>
       <c r="B362">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>292</v>
+        <v>345</v>
       </c>
       <c r="B363">
-        <v>22</v>
+        <v>83</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B364">
         <v>22</v>
@@ -4863,7 +4866,7 @@
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B365">
         <v>22</v>
@@ -4871,7 +4874,7 @@
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B366">
         <v>22</v>
@@ -4879,7 +4882,7 @@
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>110</v>
+        <v>295</v>
       </c>
       <c r="B367">
         <v>22</v>
@@ -4887,7 +4890,7 @@
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B368">
         <v>22</v>
@@ -4895,7 +4898,7 @@
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B369">
         <v>22</v>
@@ -4903,7 +4906,7 @@
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B370">
         <v>22</v>
@@ -4911,7 +4914,7 @@
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>281</v>
+        <v>117</v>
       </c>
       <c r="B371">
         <v>22</v>
@@ -4919,7 +4922,7 @@
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B372">
         <v>22</v>
@@ -4927,7 +4930,7 @@
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B373">
         <v>22</v>
@@ -4935,9 +4938,17 @@
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
+        <v>283</v>
+      </c>
+      <c r="B374">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A375" t="s">
         <v>284</v>
       </c>
-      <c r="B374">
+      <c r="B375">
         <v>22</v>
       </c>
     </row>
@@ -4950,9 +4961,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D852FB9-0F3C-4905-91BD-A30305123037}">
-  <dimension ref="A1:O760"/>
+  <dimension ref="A1:O761"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -9242,63 +9253,60 @@
     </row>
     <row r="265" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B265" t="s">
-        <v>361</v>
+        <v>507</v>
       </c>
       <c r="C265">
         <v>1</v>
       </c>
-      <c r="L265" t="s">
-        <v>348</v>
+      <c r="E265">
+        <v>10</v>
+      </c>
+      <c r="I265">
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B266" t="s">
-        <v>309</v>
+        <v>361</v>
       </c>
       <c r="C266">
         <v>1</v>
       </c>
-      <c r="E266">
-        <v>3</v>
+      <c r="L266" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="267" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B267" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="C267">
         <v>1</v>
       </c>
       <c r="E267">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="268" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B268" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C268">
         <v>1</v>
       </c>
       <c r="E268">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B269" t="s">
-        <v>51</v>
+        <v>317</v>
       </c>
       <c r="C269">
         <v>1</v>
       </c>
       <c r="E269">
-        <v>-1</v>
-      </c>
-      <c r="F269">
-        <v>0.15</v>
-      </c>
-      <c r="I269">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="270" spans="2:15" x14ac:dyDescent="0.3">
@@ -9306,13 +9314,13 @@
         <v>51</v>
       </c>
       <c r="C270">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E270">
         <v>-1</v>
       </c>
       <c r="F270">
-        <v>0.315</v>
+        <v>0.15</v>
       </c>
       <c r="I270">
         <v>23</v>
@@ -9323,13 +9331,13 @@
         <v>51</v>
       </c>
       <c r="C271">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E271">
         <v>-1</v>
       </c>
       <c r="F271">
-        <v>0.495</v>
+        <v>0.315</v>
       </c>
       <c r="I271">
         <v>23</v>
@@ -9340,13 +9348,13 @@
         <v>51</v>
       </c>
       <c r="C272">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E272">
         <v>-1</v>
       </c>
       <c r="F272">
-        <v>0.69</v>
+        <v>0.495</v>
       </c>
       <c r="I272">
         <v>23</v>
@@ -9357,13 +9365,13 @@
         <v>51</v>
       </c>
       <c r="C273">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E273">
         <v>-1</v>
       </c>
       <c r="F273">
-        <v>0.9</v>
+        <v>0.69</v>
       </c>
       <c r="I273">
         <v>23</v>
@@ -9374,13 +9382,13 @@
         <v>51</v>
       </c>
       <c r="C274">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E274">
         <v>-1</v>
       </c>
       <c r="F274">
-        <v>1.125</v>
+        <v>0.9</v>
       </c>
       <c r="I274">
         <v>23</v>
@@ -9391,13 +9399,13 @@
         <v>51</v>
       </c>
       <c r="C275">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E275">
         <v>-1</v>
       </c>
       <c r="F275">
-        <v>1.365</v>
+        <v>1.125</v>
       </c>
       <c r="I275">
         <v>23</v>
@@ -9408,13 +9416,13 @@
         <v>51</v>
       </c>
       <c r="C276">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E276">
         <v>-1</v>
       </c>
       <c r="F276">
-        <v>1.62</v>
+        <v>1.365</v>
       </c>
       <c r="I276">
         <v>23</v>
@@ -9425,13 +9433,13 @@
         <v>51</v>
       </c>
       <c r="C277">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E277">
         <v>-1</v>
       </c>
       <c r="F277">
-        <v>1.89</v>
+        <v>1.62</v>
       </c>
       <c r="I277">
         <v>23</v>
@@ -9439,16 +9447,16 @@
     </row>
     <row r="278" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B278" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C278">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E278">
         <v>-1</v>
       </c>
       <c r="F278">
-        <v>0.25</v>
+        <v>1.89</v>
       </c>
       <c r="I278">
         <v>23</v>
@@ -9459,13 +9467,13 @@
         <v>52</v>
       </c>
       <c r="C279">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E279">
         <v>-1</v>
       </c>
       <c r="F279">
-        <v>0.52500000000000002</v>
+        <v>0.25</v>
       </c>
       <c r="I279">
         <v>23</v>
@@ -9476,13 +9484,13 @@
         <v>52</v>
       </c>
       <c r="C280">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E280">
         <v>-1</v>
       </c>
       <c r="F280">
-        <v>0.82499999999999996</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="I280">
         <v>23</v>
@@ -9493,13 +9501,13 @@
         <v>52</v>
       </c>
       <c r="C281">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E281">
         <v>-1</v>
       </c>
       <c r="F281">
-        <v>1.1499999999999999</v>
+        <v>0.82499999999999996</v>
       </c>
       <c r="I281">
         <v>23</v>
@@ -9510,13 +9518,13 @@
         <v>52</v>
       </c>
       <c r="C282">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E282">
         <v>-1</v>
       </c>
       <c r="F282">
-        <v>1.5</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="I282">
         <v>23</v>
@@ -9527,13 +9535,13 @@
         <v>52</v>
       </c>
       <c r="C283">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E283">
         <v>-1</v>
       </c>
       <c r="F283">
-        <v>1.875</v>
+        <v>1.5</v>
       </c>
       <c r="I283">
         <v>23</v>
@@ -9544,13 +9552,13 @@
         <v>52</v>
       </c>
       <c r="C284">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E284">
         <v>-1</v>
       </c>
       <c r="F284">
-        <v>2.2749999999999999</v>
+        <v>1.875</v>
       </c>
       <c r="I284">
         <v>23</v>
@@ -9561,13 +9569,13 @@
         <v>52</v>
       </c>
       <c r="C285">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E285">
         <v>-1</v>
       </c>
       <c r="F285">
-        <v>2.7</v>
+        <v>2.2749999999999999</v>
       </c>
       <c r="I285">
         <v>23</v>
@@ -9578,13 +9586,13 @@
         <v>52</v>
       </c>
       <c r="C286">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E286">
         <v>-1</v>
       </c>
       <c r="F286">
-        <v>3.15</v>
+        <v>2.7</v>
       </c>
       <c r="I286">
         <v>23</v>
@@ -9595,7 +9603,7 @@
         <v>52</v>
       </c>
       <c r="C287">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E287">
         <v>-1</v>
@@ -9609,16 +9617,16 @@
     </row>
     <row r="288" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B288" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C288">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E288">
         <v>-1</v>
       </c>
       <c r="F288">
-        <v>0.45</v>
+        <v>3.15</v>
       </c>
       <c r="I288">
         <v>23</v>
@@ -9629,13 +9637,13 @@
         <v>53</v>
       </c>
       <c r="C289">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E289">
         <v>-1</v>
       </c>
       <c r="F289">
-        <v>0.94499999999999995</v>
+        <v>0.45</v>
       </c>
       <c r="I289">
         <v>23</v>
@@ -9646,13 +9654,13 @@
         <v>53</v>
       </c>
       <c r="C290">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E290">
         <v>-1</v>
       </c>
       <c r="F290">
-        <v>1.4850000000000001</v>
+        <v>0.94499999999999995</v>
       </c>
       <c r="I290">
         <v>23</v>
@@ -9663,7 +9671,7 @@
         <v>53</v>
       </c>
       <c r="C291">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E291">
         <v>-1</v>
@@ -9677,19 +9685,19 @@
     </row>
     <row r="292" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B292" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C292">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E292">
         <v>-1</v>
       </c>
       <c r="F292">
-        <v>0.11874999999999999</v>
+        <v>1.4850000000000001</v>
       </c>
       <c r="I292">
-        <v>3</v>
+        <v>23</v>
       </c>
     </row>
     <row r="293" spans="2:9" x14ac:dyDescent="0.3">
@@ -9697,13 +9705,13 @@
         <v>54</v>
       </c>
       <c r="C293">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E293">
         <v>-1</v>
       </c>
       <c r="F293">
-        <v>0.24937500000000001</v>
+        <v>0.11874999999999999</v>
       </c>
       <c r="I293">
         <v>3</v>
@@ -9714,13 +9722,13 @@
         <v>54</v>
       </c>
       <c r="C294">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E294">
         <v>-1</v>
       </c>
       <c r="F294">
-        <v>0.39187499999999997</v>
+        <v>0.24937500000000001</v>
       </c>
       <c r="I294">
         <v>3</v>
@@ -9731,13 +9739,13 @@
         <v>54</v>
       </c>
       <c r="C295">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E295">
         <v>-1</v>
       </c>
       <c r="F295">
-        <v>0.54625000000000001</v>
+        <v>0.39187499999999997</v>
       </c>
       <c r="I295">
         <v>3</v>
@@ -9748,13 +9756,13 @@
         <v>54</v>
       </c>
       <c r="C296">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E296">
         <v>-1</v>
       </c>
       <c r="F296">
-        <v>0.71250000000000002</v>
+        <v>0.54625000000000001</v>
       </c>
       <c r="I296">
         <v>3</v>
@@ -9765,13 +9773,13 @@
         <v>54</v>
       </c>
       <c r="C297">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E297">
         <v>-1</v>
       </c>
       <c r="F297">
-        <v>0.890625</v>
+        <v>0.71250000000000002</v>
       </c>
       <c r="I297">
         <v>3</v>
@@ -9782,13 +9790,13 @@
         <v>54</v>
       </c>
       <c r="C298">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E298">
         <v>-1</v>
       </c>
       <c r="F298">
-        <v>1.0806249999999999</v>
+        <v>0.890625</v>
       </c>
       <c r="I298">
         <v>3</v>
@@ -9799,13 +9807,13 @@
         <v>54</v>
       </c>
       <c r="C299">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E299">
         <v>-1</v>
       </c>
       <c r="F299">
-        <v>1.2825</v>
+        <v>1.0806249999999999</v>
       </c>
       <c r="I299">
         <v>3</v>
@@ -9816,13 +9824,13 @@
         <v>54</v>
       </c>
       <c r="C300">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E300">
         <v>-1</v>
       </c>
       <c r="F300">
-        <v>1.4962500000000001</v>
+        <v>1.2825</v>
       </c>
       <c r="I300">
         <v>3</v>
@@ -9830,16 +9838,16 @@
     </row>
     <row r="301" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B301" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C301">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E301">
         <v>-1</v>
       </c>
       <c r="F301">
-        <v>0.19791666699999999</v>
+        <v>1.4962500000000001</v>
       </c>
       <c r="I301">
         <v>3</v>
@@ -9850,13 +9858,13 @@
         <v>55</v>
       </c>
       <c r="C302">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E302">
         <v>-1</v>
       </c>
       <c r="F302">
-        <v>0.41562500000000002</v>
+        <v>0.19791666699999999</v>
       </c>
       <c r="I302">
         <v>3</v>
@@ -9867,13 +9875,13 @@
         <v>55</v>
       </c>
       <c r="C303">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E303">
         <v>-1</v>
       </c>
       <c r="F303">
-        <v>0.65312499999999996</v>
+        <v>0.41562500000000002</v>
       </c>
       <c r="I303">
         <v>3</v>
@@ -9884,13 +9892,13 @@
         <v>55</v>
       </c>
       <c r="C304">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E304">
         <v>-1</v>
       </c>
       <c r="F304">
-        <v>0.91041666700000001</v>
+        <v>0.65312499999999996</v>
       </c>
       <c r="I304">
         <v>3</v>
@@ -9901,13 +9909,13 @@
         <v>55</v>
       </c>
       <c r="C305">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E305">
         <v>-1</v>
       </c>
       <c r="F305">
-        <v>1.1875</v>
+        <v>0.91041666700000001</v>
       </c>
       <c r="I305">
         <v>3</v>
@@ -9918,13 +9926,13 @@
         <v>55</v>
       </c>
       <c r="C306">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E306">
         <v>-1</v>
       </c>
       <c r="F306">
-        <v>1.484375</v>
+        <v>1.1875</v>
       </c>
       <c r="I306">
         <v>3</v>
@@ -9935,13 +9943,13 @@
         <v>55</v>
       </c>
       <c r="C307">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E307">
         <v>-1</v>
       </c>
       <c r="F307">
-        <v>1.801041667</v>
+        <v>1.484375</v>
       </c>
       <c r="I307">
         <v>3</v>
@@ -9952,13 +9960,13 @@
         <v>55</v>
       </c>
       <c r="C308">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E308">
         <v>-1</v>
       </c>
       <c r="F308">
-        <v>2.1375000000000002</v>
+        <v>1.801041667</v>
       </c>
       <c r="I308">
         <v>3</v>
@@ -9969,13 +9977,13 @@
         <v>55</v>
       </c>
       <c r="C309">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E309">
         <v>-1</v>
       </c>
       <c r="F309">
-        <v>2.4937499999999999</v>
+        <v>2.1375000000000002</v>
       </c>
       <c r="I309">
         <v>3</v>
@@ -9986,7 +9994,7 @@
         <v>55</v>
       </c>
       <c r="C310">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E310">
         <v>-1</v>
@@ -10000,16 +10008,16 @@
     </row>
     <row r="311" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B311" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C311">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E311">
         <v>-1</v>
       </c>
       <c r="F311">
-        <v>0.35625000000000001</v>
+        <v>2.4937499999999999</v>
       </c>
       <c r="I311">
         <v>3</v>
@@ -10020,13 +10028,13 @@
         <v>56</v>
       </c>
       <c r="C312">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E312">
         <v>-1</v>
       </c>
       <c r="F312">
-        <v>0.74812500000000004</v>
+        <v>0.35625000000000001</v>
       </c>
       <c r="I312">
         <v>3</v>
@@ -10037,13 +10045,13 @@
         <v>56</v>
       </c>
       <c r="C313">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E313">
         <v>-1</v>
       </c>
       <c r="F313">
-        <v>1.1756249999999999</v>
+        <v>0.74812500000000004</v>
       </c>
       <c r="I313">
         <v>3</v>
@@ -10054,7 +10062,7 @@
         <v>56</v>
       </c>
       <c r="C314">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E314">
         <v>-1</v>
@@ -10068,19 +10076,19 @@
     </row>
     <row r="315" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B315" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C315">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E315">
         <v>-1</v>
       </c>
       <c r="F315">
-        <v>0.1125</v>
+        <v>1.1756249999999999</v>
       </c>
       <c r="I315">
-        <v>24</v>
+        <v>3</v>
       </c>
     </row>
     <row r="316" spans="2:9" x14ac:dyDescent="0.3">
@@ -10088,13 +10096,13 @@
         <v>57</v>
       </c>
       <c r="C316">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E316">
         <v>-1</v>
       </c>
       <c r="F316">
-        <v>0.23624999999999999</v>
+        <v>0.1125</v>
       </c>
       <c r="I316">
         <v>24</v>
@@ -10105,13 +10113,13 @@
         <v>57</v>
       </c>
       <c r="C317">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E317">
         <v>-1</v>
       </c>
       <c r="F317">
-        <v>0.37125000000000002</v>
+        <v>0.23624999999999999</v>
       </c>
       <c r="I317">
         <v>24</v>
@@ -10122,13 +10130,13 @@
         <v>57</v>
       </c>
       <c r="C318">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E318">
         <v>-1</v>
       </c>
       <c r="F318">
-        <v>0.51749999999999996</v>
+        <v>0.37125000000000002</v>
       </c>
       <c r="I318">
         <v>24</v>
@@ -10139,13 +10147,13 @@
         <v>57</v>
       </c>
       <c r="C319">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E319">
         <v>-1</v>
       </c>
       <c r="F319">
-        <v>0.67500000000000004</v>
+        <v>0.51749999999999996</v>
       </c>
       <c r="I319">
         <v>24</v>
@@ -10156,13 +10164,13 @@
         <v>57</v>
       </c>
       <c r="C320">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E320">
         <v>-1</v>
       </c>
       <c r="F320">
-        <v>0.84375</v>
+        <v>0.67500000000000004</v>
       </c>
       <c r="I320">
         <v>24</v>
@@ -10173,13 +10181,13 @@
         <v>57</v>
       </c>
       <c r="C321">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E321">
         <v>-1</v>
       </c>
       <c r="F321">
-        <v>1.0237499999999999</v>
+        <v>0.84375</v>
       </c>
       <c r="I321">
         <v>24</v>
@@ -10190,13 +10198,13 @@
         <v>57</v>
       </c>
       <c r="C322">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E322">
         <v>-1</v>
       </c>
       <c r="F322">
-        <v>1.2150000000000001</v>
+        <v>1.0237499999999999</v>
       </c>
       <c r="I322">
         <v>24</v>
@@ -10207,13 +10215,13 @@
         <v>57</v>
       </c>
       <c r="C323">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E323">
         <v>-1</v>
       </c>
       <c r="F323">
-        <v>1.4175</v>
+        <v>1.2150000000000001</v>
       </c>
       <c r="I323">
         <v>24</v>
@@ -10221,16 +10229,16 @@
     </row>
     <row r="324" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B324" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C324">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E324">
         <v>-1</v>
       </c>
       <c r="F324">
-        <v>0.1875</v>
+        <v>1.4175</v>
       </c>
       <c r="I324">
         <v>24</v>
@@ -10241,13 +10249,13 @@
         <v>58</v>
       </c>
       <c r="C325">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E325">
         <v>-1</v>
       </c>
       <c r="F325">
-        <v>0.39374999999999999</v>
+        <v>0.1875</v>
       </c>
       <c r="I325">
         <v>24</v>
@@ -10258,13 +10266,13 @@
         <v>58</v>
       </c>
       <c r="C326">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E326">
         <v>-1</v>
       </c>
       <c r="F326">
-        <v>0.61875000000000002</v>
+        <v>0.39374999999999999</v>
       </c>
       <c r="I326">
         <v>24</v>
@@ -10275,13 +10283,13 @@
         <v>58</v>
       </c>
       <c r="C327">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E327">
         <v>-1</v>
       </c>
       <c r="F327">
-        <v>0.86250000000000004</v>
+        <v>0.61875000000000002</v>
       </c>
       <c r="I327">
         <v>24</v>
@@ -10292,13 +10300,13 @@
         <v>58</v>
       </c>
       <c r="C328">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E328">
         <v>-1</v>
       </c>
       <c r="F328">
-        <v>1.125</v>
+        <v>0.86250000000000004</v>
       </c>
       <c r="I328">
         <v>24</v>
@@ -10309,7 +10317,7 @@
         <v>58</v>
       </c>
       <c r="C329">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E329">
         <v>-1</v>
@@ -10323,16 +10331,16 @@
     </row>
     <row r="330" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B330" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C330">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E330">
         <v>-1</v>
       </c>
       <c r="F330">
-        <v>0.33750000000000002</v>
+        <v>1.125</v>
       </c>
       <c r="I330">
         <v>24</v>
@@ -10343,13 +10351,13 @@
         <v>59</v>
       </c>
       <c r="C331">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E331">
         <v>-1</v>
       </c>
       <c r="F331">
-        <v>0.70874999999999999</v>
+        <v>0.33750000000000002</v>
       </c>
       <c r="I331">
         <v>24</v>
@@ -10360,13 +10368,13 @@
         <v>59</v>
       </c>
       <c r="C332">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E332">
         <v>-1</v>
       </c>
       <c r="F332">
-        <v>1.11375</v>
+        <v>0.70874999999999999</v>
       </c>
       <c r="I332">
         <v>24</v>
@@ -10377,7 +10385,7 @@
         <v>59</v>
       </c>
       <c r="C333">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E333">
         <v>-1</v>
@@ -10391,19 +10399,19 @@
     </row>
     <row r="334" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B334" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C334">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E334">
         <v>-1</v>
       </c>
       <c r="F334">
-        <v>6.25E-2</v>
+        <v>1.11375</v>
       </c>
       <c r="I334">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="335" spans="2:9" x14ac:dyDescent="0.3">
@@ -10411,13 +10419,13 @@
         <v>60</v>
       </c>
       <c r="C335">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E335">
         <v>-1</v>
       </c>
       <c r="F335">
-        <v>0.13125000000000001</v>
+        <v>6.25E-2</v>
       </c>
       <c r="I335">
         <v>22</v>
@@ -10428,13 +10436,13 @@
         <v>60</v>
       </c>
       <c r="C336">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E336">
         <v>-1</v>
       </c>
       <c r="F336">
-        <v>0.20624999999999999</v>
+        <v>0.13125000000000001</v>
       </c>
       <c r="I336">
         <v>22</v>
@@ -10445,13 +10453,13 @@
         <v>60</v>
       </c>
       <c r="C337">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E337">
         <v>-1</v>
       </c>
       <c r="F337">
-        <v>0.28749999999999998</v>
+        <v>0.20624999999999999</v>
       </c>
       <c r="I337">
         <v>22</v>
@@ -10462,13 +10470,13 @@
         <v>60</v>
       </c>
       <c r="C338">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E338">
         <v>-1</v>
       </c>
       <c r="F338">
-        <v>0.375</v>
+        <v>0.28749999999999998</v>
       </c>
       <c r="I338">
         <v>22</v>
@@ -10479,13 +10487,13 @@
         <v>60</v>
       </c>
       <c r="C339">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E339">
         <v>-1</v>
       </c>
       <c r="F339">
-        <v>0.46875</v>
+        <v>0.375</v>
       </c>
       <c r="I339">
         <v>22</v>
@@ -10496,13 +10504,13 @@
         <v>60</v>
       </c>
       <c r="C340">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E340">
         <v>-1</v>
       </c>
       <c r="F340">
-        <v>0.56874999999999998</v>
+        <v>0.46875</v>
       </c>
       <c r="I340">
         <v>22</v>
@@ -10513,13 +10521,13 @@
         <v>60</v>
       </c>
       <c r="C341">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E341">
         <v>-1</v>
       </c>
       <c r="F341">
-        <v>0.67500000000000004</v>
+        <v>0.56874999999999998</v>
       </c>
       <c r="I341">
         <v>22</v>
@@ -10530,13 +10538,13 @@
         <v>60</v>
       </c>
       <c r="C342">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E342">
         <v>-1</v>
       </c>
       <c r="F342">
-        <v>0.78749999999999998</v>
+        <v>0.67500000000000004</v>
       </c>
       <c r="I342">
         <v>22</v>
@@ -10544,16 +10552,16 @@
     </row>
     <row r="343" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B343" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C343">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E343">
         <v>-1</v>
       </c>
       <c r="F343">
-        <v>0.104166667</v>
+        <v>0.78749999999999998</v>
       </c>
       <c r="I343">
         <v>22</v>
@@ -10564,13 +10572,13 @@
         <v>61</v>
       </c>
       <c r="C344">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E344">
         <v>-1</v>
       </c>
       <c r="F344">
-        <v>0.21875</v>
+        <v>0.104166667</v>
       </c>
       <c r="I344">
         <v>22</v>
@@ -10581,13 +10589,13 @@
         <v>61</v>
       </c>
       <c r="C345">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E345">
         <v>-1</v>
       </c>
       <c r="F345">
-        <v>0.34375</v>
+        <v>0.21875</v>
       </c>
       <c r="I345">
         <v>22</v>
@@ -10598,13 +10606,13 @@
         <v>61</v>
       </c>
       <c r="C346">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E346">
         <v>-1</v>
       </c>
       <c r="F346">
-        <v>0.47916666699999999</v>
+        <v>0.34375</v>
       </c>
       <c r="I346">
         <v>22</v>
@@ -10615,13 +10623,13 @@
         <v>61</v>
       </c>
       <c r="C347">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E347">
         <v>-1</v>
       </c>
       <c r="F347">
-        <v>0.625</v>
+        <v>0.47916666699999999</v>
       </c>
       <c r="I347">
         <v>22</v>
@@ -10632,13 +10640,13 @@
         <v>61</v>
       </c>
       <c r="C348">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E348">
         <v>-1</v>
       </c>
       <c r="F348">
-        <v>0.78125</v>
+        <v>0.625</v>
       </c>
       <c r="I348">
         <v>22</v>
@@ -10649,13 +10657,13 @@
         <v>61</v>
       </c>
       <c r="C349">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E349">
         <v>-1</v>
       </c>
       <c r="F349">
-        <v>0.94791666699999999</v>
+        <v>0.78125</v>
       </c>
       <c r="I349">
         <v>22</v>
@@ -10666,13 +10674,13 @@
         <v>61</v>
       </c>
       <c r="C350">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E350">
         <v>-1</v>
       </c>
       <c r="F350">
-        <v>1.125</v>
+        <v>0.94791666699999999</v>
       </c>
       <c r="I350">
         <v>22</v>
@@ -10683,13 +10691,13 @@
         <v>61</v>
       </c>
       <c r="C351">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E351">
         <v>-1</v>
       </c>
       <c r="F351">
-        <v>1.3125</v>
+        <v>1.125</v>
       </c>
       <c r="I351">
         <v>22</v>
@@ -10700,7 +10708,7 @@
         <v>61</v>
       </c>
       <c r="C352">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E352">
         <v>-1</v>
@@ -10714,16 +10722,16 @@
     </row>
     <row r="353" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B353" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C353">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E353">
         <v>-1</v>
       </c>
       <c r="F353">
-        <v>0.1875</v>
+        <v>1.3125</v>
       </c>
       <c r="I353">
         <v>22</v>
@@ -10734,13 +10742,13 @@
         <v>62</v>
       </c>
       <c r="C354">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E354">
         <v>-1</v>
       </c>
       <c r="F354">
-        <v>0.39374999999999999</v>
+        <v>0.1875</v>
       </c>
       <c r="I354">
         <v>22</v>
@@ -10751,13 +10759,13 @@
         <v>62</v>
       </c>
       <c r="C355">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E355">
         <v>-1</v>
       </c>
       <c r="F355">
-        <v>0.61875000000000002</v>
+        <v>0.39374999999999999</v>
       </c>
       <c r="I355">
         <v>22</v>
@@ -10768,13 +10776,13 @@
         <v>62</v>
       </c>
       <c r="C356">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E356">
         <v>-1</v>
       </c>
       <c r="F356">
-        <v>0.86250000000000004</v>
+        <v>0.61875000000000002</v>
       </c>
       <c r="I356">
         <v>22</v>
@@ -10785,13 +10793,13 @@
         <v>62</v>
       </c>
       <c r="C357">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E357">
         <v>-1</v>
       </c>
       <c r="F357">
-        <v>1.125</v>
+        <v>0.86250000000000004</v>
       </c>
       <c r="I357">
         <v>22</v>
@@ -10802,7 +10810,7 @@
         <v>62</v>
       </c>
       <c r="C358">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E358">
         <v>-1</v>
@@ -10816,16 +10824,16 @@
     </row>
     <row r="359" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B359" t="s">
-        <v>337</v>
+        <v>62</v>
       </c>
       <c r="C359">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E359">
         <v>-1</v>
       </c>
       <c r="F359">
-        <v>4.6875E-2</v>
+        <v>1.125</v>
       </c>
       <c r="I359">
         <v>22</v>
@@ -10836,13 +10844,13 @@
         <v>337</v>
       </c>
       <c r="C360">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E360">
         <v>-1</v>
       </c>
       <c r="F360">
-        <v>9.8437499999999997E-2</v>
+        <v>4.6875E-2</v>
       </c>
       <c r="I360">
         <v>22</v>
@@ -10853,13 +10861,13 @@
         <v>337</v>
       </c>
       <c r="C361">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E361">
         <v>-1</v>
       </c>
       <c r="F361">
-        <v>0.15468750000000001</v>
+        <v>9.8437499999999997E-2</v>
       </c>
       <c r="I361">
         <v>22</v>
@@ -10870,13 +10878,13 @@
         <v>337</v>
       </c>
       <c r="C362">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E362">
         <v>-1</v>
       </c>
       <c r="F362">
-        <v>0.21562500000000001</v>
+        <v>0.15468750000000001</v>
       </c>
       <c r="I362">
         <v>22</v>
@@ -10887,13 +10895,13 @@
         <v>337</v>
       </c>
       <c r="C363">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E363">
         <v>-1</v>
       </c>
       <c r="F363">
-        <v>0.28125</v>
+        <v>0.21562500000000001</v>
       </c>
       <c r="I363">
         <v>22</v>
@@ -10901,13 +10909,19 @@
     </row>
     <row r="364" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B364" t="s">
-        <v>63</v>
+        <v>337</v>
       </c>
       <c r="C364">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="E364">
+        <v>-1</v>
       </c>
       <c r="F364">
-        <v>0.1</v>
+        <v>0.28125</v>
+      </c>
+      <c r="I364">
+        <v>22</v>
       </c>
     </row>
     <row r="365" spans="2:9" x14ac:dyDescent="0.3">
@@ -10915,10 +10929,10 @@
         <v>63</v>
       </c>
       <c r="C365">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F365">
-        <v>0.21</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="366" spans="2:9" x14ac:dyDescent="0.3">
@@ -10926,10 +10940,10 @@
         <v>63</v>
       </c>
       <c r="C366">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F366">
-        <v>0.33</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="367" spans="2:9" x14ac:dyDescent="0.3">
@@ -10937,10 +10951,10 @@
         <v>63</v>
       </c>
       <c r="C367">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F367">
-        <v>0.46</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="368" spans="2:9" x14ac:dyDescent="0.3">
@@ -10948,10 +10962,10 @@
         <v>63</v>
       </c>
       <c r="C368">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F368">
-        <v>0.6</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="369" spans="2:6" x14ac:dyDescent="0.3">
@@ -10959,10 +10973,10 @@
         <v>63</v>
       </c>
       <c r="C369">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F369">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="370" spans="2:6" x14ac:dyDescent="0.3">
@@ -10970,10 +10984,10 @@
         <v>63</v>
       </c>
       <c r="C370">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F370">
-        <v>0.91</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="371" spans="2:6" x14ac:dyDescent="0.3">
@@ -10981,10 +10995,10 @@
         <v>63</v>
       </c>
       <c r="C371">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F371">
-        <v>1.08</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="372" spans="2:6" x14ac:dyDescent="0.3">
@@ -10992,21 +11006,21 @@
         <v>63</v>
       </c>
       <c r="C372">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F372">
-        <v>1.26</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="373" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B373" t="s">
-        <v>161</v>
+        <v>63</v>
       </c>
       <c r="C373">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F373">
-        <v>0.16666666699999999</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="374" spans="2:6" x14ac:dyDescent="0.3">
@@ -11014,10 +11028,10 @@
         <v>161</v>
       </c>
       <c r="C374">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F374">
-        <v>0.35</v>
+        <v>0.16666666699999999</v>
       </c>
     </row>
     <row r="375" spans="2:6" x14ac:dyDescent="0.3">
@@ -11025,10 +11039,10 @@
         <v>161</v>
       </c>
       <c r="C375">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F375">
-        <v>0.55000000000000004</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="376" spans="2:6" x14ac:dyDescent="0.3">
@@ -11036,10 +11050,10 @@
         <v>161</v>
       </c>
       <c r="C376">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F376">
-        <v>0.76666666699999997</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="377" spans="2:6" x14ac:dyDescent="0.3">
@@ -11047,10 +11061,10 @@
         <v>161</v>
       </c>
       <c r="C377">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F377">
-        <v>1</v>
+        <v>0.76666666699999997</v>
       </c>
     </row>
     <row r="378" spans="2:6" x14ac:dyDescent="0.3">
@@ -11058,10 +11072,10 @@
         <v>161</v>
       </c>
       <c r="C378">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F378">
-        <v>1.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379" spans="2:6" x14ac:dyDescent="0.3">
@@ -11069,10 +11083,10 @@
         <v>161</v>
       </c>
       <c r="C379">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F379">
-        <v>1.516666667</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="380" spans="2:6" x14ac:dyDescent="0.3">
@@ -11080,10 +11094,10 @@
         <v>161</v>
       </c>
       <c r="C380">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F380">
-        <v>1.8</v>
+        <v>1.516666667</v>
       </c>
     </row>
     <row r="381" spans="2:6" x14ac:dyDescent="0.3">
@@ -11091,10 +11105,10 @@
         <v>161</v>
       </c>
       <c r="C381">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F381">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="382" spans="2:6" x14ac:dyDescent="0.3">
@@ -11102,7 +11116,7 @@
         <v>161</v>
       </c>
       <c r="C382">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F382">
         <v>2.1</v>
@@ -11110,13 +11124,13 @@
     </row>
     <row r="383" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B383" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C383">
-        <v>1</v>
-      </c>
-      <c r="E383">
-        <v>0.15</v>
+        <v>10</v>
+      </c>
+      <c r="F383">
+        <v>2.1</v>
       </c>
     </row>
     <row r="384" spans="2:6" x14ac:dyDescent="0.3">
@@ -11124,10 +11138,10 @@
         <v>162</v>
       </c>
       <c r="C384">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E384">
-        <v>0.315</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="385" spans="2:5" x14ac:dyDescent="0.3">
@@ -11135,10 +11149,10 @@
         <v>162</v>
       </c>
       <c r="C385">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E385">
-        <v>0.495</v>
+        <v>0.315</v>
       </c>
     </row>
     <row r="386" spans="2:5" x14ac:dyDescent="0.3">
@@ -11146,10 +11160,10 @@
         <v>162</v>
       </c>
       <c r="C386">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E386">
-        <v>0.69</v>
+        <v>0.495</v>
       </c>
     </row>
     <row r="387" spans="2:5" x14ac:dyDescent="0.3">
@@ -11157,10 +11171,10 @@
         <v>162</v>
       </c>
       <c r="C387">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E387">
-        <v>0.9</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="388" spans="2:5" x14ac:dyDescent="0.3">
@@ -11168,10 +11182,10 @@
         <v>162</v>
       </c>
       <c r="C388">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E388">
-        <v>1.125</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="389" spans="2:5" x14ac:dyDescent="0.3">
@@ -11179,10 +11193,10 @@
         <v>162</v>
       </c>
       <c r="C389">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E389">
-        <v>1.365</v>
+        <v>1.125</v>
       </c>
     </row>
     <row r="390" spans="2:5" x14ac:dyDescent="0.3">
@@ -11190,10 +11204,10 @@
         <v>162</v>
       </c>
       <c r="C390">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E390">
-        <v>1.62</v>
+        <v>1.365</v>
       </c>
     </row>
     <row r="391" spans="2:5" x14ac:dyDescent="0.3">
@@ -11201,21 +11215,21 @@
         <v>162</v>
       </c>
       <c r="C391">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E391">
-        <v>1.89</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="392" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B392" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C392">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E392">
-        <v>0.25</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="393" spans="2:5" x14ac:dyDescent="0.3">
@@ -11223,10 +11237,10 @@
         <v>163</v>
       </c>
       <c r="C393">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E393">
-        <v>0.52500000000000002</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="394" spans="2:5" x14ac:dyDescent="0.3">
@@ -11234,10 +11248,10 @@
         <v>163</v>
       </c>
       <c r="C394">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E394">
-        <v>0.82499999999999996</v>
+        <v>0.52500000000000002</v>
       </c>
     </row>
     <row r="395" spans="2:5" x14ac:dyDescent="0.3">
@@ -11245,10 +11259,10 @@
         <v>163</v>
       </c>
       <c r="C395">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E395">
-        <v>1.1499999999999999</v>
+        <v>0.82499999999999996</v>
       </c>
     </row>
     <row r="396" spans="2:5" x14ac:dyDescent="0.3">
@@ -11256,10 +11270,10 @@
         <v>163</v>
       </c>
       <c r="C396">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E396">
-        <v>1.5</v>
+        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="397" spans="2:5" x14ac:dyDescent="0.3">
@@ -11267,10 +11281,10 @@
         <v>163</v>
       </c>
       <c r="C397">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E397">
-        <v>1.875</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="398" spans="2:5" x14ac:dyDescent="0.3">
@@ -11278,10 +11292,10 @@
         <v>163</v>
       </c>
       <c r="C398">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E398">
-        <v>2.2749999999999999</v>
+        <v>1.875</v>
       </c>
     </row>
     <row r="399" spans="2:5" x14ac:dyDescent="0.3">
@@ -11289,10 +11303,10 @@
         <v>163</v>
       </c>
       <c r="C399">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E399">
-        <v>2.7</v>
+        <v>2.2749999999999999</v>
       </c>
     </row>
     <row r="400" spans="2:5" x14ac:dyDescent="0.3">
@@ -11300,21 +11314,21 @@
         <v>163</v>
       </c>
       <c r="C400">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E400">
-        <v>3.15</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="401" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B401" t="s">
-        <v>64</v>
+        <v>163</v>
       </c>
       <c r="C401">
-        <v>1</v>
-      </c>
-      <c r="G401">
-        <v>0.3</v>
+        <v>9</v>
+      </c>
+      <c r="E401">
+        <v>3.15</v>
       </c>
     </row>
     <row r="402" spans="2:7" x14ac:dyDescent="0.3">
@@ -11322,10 +11336,10 @@
         <v>64</v>
       </c>
       <c r="C402">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G402">
-        <v>0.63</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="403" spans="2:7" x14ac:dyDescent="0.3">
@@ -11333,10 +11347,10 @@
         <v>64</v>
       </c>
       <c r="C403">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G403">
-        <v>0.99</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="404" spans="2:7" x14ac:dyDescent="0.3">
@@ -11344,10 +11358,10 @@
         <v>64</v>
       </c>
       <c r="C404">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G404">
-        <v>1.38</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="405" spans="2:7" x14ac:dyDescent="0.3">
@@ -11355,10 +11369,10 @@
         <v>64</v>
       </c>
       <c r="C405">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G405">
-        <v>1.8</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="406" spans="2:7" x14ac:dyDescent="0.3">
@@ -11366,10 +11380,10 @@
         <v>64</v>
       </c>
       <c r="C406">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G406">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="407" spans="2:7" x14ac:dyDescent="0.3">
@@ -11377,10 +11391,10 @@
         <v>64</v>
       </c>
       <c r="C407">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G407">
-        <v>2.73</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="408" spans="2:7" x14ac:dyDescent="0.3">
@@ -11388,10 +11402,10 @@
         <v>64</v>
       </c>
       <c r="C408">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G408">
-        <v>3.24</v>
+        <v>2.73</v>
       </c>
     </row>
     <row r="409" spans="2:7" x14ac:dyDescent="0.3">
@@ -11399,21 +11413,21 @@
         <v>64</v>
       </c>
       <c r="C409">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G409">
-        <v>3.78</v>
+        <v>3.24</v>
       </c>
     </row>
     <row r="410" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B410" t="s">
-        <v>164</v>
+        <v>64</v>
       </c>
       <c r="C410">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G410">
-        <v>0.5</v>
+        <v>3.78</v>
       </c>
     </row>
     <row r="411" spans="2:7" x14ac:dyDescent="0.3">
@@ -11421,10 +11435,10 @@
         <v>164</v>
       </c>
       <c r="C411">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G411">
-        <v>1.05</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="412" spans="2:7" x14ac:dyDescent="0.3">
@@ -11432,10 +11446,10 @@
         <v>164</v>
       </c>
       <c r="C412">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G412">
-        <v>1.65</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="413" spans="2:7" x14ac:dyDescent="0.3">
@@ -11443,10 +11457,10 @@
         <v>164</v>
       </c>
       <c r="C413">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G413">
-        <v>2.2999999999999998</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="414" spans="2:7" x14ac:dyDescent="0.3">
@@ -11454,10 +11468,10 @@
         <v>164</v>
       </c>
       <c r="C414">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G414">
-        <v>3</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="415" spans="2:7" x14ac:dyDescent="0.3">
@@ -11465,10 +11479,10 @@
         <v>164</v>
       </c>
       <c r="C415">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G415">
-        <v>3.75</v>
+        <v>3</v>
       </c>
     </row>
     <row r="416" spans="2:7" x14ac:dyDescent="0.3">
@@ -11476,10 +11490,10 @@
         <v>164</v>
       </c>
       <c r="C416">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G416">
-        <v>4.55</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="417" spans="2:8" x14ac:dyDescent="0.3">
@@ -11487,10 +11501,10 @@
         <v>164</v>
       </c>
       <c r="C417">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G417">
-        <v>5.4</v>
+        <v>4.55</v>
       </c>
     </row>
     <row r="418" spans="2:8" x14ac:dyDescent="0.3">
@@ -11498,21 +11512,21 @@
         <v>164</v>
       </c>
       <c r="C418">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G418">
-        <v>6.3</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="419" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B419" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C419">
-        <v>1</v>
-      </c>
-      <c r="H419">
-        <v>0.3</v>
+        <v>9</v>
+      </c>
+      <c r="G419">
+        <v>6.3</v>
       </c>
     </row>
     <row r="420" spans="2:8" x14ac:dyDescent="0.3">
@@ -11520,10 +11534,10 @@
         <v>165</v>
       </c>
       <c r="C420">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H420">
-        <v>0.63</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="421" spans="2:8" x14ac:dyDescent="0.3">
@@ -11531,10 +11545,10 @@
         <v>165</v>
       </c>
       <c r="C421">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H421">
-        <v>0.99</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="422" spans="2:8" x14ac:dyDescent="0.3">
@@ -11542,10 +11556,10 @@
         <v>165</v>
       </c>
       <c r="C422">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H422">
-        <v>1.38</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="423" spans="2:8" x14ac:dyDescent="0.3">
@@ -11553,10 +11567,10 @@
         <v>165</v>
       </c>
       <c r="C423">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H423">
-        <v>1.8</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="424" spans="2:8" x14ac:dyDescent="0.3">
@@ -11564,10 +11578,10 @@
         <v>165</v>
       </c>
       <c r="C424">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H424">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="425" spans="2:8" x14ac:dyDescent="0.3">
@@ -11575,10 +11589,10 @@
         <v>165</v>
       </c>
       <c r="C425">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H425">
-        <v>2.73</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="426" spans="2:8" x14ac:dyDescent="0.3">
@@ -11586,10 +11600,10 @@
         <v>165</v>
       </c>
       <c r="C426">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H426">
-        <v>3.24</v>
+        <v>2.73</v>
       </c>
     </row>
     <row r="427" spans="2:8" x14ac:dyDescent="0.3">
@@ -11597,21 +11611,21 @@
         <v>165</v>
       </c>
       <c r="C427">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H427">
-        <v>3.78</v>
+        <v>3.24</v>
       </c>
     </row>
     <row r="428" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B428" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C428">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H428">
-        <v>0.5</v>
+        <v>3.78</v>
       </c>
     </row>
     <row r="429" spans="2:8" x14ac:dyDescent="0.3">
@@ -11619,10 +11633,10 @@
         <v>166</v>
       </c>
       <c r="C429">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H429">
-        <v>1.05</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="430" spans="2:8" x14ac:dyDescent="0.3">
@@ -11630,10 +11644,10 @@
         <v>166</v>
       </c>
       <c r="C430">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H430">
-        <v>1.65</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="431" spans="2:8" x14ac:dyDescent="0.3">
@@ -11641,10 +11655,10 @@
         <v>166</v>
       </c>
       <c r="C431">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H431">
-        <v>2.2999999999999998</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="432" spans="2:8" x14ac:dyDescent="0.3">
@@ -11652,10 +11666,10 @@
         <v>166</v>
       </c>
       <c r="C432">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H432">
-        <v>3</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="433" spans="2:8" x14ac:dyDescent="0.3">
@@ -11663,10 +11677,10 @@
         <v>166</v>
       </c>
       <c r="C433">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H433">
-        <v>3.75</v>
+        <v>3</v>
       </c>
     </row>
     <row r="434" spans="2:8" x14ac:dyDescent="0.3">
@@ -11674,10 +11688,10 @@
         <v>166</v>
       </c>
       <c r="C434">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H434">
-        <v>4.55</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="435" spans="2:8" x14ac:dyDescent="0.3">
@@ -11685,10 +11699,10 @@
         <v>166</v>
       </c>
       <c r="C435">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H435">
-        <v>5.4</v>
+        <v>4.55</v>
       </c>
     </row>
     <row r="436" spans="2:8" x14ac:dyDescent="0.3">
@@ -11696,27 +11710,21 @@
         <v>166</v>
       </c>
       <c r="C436">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H436">
-        <v>6.3</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="437" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B437" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C437">
-        <v>1</v>
-      </c>
-      <c r="E437">
-        <v>-1</v>
-      </c>
-      <c r="F437">
-        <v>1</v>
-      </c>
-      <c r="G437">
-        <v>0.5</v>
+        <v>9</v>
+      </c>
+      <c r="H437">
+        <v>6.3</v>
       </c>
     </row>
     <row r="438" spans="2:8" x14ac:dyDescent="0.3">
@@ -11724,13 +11732,13 @@
         <v>167</v>
       </c>
       <c r="C438">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E438">
         <v>-1</v>
       </c>
       <c r="F438">
-        <v>4.1900000000000004</v>
+        <v>1</v>
       </c>
       <c r="G438">
         <v>0.5</v>
@@ -11741,13 +11749,13 @@
         <v>167</v>
       </c>
       <c r="C439">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E439">
         <v>-1</v>
       </c>
       <c r="F439">
-        <v>9.57</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="G439">
         <v>0.5</v>
@@ -11755,16 +11763,19 @@
     </row>
     <row r="440" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B440" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C440">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E440">
         <v>-1</v>
       </c>
       <c r="F440">
-        <v>0.24</v>
+        <v>9.57</v>
+      </c>
+      <c r="G440">
+        <v>0.5</v>
       </c>
     </row>
     <row r="441" spans="2:8" x14ac:dyDescent="0.3">
@@ -11772,13 +11783,13 @@
         <v>168</v>
       </c>
       <c r="C441">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E441">
         <v>-1</v>
       </c>
       <c r="F441">
-        <v>0.20869565200000001</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="442" spans="2:8" x14ac:dyDescent="0.3">
@@ -11786,24 +11797,27 @@
         <v>168</v>
       </c>
       <c r="C442">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E442">
         <v>-1</v>
       </c>
       <c r="F442">
-        <v>0.18147447999999999</v>
+        <v>0.20869565200000001</v>
       </c>
     </row>
     <row r="443" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B443" t="s">
-        <v>40</v>
+        <v>168</v>
       </c>
       <c r="C443">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="E443">
+        <v>-1</v>
       </c>
       <c r="F443">
-        <v>0.15</v>
+        <v>0.18147447999999999</v>
       </c>
     </row>
     <row r="444" spans="2:8" x14ac:dyDescent="0.3">
@@ -11811,10 +11825,10 @@
         <v>40</v>
       </c>
       <c r="C444">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F444">
-        <v>0.315</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="445" spans="2:8" x14ac:dyDescent="0.3">
@@ -11822,21 +11836,21 @@
         <v>40</v>
       </c>
       <c r="C445">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F445">
-        <v>0.495</v>
+        <v>0.315</v>
       </c>
     </row>
     <row r="446" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B446" t="s">
-        <v>169</v>
+        <v>40</v>
       </c>
       <c r="C446">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F446">
-        <v>0.25</v>
+        <v>0.495</v>
       </c>
     </row>
     <row r="447" spans="2:8" x14ac:dyDescent="0.3">
@@ -11844,10 +11858,10 @@
         <v>169</v>
       </c>
       <c r="C447">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F447">
-        <v>0.52500000000000002</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="448" spans="2:8" x14ac:dyDescent="0.3">
@@ -11855,21 +11869,21 @@
         <v>169</v>
       </c>
       <c r="C448">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F448">
-        <v>0.82499999999999996</v>
+        <v>0.52500000000000002</v>
       </c>
     </row>
     <row r="449" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B449" t="s">
-        <v>41</v>
+        <v>169</v>
       </c>
       <c r="C449">
-        <v>1</v>
-      </c>
-      <c r="G449">
-        <v>0.1125</v>
+        <v>3</v>
+      </c>
+      <c r="F449">
+        <v>0.82499999999999996</v>
       </c>
     </row>
     <row r="450" spans="2:9" x14ac:dyDescent="0.3">
@@ -11877,10 +11891,10 @@
         <v>41</v>
       </c>
       <c r="C450">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G450">
-        <v>0.23624999999999999</v>
+        <v>0.1125</v>
       </c>
     </row>
     <row r="451" spans="2:9" x14ac:dyDescent="0.3">
@@ -11888,21 +11902,21 @@
         <v>41</v>
       </c>
       <c r="C451">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G451">
-        <v>0.37125000000000002</v>
+        <v>0.23624999999999999</v>
       </c>
     </row>
     <row r="452" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B452" t="s">
-        <v>170</v>
+        <v>41</v>
       </c>
       <c r="C452">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G452">
-        <v>0.1875</v>
+        <v>0.37125000000000002</v>
       </c>
     </row>
     <row r="453" spans="2:9" x14ac:dyDescent="0.3">
@@ -11910,10 +11924,10 @@
         <v>170</v>
       </c>
       <c r="C453">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G453">
-        <v>0.39374999999999999</v>
+        <v>0.1875</v>
       </c>
     </row>
     <row r="454" spans="2:9" x14ac:dyDescent="0.3">
@@ -11921,21 +11935,21 @@
         <v>170</v>
       </c>
       <c r="C454">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G454">
-        <v>0.61875000000000002</v>
+        <v>0.39374999999999999</v>
       </c>
     </row>
     <row r="455" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B455" t="s">
-        <v>42</v>
+        <v>170</v>
       </c>
       <c r="C455">
-        <v>1</v>
-      </c>
-      <c r="H455">
-        <v>0.16666666699999999</v>
+        <v>3</v>
+      </c>
+      <c r="G455">
+        <v>0.61875000000000002</v>
       </c>
     </row>
     <row r="456" spans="2:9" x14ac:dyDescent="0.3">
@@ -11943,10 +11957,10 @@
         <v>42</v>
       </c>
       <c r="C456">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H456">
-        <v>0.35</v>
+        <v>0.16666666699999999</v>
       </c>
     </row>
     <row r="457" spans="2:9" x14ac:dyDescent="0.3">
@@ -11954,21 +11968,21 @@
         <v>42</v>
       </c>
       <c r="C457">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H457">
-        <v>0.55000000000000004</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="458" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B458" t="s">
-        <v>171</v>
+        <v>42</v>
       </c>
       <c r="C458">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H458">
-        <v>0.27777777799999998</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="459" spans="2:9" x14ac:dyDescent="0.3">
@@ -11976,10 +11990,10 @@
         <v>171</v>
       </c>
       <c r="C459">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H459">
-        <v>0.58333333300000001</v>
+        <v>0.27777777799999998</v>
       </c>
     </row>
     <row r="460" spans="2:9" x14ac:dyDescent="0.3">
@@ -11987,21 +12001,21 @@
         <v>171</v>
       </c>
       <c r="C460">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H460">
-        <v>0.91666666699999999</v>
+        <v>0.58333333300000001</v>
       </c>
     </row>
     <row r="461" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B461" t="s">
-        <v>43</v>
+        <v>171</v>
       </c>
       <c r="C461">
-        <v>1</v>
-      </c>
-      <c r="I461">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="H461">
+        <v>0.91666666699999999</v>
       </c>
     </row>
     <row r="462" spans="2:9" x14ac:dyDescent="0.3">
@@ -12009,21 +12023,21 @@
         <v>43</v>
       </c>
       <c r="C462">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I462">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B463" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C463">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I463">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464" spans="2:9" x14ac:dyDescent="0.3">
@@ -12031,21 +12045,21 @@
         <v>44</v>
       </c>
       <c r="C464">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I464">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B465" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C465">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I465">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466" spans="2:9" x14ac:dyDescent="0.3">
@@ -12053,24 +12067,21 @@
         <v>45</v>
       </c>
       <c r="C466">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I466">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B467" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C467">
-        <v>1</v>
-      </c>
-      <c r="F467">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="I467">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468" spans="2:9" x14ac:dyDescent="0.3">
@@ -12078,24 +12089,27 @@
         <v>46</v>
       </c>
       <c r="C468">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F468">
         <v>0.6</v>
       </c>
       <c r="I468">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B469" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C469">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="F469">
+        <v>0.6</v>
       </c>
       <c r="I469">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470" spans="2:9" x14ac:dyDescent="0.3">
@@ -12103,21 +12117,21 @@
         <v>47</v>
       </c>
       <c r="C470">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I470">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="471" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B471" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C471">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I471">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472" spans="2:9" x14ac:dyDescent="0.3">
@@ -12125,21 +12139,21 @@
         <v>48</v>
       </c>
       <c r="C472">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I472">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B473" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C473">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I473">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474" spans="2:9" x14ac:dyDescent="0.3">
@@ -12147,24 +12161,21 @@
         <v>49</v>
       </c>
       <c r="C474">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I474">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B475" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C475">
-        <v>1</v>
-      </c>
-      <c r="F475">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="I475">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="476" spans="2:9" x14ac:dyDescent="0.3">
@@ -12172,27 +12183,27 @@
         <v>50</v>
       </c>
       <c r="C476">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F476">
         <v>0.3</v>
       </c>
       <c r="I476">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="477" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B477" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="C477">
-        <v>1</v>
-      </c>
-      <c r="E477">
-        <v>-1</v>
-      </c>
-      <c r="G477">
-        <v>0.15</v>
+        <v>2</v>
+      </c>
+      <c r="F477">
+        <v>0.3</v>
+      </c>
+      <c r="I477">
+        <v>2</v>
       </c>
     </row>
     <row r="478" spans="2:9" x14ac:dyDescent="0.3">
@@ -12200,13 +12211,13 @@
         <v>65</v>
       </c>
       <c r="C478">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E478">
         <v>-1</v>
       </c>
       <c r="G478">
-        <v>0.315</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="479" spans="2:9" x14ac:dyDescent="0.3">
@@ -12214,13 +12225,13 @@
         <v>65</v>
       </c>
       <c r="C479">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E479">
         <v>-1</v>
       </c>
       <c r="G479">
-        <v>0.495</v>
+        <v>0.315</v>
       </c>
     </row>
     <row r="480" spans="2:9" x14ac:dyDescent="0.3">
@@ -12228,13 +12239,13 @@
         <v>65</v>
       </c>
       <c r="C480">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E480">
         <v>-1</v>
       </c>
       <c r="G480">
-        <v>0.69</v>
+        <v>0.495</v>
       </c>
     </row>
     <row r="481" spans="2:7" x14ac:dyDescent="0.3">
@@ -12242,13 +12253,13 @@
         <v>65</v>
       </c>
       <c r="C481">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E481">
         <v>-1</v>
       </c>
       <c r="G481">
-        <v>0.9</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="482" spans="2:7" x14ac:dyDescent="0.3">
@@ -12256,13 +12267,13 @@
         <v>65</v>
       </c>
       <c r="C482">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E482">
         <v>-1</v>
       </c>
       <c r="G482">
-        <v>1.125</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="483" spans="2:7" x14ac:dyDescent="0.3">
@@ -12270,13 +12281,13 @@
         <v>65</v>
       </c>
       <c r="C483">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E483">
         <v>-1</v>
       </c>
       <c r="G483">
-        <v>1.365</v>
+        <v>1.125</v>
       </c>
     </row>
     <row r="484" spans="2:7" x14ac:dyDescent="0.3">
@@ -12284,13 +12295,13 @@
         <v>65</v>
       </c>
       <c r="C484">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E484">
         <v>-1</v>
       </c>
       <c r="G484">
-        <v>1.62</v>
+        <v>1.365</v>
       </c>
     </row>
     <row r="485" spans="2:7" x14ac:dyDescent="0.3">
@@ -12298,27 +12309,27 @@
         <v>65</v>
       </c>
       <c r="C485">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E485">
         <v>-1</v>
       </c>
       <c r="G485">
-        <v>1.89</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="486" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B486" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C486">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E486">
         <v>-1</v>
       </c>
       <c r="G486">
-        <v>0.25</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="487" spans="2:7" x14ac:dyDescent="0.3">
@@ -12326,13 +12337,13 @@
         <v>66</v>
       </c>
       <c r="C487">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E487">
         <v>-1</v>
       </c>
       <c r="G487">
-        <v>0.52500000000000002</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="488" spans="2:7" x14ac:dyDescent="0.3">
@@ -12340,13 +12351,13 @@
         <v>66</v>
       </c>
       <c r="C488">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E488">
         <v>-1</v>
       </c>
       <c r="G488">
-        <v>0.82499999999999996</v>
+        <v>0.52500000000000002</v>
       </c>
     </row>
     <row r="489" spans="2:7" x14ac:dyDescent="0.3">
@@ -12354,13 +12365,13 @@
         <v>66</v>
       </c>
       <c r="C489">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E489">
         <v>-1</v>
       </c>
       <c r="G489">
-        <v>1.1499999999999999</v>
+        <v>0.82499999999999996</v>
       </c>
     </row>
     <row r="490" spans="2:7" x14ac:dyDescent="0.3">
@@ -12368,27 +12379,27 @@
         <v>66</v>
       </c>
       <c r="C490">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E490">
         <v>-1</v>
       </c>
       <c r="G490">
-        <v>1.5</v>
+        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="491" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B491" t="s">
-        <v>338</v>
+        <v>66</v>
       </c>
       <c r="C491">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E491">
         <v>-1</v>
       </c>
-      <c r="F491">
-        <v>0.15</v>
+      <c r="G491">
+        <v>1.5</v>
       </c>
     </row>
     <row r="492" spans="2:7" x14ac:dyDescent="0.3">
@@ -12396,13 +12407,13 @@
         <v>338</v>
       </c>
       <c r="C492">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E492">
         <v>-1</v>
       </c>
       <c r="F492">
-        <v>0.315</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="493" spans="2:7" x14ac:dyDescent="0.3">
@@ -12410,13 +12421,13 @@
         <v>338</v>
       </c>
       <c r="C493">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E493">
         <v>-1</v>
       </c>
       <c r="F493">
-        <v>0.495</v>
+        <v>0.315</v>
       </c>
     </row>
     <row r="494" spans="2:7" x14ac:dyDescent="0.3">
@@ -12424,13 +12435,13 @@
         <v>338</v>
       </c>
       <c r="C494">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E494">
         <v>-1</v>
       </c>
       <c r="F494">
-        <v>0.69</v>
+        <v>0.495</v>
       </c>
     </row>
     <row r="495" spans="2:7" x14ac:dyDescent="0.3">
@@ -12438,13 +12449,13 @@
         <v>338</v>
       </c>
       <c r="C495">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E495">
         <v>-1</v>
       </c>
       <c r="F495">
-        <v>0.9</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="496" spans="2:7" x14ac:dyDescent="0.3">
@@ -12452,13 +12463,13 @@
         <v>338</v>
       </c>
       <c r="C496">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E496">
         <v>-1</v>
       </c>
       <c r="F496">
-        <v>1.125</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="497" spans="2:13" x14ac:dyDescent="0.3">
@@ -12466,13 +12477,13 @@
         <v>338</v>
       </c>
       <c r="C497">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E497">
         <v>-1</v>
       </c>
       <c r="F497">
-        <v>1.365</v>
+        <v>1.125</v>
       </c>
     </row>
     <row r="498" spans="2:13" x14ac:dyDescent="0.3">
@@ -12480,13 +12491,13 @@
         <v>338</v>
       </c>
       <c r="C498">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E498">
         <v>-1</v>
       </c>
       <c r="F498">
-        <v>1.62</v>
+        <v>1.365</v>
       </c>
     </row>
     <row r="499" spans="2:13" x14ac:dyDescent="0.3">
@@ -12494,27 +12505,27 @@
         <v>338</v>
       </c>
       <c r="C499">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E499">
         <v>-1</v>
       </c>
       <c r="F499">
-        <v>1.89</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="500" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B500" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C500">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E500">
         <v>-1</v>
       </c>
       <c r="F500">
-        <v>0.25</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="501" spans="2:13" x14ac:dyDescent="0.3">
@@ -12522,13 +12533,13 @@
         <v>339</v>
       </c>
       <c r="C501">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E501">
         <v>-1</v>
       </c>
       <c r="F501">
-        <v>0.52500000000000002</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="502" spans="2:13" x14ac:dyDescent="0.3">
@@ -12536,13 +12547,13 @@
         <v>339</v>
       </c>
       <c r="C502">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E502">
         <v>-1</v>
       </c>
       <c r="F502">
-        <v>0.82499999999999996</v>
+        <v>0.52500000000000002</v>
       </c>
     </row>
     <row r="503" spans="2:13" x14ac:dyDescent="0.3">
@@ -12550,13 +12561,13 @@
         <v>339</v>
       </c>
       <c r="C503">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E503">
         <v>-1</v>
       </c>
       <c r="F503">
-        <v>1.1499999999999999</v>
+        <v>0.82499999999999996</v>
       </c>
     </row>
     <row r="504" spans="2:13" x14ac:dyDescent="0.3">
@@ -12564,30 +12575,27 @@
         <v>339</v>
       </c>
       <c r="C504">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E504">
         <v>-1</v>
       </c>
       <c r="F504">
-        <v>1.5</v>
+        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="505" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B505" t="s">
-        <v>67</v>
+        <v>339</v>
       </c>
       <c r="C505">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E505">
         <v>-1</v>
       </c>
-      <c r="K505">
-        <v>1</v>
-      </c>
-      <c r="M505" t="s">
-        <v>68</v>
+      <c r="F505">
+        <v>1.5</v>
       </c>
     </row>
     <row r="506" spans="2:13" x14ac:dyDescent="0.3">
@@ -12595,7 +12603,7 @@
         <v>67</v>
       </c>
       <c r="C506">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E506">
         <v>-1</v>
@@ -12612,7 +12620,7 @@
         <v>67</v>
       </c>
       <c r="C507">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E507">
         <v>-1</v>
@@ -12629,7 +12637,7 @@
         <v>67</v>
       </c>
       <c r="C508">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E508">
         <v>-1</v>
@@ -12646,7 +12654,7 @@
         <v>67</v>
       </c>
       <c r="C509">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E509">
         <v>-1</v>
@@ -12663,7 +12671,7 @@
         <v>67</v>
       </c>
       <c r="C510">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E510">
         <v>-1</v>
@@ -12680,7 +12688,7 @@
         <v>67</v>
       </c>
       <c r="C511">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E511">
         <v>-1</v>
@@ -12697,7 +12705,7 @@
         <v>67</v>
       </c>
       <c r="C512">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E512">
         <v>-1</v>
@@ -12714,7 +12722,7 @@
         <v>67</v>
       </c>
       <c r="C513">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E513">
         <v>-1</v>
@@ -12728,25 +12736,19 @@
     </row>
     <row r="514" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B514" t="s">
+        <v>67</v>
+      </c>
+      <c r="C514">
+        <v>9</v>
+      </c>
+      <c r="E514">
+        <v>-1</v>
+      </c>
+      <c r="K514">
+        <v>1</v>
+      </c>
+      <c r="M514" t="s">
         <v>68</v>
-      </c>
-      <c r="C514">
-        <v>1</v>
-      </c>
-      <c r="E514">
-        <v>4.5</v>
-      </c>
-      <c r="F514">
-        <v>0.23749999999999999</v>
-      </c>
-      <c r="I514">
-        <v>3</v>
-      </c>
-      <c r="K514">
-        <v>1</v>
-      </c>
-      <c r="O514" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="515" spans="2:15" x14ac:dyDescent="0.3">
@@ -12754,13 +12756,13 @@
         <v>68</v>
       </c>
       <c r="C515">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E515">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="F515">
-        <v>0.49875000000000003</v>
+        <v>0.23749999999999999</v>
       </c>
       <c r="I515">
         <v>3</v>
@@ -12777,13 +12779,13 @@
         <v>68</v>
       </c>
       <c r="C516">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E516">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="F516">
-        <v>0.78374999999999995</v>
+        <v>0.49875000000000003</v>
       </c>
       <c r="I516">
         <v>3</v>
@@ -12800,13 +12802,13 @@
         <v>68</v>
       </c>
       <c r="C517">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E517">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="F517">
-        <v>1.0925</v>
+        <v>0.78374999999999995</v>
       </c>
       <c r="I517">
         <v>3</v>
@@ -12823,13 +12825,13 @@
         <v>68</v>
       </c>
       <c r="C518">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E518">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="F518">
-        <v>1.425</v>
+        <v>1.0925</v>
       </c>
       <c r="I518">
         <v>3</v>
@@ -12846,13 +12848,13 @@
         <v>68</v>
       </c>
       <c r="C519">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E519">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="F519">
-        <v>1.78125</v>
+        <v>1.425</v>
       </c>
       <c r="I519">
         <v>3</v>
@@ -12869,13 +12871,13 @@
         <v>68</v>
       </c>
       <c r="C520">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E520">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="F520">
-        <v>2.1612499999999999</v>
+        <v>1.78125</v>
       </c>
       <c r="I520">
         <v>3</v>
@@ -12892,13 +12894,13 @@
         <v>68</v>
       </c>
       <c r="C521">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E521">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="F521">
-        <v>2.5649999999999999</v>
+        <v>2.1612499999999999</v>
       </c>
       <c r="I521">
         <v>3</v>
@@ -12915,13 +12917,13 @@
         <v>68</v>
       </c>
       <c r="C522">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E522">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="F522">
-        <v>2.9925000000000002</v>
+        <v>2.5649999999999999</v>
       </c>
       <c r="I522">
         <v>3</v>
@@ -12935,19 +12937,25 @@
     </row>
     <row r="523" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B523" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C523">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E523">
-        <v>-1</v>
+        <v>6.5</v>
+      </c>
+      <c r="F523">
+        <v>2.9925000000000002</v>
+      </c>
+      <c r="I523">
+        <v>3</v>
       </c>
       <c r="K523">
         <v>1</v>
       </c>
-      <c r="M523" t="s">
-        <v>70</v>
+      <c r="O523" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="524" spans="2:15" x14ac:dyDescent="0.3">
@@ -12955,7 +12963,7 @@
         <v>69</v>
       </c>
       <c r="C524">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E524">
         <v>-1</v>
@@ -12972,7 +12980,7 @@
         <v>69</v>
       </c>
       <c r="C525">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E525">
         <v>-1</v>
@@ -12989,7 +12997,7 @@
         <v>69</v>
       </c>
       <c r="C526">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E526">
         <v>-1</v>
@@ -13006,7 +13014,7 @@
         <v>69</v>
       </c>
       <c r="C527">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E527">
         <v>-1</v>
@@ -13023,7 +13031,7 @@
         <v>69</v>
       </c>
       <c r="C528">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E528">
         <v>-1</v>
@@ -13037,25 +13045,19 @@
     </row>
     <row r="529" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B529" t="s">
+        <v>69</v>
+      </c>
+      <c r="C529">
+        <v>6</v>
+      </c>
+      <c r="E529">
+        <v>-1</v>
+      </c>
+      <c r="K529">
+        <v>1</v>
+      </c>
+      <c r="M529" t="s">
         <v>70</v>
-      </c>
-      <c r="C529">
-        <v>1</v>
-      </c>
-      <c r="E529">
-        <v>4.5</v>
-      </c>
-      <c r="F529">
-        <v>0.39583333300000001</v>
-      </c>
-      <c r="I529">
-        <v>3</v>
-      </c>
-      <c r="K529">
-        <v>1</v>
-      </c>
-      <c r="O529" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="530" spans="2:15" x14ac:dyDescent="0.3">
@@ -13063,13 +13065,13 @@
         <v>70</v>
       </c>
       <c r="C530">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E530">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F530">
-        <v>0.83125000000000004</v>
+        <v>0.39583333300000001</v>
       </c>
       <c r="I530">
         <v>3</v>
@@ -13086,13 +13088,13 @@
         <v>70</v>
       </c>
       <c r="C531">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E531">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="F531">
-        <v>1.3062499999999999</v>
+        <v>0.83125000000000004</v>
       </c>
       <c r="I531">
         <v>3</v>
@@ -13109,13 +13111,13 @@
         <v>70</v>
       </c>
       <c r="C532">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E532">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="F532">
-        <v>1.8208333329999999</v>
+        <v>1.3062499999999999</v>
       </c>
       <c r="I532">
         <v>3</v>
@@ -13132,13 +13134,13 @@
         <v>70</v>
       </c>
       <c r="C533">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E533">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="F533">
-        <v>2.375</v>
+        <v>1.8208333329999999</v>
       </c>
       <c r="I533">
         <v>3</v>
@@ -13155,7 +13157,7 @@
         <v>70</v>
       </c>
       <c r="C534">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E534">
         <v>6.5</v>
@@ -13175,16 +13177,25 @@
     </row>
     <row r="535" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B535" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C535">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E535">
-        <v>-1</v>
-      </c>
-      <c r="H535">
-        <v>0.15</v>
+        <v>6.5</v>
+      </c>
+      <c r="F535">
+        <v>2.375</v>
+      </c>
+      <c r="I535">
+        <v>3</v>
+      </c>
+      <c r="K535">
+        <v>1</v>
+      </c>
+      <c r="O535" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="536" spans="2:15" x14ac:dyDescent="0.3">
@@ -13192,13 +13203,13 @@
         <v>71</v>
       </c>
       <c r="C536">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E536">
         <v>-1</v>
       </c>
       <c r="H536">
-        <v>0.315</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="537" spans="2:15" x14ac:dyDescent="0.3">
@@ -13206,13 +13217,13 @@
         <v>71</v>
       </c>
       <c r="C537">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E537">
         <v>-1</v>
       </c>
       <c r="H537">
-        <v>0.495</v>
+        <v>0.315</v>
       </c>
     </row>
     <row r="538" spans="2:15" x14ac:dyDescent="0.3">
@@ -13220,13 +13231,13 @@
         <v>71</v>
       </c>
       <c r="C538">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E538">
         <v>-1</v>
       </c>
       <c r="H538">
-        <v>0.69</v>
+        <v>0.495</v>
       </c>
     </row>
     <row r="539" spans="2:15" x14ac:dyDescent="0.3">
@@ -13234,13 +13245,13 @@
         <v>71</v>
       </c>
       <c r="C539">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E539">
         <v>-1</v>
       </c>
       <c r="H539">
-        <v>0.9</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="540" spans="2:15" x14ac:dyDescent="0.3">
@@ -13248,13 +13259,13 @@
         <v>71</v>
       </c>
       <c r="C540">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E540">
         <v>-1</v>
       </c>
       <c r="H540">
-        <v>1.125</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="541" spans="2:15" x14ac:dyDescent="0.3">
@@ -13262,13 +13273,13 @@
         <v>71</v>
       </c>
       <c r="C541">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E541">
         <v>-1</v>
       </c>
       <c r="H541">
-        <v>1.365</v>
+        <v>1.125</v>
       </c>
     </row>
     <row r="542" spans="2:15" x14ac:dyDescent="0.3">
@@ -13276,13 +13287,13 @@
         <v>71</v>
       </c>
       <c r="C542">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E542">
         <v>-1</v>
       </c>
       <c r="H542">
-        <v>1.62</v>
+        <v>1.365</v>
       </c>
     </row>
     <row r="543" spans="2:15" x14ac:dyDescent="0.3">
@@ -13290,27 +13301,27 @@
         <v>71</v>
       </c>
       <c r="C543">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E543">
         <v>-1</v>
       </c>
       <c r="H543">
-        <v>1.89</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="544" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B544" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C544">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E544">
         <v>-1</v>
       </c>
       <c r="H544">
-        <v>0.25</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="545" spans="2:13" x14ac:dyDescent="0.3">
@@ -13318,13 +13329,13 @@
         <v>72</v>
       </c>
       <c r="C545">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E545">
         <v>-1</v>
       </c>
       <c r="H545">
-        <v>0.52500000000000002</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="546" spans="2:13" x14ac:dyDescent="0.3">
@@ -13332,13 +13343,13 @@
         <v>72</v>
       </c>
       <c r="C546">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E546">
         <v>-1</v>
       </c>
       <c r="H546">
-        <v>0.82499999999999996</v>
+        <v>0.52500000000000002</v>
       </c>
     </row>
     <row r="547" spans="2:13" x14ac:dyDescent="0.3">
@@ -13346,13 +13357,13 @@
         <v>72</v>
       </c>
       <c r="C547">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E547">
         <v>-1</v>
       </c>
       <c r="H547">
-        <v>1.1499999999999999</v>
+        <v>0.82499999999999996</v>
       </c>
     </row>
     <row r="548" spans="2:13" x14ac:dyDescent="0.3">
@@ -13360,30 +13371,27 @@
         <v>72</v>
       </c>
       <c r="C548">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E548">
         <v>-1</v>
       </c>
       <c r="H548">
-        <v>1.5</v>
+        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="549" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B549" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C549">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E549">
         <v>-1</v>
       </c>
-      <c r="K549">
-        <v>4</v>
-      </c>
-      <c r="M549" t="s">
-        <v>74</v>
+      <c r="H549">
+        <v>1.5</v>
       </c>
     </row>
     <row r="550" spans="2:13" x14ac:dyDescent="0.3">
@@ -13391,7 +13399,7 @@
         <v>73</v>
       </c>
       <c r="C550">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E550">
         <v>-1</v>
@@ -13408,7 +13416,7 @@
         <v>73</v>
       </c>
       <c r="C551">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E551">
         <v>-1</v>
@@ -13425,7 +13433,7 @@
         <v>73</v>
       </c>
       <c r="C552">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E552">
         <v>-1</v>
@@ -13442,7 +13450,7 @@
         <v>73</v>
       </c>
       <c r="C553">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E553">
         <v>-1</v>
@@ -13456,19 +13464,19 @@
     </row>
     <row r="554" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B554" t="s">
+        <v>73</v>
+      </c>
+      <c r="C554">
+        <v>5</v>
+      </c>
+      <c r="E554">
+        <v>-1</v>
+      </c>
+      <c r="K554">
+        <v>4</v>
+      </c>
+      <c r="M554" t="s">
         <v>74</v>
-      </c>
-      <c r="C554">
-        <v>1</v>
-      </c>
-      <c r="E554">
-        <v>4.7</v>
-      </c>
-      <c r="F554">
-        <v>0.92</v>
-      </c>
-      <c r="H554">
-        <v>8.8888888999999999E-2</v>
       </c>
     </row>
     <row r="555" spans="2:13" x14ac:dyDescent="0.3">
@@ -13476,16 +13484,16 @@
         <v>74</v>
       </c>
       <c r="C555">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E555">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="F555">
-        <v>0.84</v>
+        <v>0.92</v>
       </c>
       <c r="H555">
-        <v>0.125373134</v>
+        <v>8.8888888999999999E-2</v>
       </c>
     </row>
     <row r="556" spans="2:13" x14ac:dyDescent="0.3">
@@ -13493,16 +13501,16 @@
         <v>74</v>
       </c>
       <c r="C556">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E556">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="F556">
-        <v>0.76</v>
+        <v>0.84</v>
       </c>
       <c r="H556">
-        <v>0.14505494499999999</v>
+        <v>0.125373134</v>
       </c>
     </row>
     <row r="557" spans="2:13" x14ac:dyDescent="0.3">
@@ -13510,16 +13518,16 @@
         <v>74</v>
       </c>
       <c r="C557">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E557">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="F557">
-        <v>0.68</v>
+        <v>0.76</v>
       </c>
       <c r="H557">
-        <v>0.15726495700000001</v>
+        <v>0.14505494499999999</v>
       </c>
     </row>
     <row r="558" spans="2:13" x14ac:dyDescent="0.3">
@@ -13527,30 +13535,33 @@
         <v>74</v>
       </c>
       <c r="C558">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E558">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="F558">
-        <v>0.6</v>
+        <v>0.68</v>
       </c>
       <c r="H558">
-        <v>0.16551724100000001</v>
+        <v>0.15726495700000001</v>
       </c>
     </row>
     <row r="559" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B559" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C559">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E559">
-        <v>-1</v>
+        <v>3.1</v>
       </c>
       <c r="F559">
-        <v>0.93377528099999996</v>
+        <v>0.6</v>
+      </c>
+      <c r="H559">
+        <v>0.16551724100000001</v>
       </c>
     </row>
     <row r="560" spans="2:13" x14ac:dyDescent="0.3">
@@ -13558,13 +13569,13 @@
         <v>75</v>
       </c>
       <c r="C560">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E560">
         <v>-1</v>
       </c>
       <c r="F560">
-        <v>2.2014964610000001</v>
+        <v>0.93377528099999996</v>
       </c>
     </row>
     <row r="561" spans="2:9" x14ac:dyDescent="0.3">
@@ -13572,13 +13583,13 @@
         <v>75</v>
       </c>
       <c r="C561">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E561">
         <v>-1</v>
       </c>
       <c r="F561">
-        <v>3.8477338200000002</v>
+        <v>2.2014964610000001</v>
       </c>
     </row>
     <row r="562" spans="2:9" x14ac:dyDescent="0.3">
@@ -13586,13 +13597,13 @@
         <v>75</v>
       </c>
       <c r="C562">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E562">
         <v>-1</v>
       </c>
       <c r="F562">
-        <v>5.9275139059999997</v>
+        <v>3.8477338200000002</v>
       </c>
     </row>
     <row r="563" spans="2:9" x14ac:dyDescent="0.3">
@@ -13600,27 +13611,27 @@
         <v>75</v>
       </c>
       <c r="C563">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E563">
         <v>-1</v>
       </c>
       <c r="F563">
-        <v>8.5104402990000008</v>
+        <v>5.9275139059999997</v>
       </c>
     </row>
     <row r="564" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B564" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C564">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E564">
         <v>-1</v>
       </c>
       <c r="F564">
-        <v>1.696040816</v>
+        <v>8.5104402990000008</v>
       </c>
     </row>
     <row r="565" spans="2:9" x14ac:dyDescent="0.3">
@@ -13628,13 +13639,13 @@
         <v>76</v>
       </c>
       <c r="C565">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E565">
         <v>-1</v>
       </c>
       <c r="F565">
-        <v>4.5603870969999996</v>
+        <v>1.696040816</v>
       </c>
     </row>
     <row r="566" spans="2:9" x14ac:dyDescent="0.3">
@@ -13642,30 +13653,27 @@
         <v>76</v>
       </c>
       <c r="C566">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E566">
         <v>-1</v>
       </c>
       <c r="F566">
-        <v>8.9988443329999992</v>
+        <v>4.5603870969999996</v>
       </c>
     </row>
     <row r="567" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B567" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C567">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E567">
         <v>-1</v>
       </c>
       <c r="F567">
-        <v>0.35</v>
-      </c>
-      <c r="I567">
-        <v>0</v>
+        <v>8.9988443329999992</v>
       </c>
     </row>
     <row r="568" spans="2:9" x14ac:dyDescent="0.3">
@@ -13673,13 +13681,13 @@
         <v>77</v>
       </c>
       <c r="C568">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E568">
         <v>-1</v>
       </c>
       <c r="F568">
-        <v>0.73499999999999999</v>
+        <v>0.35</v>
       </c>
       <c r="I568">
         <v>0</v>
@@ -13690,13 +13698,13 @@
         <v>77</v>
       </c>
       <c r="C569">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E569">
         <v>-1</v>
       </c>
       <c r="F569">
-        <v>1.155</v>
+        <v>0.73499999999999999</v>
       </c>
       <c r="I569">
         <v>0</v>
@@ -13707,13 +13715,13 @@
         <v>77</v>
       </c>
       <c r="C570">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E570">
         <v>-1</v>
       </c>
       <c r="F570">
-        <v>1.61</v>
+        <v>1.155</v>
       </c>
       <c r="I570">
         <v>0</v>
@@ -13724,13 +13732,13 @@
         <v>77</v>
       </c>
       <c r="C571">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E571">
         <v>-1</v>
       </c>
       <c r="F571">
-        <v>2.1</v>
+        <v>1.61</v>
       </c>
       <c r="I571">
         <v>0</v>
@@ -13741,13 +13749,13 @@
         <v>77</v>
       </c>
       <c r="C572">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E572">
         <v>-1</v>
       </c>
       <c r="F572">
-        <v>2.625</v>
+        <v>2.1</v>
       </c>
       <c r="I572">
         <v>0</v>
@@ -13758,13 +13766,13 @@
         <v>77</v>
       </c>
       <c r="C573">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E573">
         <v>-1</v>
       </c>
       <c r="F573">
-        <v>3.1850000000000001</v>
+        <v>2.625</v>
       </c>
       <c r="I573">
         <v>0</v>
@@ -13775,13 +13783,13 @@
         <v>77</v>
       </c>
       <c r="C574">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E574">
         <v>-1</v>
       </c>
       <c r="F574">
-        <v>3.78</v>
+        <v>3.1850000000000001</v>
       </c>
       <c r="I574">
         <v>0</v>
@@ -13792,13 +13800,13 @@
         <v>77</v>
       </c>
       <c r="C575">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E575">
         <v>-1</v>
       </c>
       <c r="F575">
-        <v>4.41</v>
+        <v>3.78</v>
       </c>
       <c r="I575">
         <v>0</v>
@@ -13806,16 +13814,16 @@
     </row>
     <row r="576" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B576" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C576">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E576">
         <v>-1</v>
       </c>
       <c r="F576">
-        <v>0.58333333300000001</v>
+        <v>4.41</v>
       </c>
       <c r="I576">
         <v>0</v>
@@ -13826,13 +13834,13 @@
         <v>78</v>
       </c>
       <c r="C577">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E577">
         <v>-1</v>
       </c>
       <c r="F577">
-        <v>1.2250000000000001</v>
+        <v>0.58333333300000001</v>
       </c>
       <c r="I577">
         <v>0</v>
@@ -13843,13 +13851,13 @@
         <v>78</v>
       </c>
       <c r="C578">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E578">
         <v>-1</v>
       </c>
       <c r="F578">
-        <v>1.925</v>
+        <v>1.2250000000000001</v>
       </c>
       <c r="I578">
         <v>0</v>
@@ -13860,13 +13868,13 @@
         <v>78</v>
       </c>
       <c r="C579">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E579">
         <v>-1</v>
       </c>
       <c r="F579">
-        <v>2.6833333330000002</v>
+        <v>1.925</v>
       </c>
       <c r="I579">
         <v>0</v>
@@ -13877,13 +13885,13 @@
         <v>78</v>
       </c>
       <c r="C580">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E580">
         <v>-1</v>
       </c>
       <c r="F580">
-        <v>3.5</v>
+        <v>2.6833333330000002</v>
       </c>
       <c r="I580">
         <v>0</v>
@@ -13894,7 +13902,7 @@
         <v>78</v>
       </c>
       <c r="C581">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E581">
         <v>-1</v>
@@ -13908,19 +13916,19 @@
     </row>
     <row r="582" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B582" t="s">
-        <v>340</v>
+        <v>78</v>
       </c>
       <c r="C582">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E582">
         <v>-1</v>
       </c>
       <c r="F582">
-        <v>0.2</v>
+        <v>3.5</v>
       </c>
       <c r="I582">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583" spans="2:9" x14ac:dyDescent="0.3">
@@ -13928,13 +13936,13 @@
         <v>340</v>
       </c>
       <c r="C583">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E583">
         <v>-1</v>
       </c>
       <c r="F583">
-        <v>0.42</v>
+        <v>0.2</v>
       </c>
       <c r="I583">
         <v>1</v>
@@ -13945,13 +13953,13 @@
         <v>340</v>
       </c>
       <c r="C584">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E584">
         <v>-1</v>
       </c>
       <c r="F584">
-        <v>0.66</v>
+        <v>0.42</v>
       </c>
       <c r="I584">
         <v>1</v>
@@ -13962,13 +13970,13 @@
         <v>340</v>
       </c>
       <c r="C585">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E585">
         <v>-1</v>
       </c>
       <c r="F585">
-        <v>0.92</v>
+        <v>0.66</v>
       </c>
       <c r="I585">
         <v>1</v>
@@ -13979,13 +13987,13 @@
         <v>340</v>
       </c>
       <c r="C586">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E586">
         <v>-1</v>
       </c>
       <c r="F586">
-        <v>1.2</v>
+        <v>0.92</v>
       </c>
       <c r="I586">
         <v>1</v>
@@ -13996,13 +14004,13 @@
         <v>340</v>
       </c>
       <c r="C587">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E587">
         <v>-1</v>
       </c>
       <c r="F587">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="I587">
         <v>1</v>
@@ -14013,13 +14021,13 @@
         <v>340</v>
       </c>
       <c r="C588">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E588">
         <v>-1</v>
       </c>
       <c r="F588">
-        <v>1.82</v>
+        <v>1.5</v>
       </c>
       <c r="I588">
         <v>1</v>
@@ -14030,13 +14038,13 @@
         <v>340</v>
       </c>
       <c r="C589">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E589">
         <v>-1</v>
       </c>
       <c r="F589">
-        <v>2.16</v>
+        <v>1.82</v>
       </c>
       <c r="I589">
         <v>1</v>
@@ -14047,13 +14055,13 @@
         <v>340</v>
       </c>
       <c r="C590">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E590">
         <v>-1</v>
       </c>
       <c r="F590">
-        <v>2.52</v>
+        <v>2.16</v>
       </c>
       <c r="I590">
         <v>1</v>
@@ -14061,16 +14069,16 @@
     </row>
     <row r="591" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B591" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C591">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E591">
         <v>-1</v>
       </c>
       <c r="F591">
-        <v>0.33333333300000001</v>
+        <v>2.52</v>
       </c>
       <c r="I591">
         <v>1</v>
@@ -14081,13 +14089,13 @@
         <v>341</v>
       </c>
       <c r="C592">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E592">
         <v>-1</v>
       </c>
       <c r="F592">
-        <v>0.7</v>
+        <v>0.33333333300000001</v>
       </c>
       <c r="I592">
         <v>1</v>
@@ -14098,13 +14106,13 @@
         <v>341</v>
       </c>
       <c r="C593">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E593">
         <v>-1</v>
       </c>
       <c r="F593">
-        <v>1.1000000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="I593">
         <v>1</v>
@@ -14115,13 +14123,13 @@
         <v>341</v>
       </c>
       <c r="C594">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E594">
         <v>-1</v>
       </c>
       <c r="F594">
-        <v>1.5333333330000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I594">
         <v>1</v>
@@ -14132,13 +14140,13 @@
         <v>341</v>
       </c>
       <c r="C595">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E595">
         <v>-1</v>
       </c>
       <c r="F595">
-        <v>2</v>
+        <v>1.5333333330000001</v>
       </c>
       <c r="I595">
         <v>1</v>
@@ -14146,16 +14154,19 @@
     </row>
     <row r="596" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B596" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C596">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E596">
         <v>-1</v>
       </c>
       <c r="F596">
-        <v>3.0000000000000001E-3</v>
+        <v>2</v>
+      </c>
+      <c r="I596">
+        <v>1</v>
       </c>
     </row>
     <row r="597" spans="2:9" x14ac:dyDescent="0.3">
@@ -14163,13 +14174,13 @@
         <v>342</v>
       </c>
       <c r="C597">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E597">
         <v>-1</v>
       </c>
       <c r="F597">
-        <v>6.3E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="598" spans="2:9" x14ac:dyDescent="0.3">
@@ -14177,13 +14188,13 @@
         <v>342</v>
       </c>
       <c r="C598">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E598">
         <v>-1</v>
       </c>
       <c r="F598">
-        <v>9.9000000000000008E-3</v>
+        <v>6.3E-3</v>
       </c>
     </row>
     <row r="599" spans="2:9" x14ac:dyDescent="0.3">
@@ -14191,13 +14202,13 @@
         <v>342</v>
       </c>
       <c r="C599">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E599">
         <v>-1</v>
       </c>
       <c r="F599">
-        <v>1.38E-2</v>
+        <v>9.9000000000000008E-3</v>
       </c>
     </row>
     <row r="600" spans="2:9" x14ac:dyDescent="0.3">
@@ -14205,13 +14216,13 @@
         <v>342</v>
       </c>
       <c r="C600">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E600">
         <v>-1</v>
       </c>
       <c r="F600">
-        <v>1.7999999999999999E-2</v>
+        <v>1.38E-2</v>
       </c>
     </row>
     <row r="601" spans="2:9" x14ac:dyDescent="0.3">
@@ -14219,13 +14230,13 @@
         <v>342</v>
       </c>
       <c r="C601">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E601">
         <v>-1</v>
       </c>
       <c r="F601">
-        <v>2.2499999999999999E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
     </row>
     <row r="602" spans="2:9" x14ac:dyDescent="0.3">
@@ -14233,13 +14244,13 @@
         <v>342</v>
       </c>
       <c r="C602">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E602">
         <v>-1</v>
       </c>
       <c r="F602">
-        <v>2.7300000000000001E-2</v>
+        <v>2.2499999999999999E-2</v>
       </c>
     </row>
     <row r="603" spans="2:9" x14ac:dyDescent="0.3">
@@ -14247,13 +14258,13 @@
         <v>342</v>
       </c>
       <c r="C603">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E603">
         <v>-1</v>
       </c>
       <c r="F603">
-        <v>3.2399999999999998E-2</v>
+        <v>2.7300000000000001E-2</v>
       </c>
     </row>
     <row r="604" spans="2:9" x14ac:dyDescent="0.3">
@@ -14261,27 +14272,27 @@
         <v>342</v>
       </c>
       <c r="C604">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E604">
         <v>-1</v>
       </c>
       <c r="F604">
-        <v>3.78E-2</v>
+        <v>3.2399999999999998E-2</v>
       </c>
     </row>
     <row r="605" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B605" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C605">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E605">
         <v>-1</v>
       </c>
       <c r="F605">
-        <v>5.0000000000000001E-3</v>
+        <v>3.78E-2</v>
       </c>
     </row>
     <row r="606" spans="2:9" x14ac:dyDescent="0.3">
@@ -14289,13 +14300,13 @@
         <v>343</v>
       </c>
       <c r="C606">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E606">
         <v>-1</v>
       </c>
       <c r="F606">
-        <v>1.0500000000000001E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="607" spans="2:9" x14ac:dyDescent="0.3">
@@ -14303,13 +14314,13 @@
         <v>343</v>
       </c>
       <c r="C607">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E607">
         <v>-1</v>
       </c>
       <c r="F607">
-        <v>1.6500000000000001E-2</v>
+        <v>1.0500000000000001E-2</v>
       </c>
     </row>
     <row r="608" spans="2:9" x14ac:dyDescent="0.3">
@@ -14317,13 +14328,13 @@
         <v>343</v>
       </c>
       <c r="C608">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E608">
         <v>-1</v>
       </c>
       <c r="F608">
-        <v>2.3E-2</v>
+        <v>1.6500000000000001E-2</v>
       </c>
     </row>
     <row r="609" spans="2:6" x14ac:dyDescent="0.3">
@@ -14331,27 +14342,27 @@
         <v>343</v>
       </c>
       <c r="C609">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E609">
         <v>-1</v>
       </c>
       <c r="F609">
-        <v>0.03</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="610" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B610" t="s">
-        <v>79</v>
+        <v>343</v>
       </c>
       <c r="C610">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E610">
         <v>-1</v>
       </c>
       <c r="F610">
-        <v>0.5</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="611" spans="2:6" x14ac:dyDescent="0.3">
@@ -14359,13 +14370,13 @@
         <v>79</v>
       </c>
       <c r="C611">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E611">
         <v>-1</v>
       </c>
       <c r="F611">
-        <v>1.05</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="612" spans="2:6" x14ac:dyDescent="0.3">
@@ -14373,13 +14384,13 @@
         <v>79</v>
       </c>
       <c r="C612">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E612">
         <v>-1</v>
       </c>
       <c r="F612">
-        <v>1.65</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="613" spans="2:6" x14ac:dyDescent="0.3">
@@ -14387,13 +14398,13 @@
         <v>79</v>
       </c>
       <c r="C613">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E613">
         <v>-1</v>
       </c>
       <c r="F613">
-        <v>2.2999999999999998</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="614" spans="2:6" x14ac:dyDescent="0.3">
@@ -14401,27 +14412,27 @@
         <v>79</v>
       </c>
       <c r="C614">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E614">
         <v>-1</v>
       </c>
       <c r="F614">
-        <v>3</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="615" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B615" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C615">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E615">
         <v>-1</v>
       </c>
       <c r="F615">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="616" spans="2:6" x14ac:dyDescent="0.3">
@@ -14429,13 +14440,13 @@
         <v>80</v>
       </c>
       <c r="C616">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E616">
         <v>-1</v>
       </c>
       <c r="F616">
-        <v>2.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="617" spans="2:6" x14ac:dyDescent="0.3">
@@ -14443,27 +14454,27 @@
         <v>80</v>
       </c>
       <c r="C617">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E617">
         <v>-1</v>
       </c>
       <c r="F617">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="618" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B618" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C618">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E618">
         <v>-1</v>
       </c>
       <c r="F618">
-        <v>0.06</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="619" spans="2:6" x14ac:dyDescent="0.3">
@@ -14471,13 +14482,13 @@
         <v>81</v>
       </c>
       <c r="C619">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E619">
         <v>-1</v>
       </c>
       <c r="F619">
-        <v>0.126</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="620" spans="2:6" x14ac:dyDescent="0.3">
@@ -14485,13 +14496,13 @@
         <v>81</v>
       </c>
       <c r="C620">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E620">
         <v>-1</v>
       </c>
       <c r="F620">
-        <v>0.19800000000000001</v>
+        <v>0.126</v>
       </c>
     </row>
     <row r="621" spans="2:6" x14ac:dyDescent="0.3">
@@ -14499,13 +14510,13 @@
         <v>81</v>
       </c>
       <c r="C621">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E621">
         <v>-1</v>
       </c>
       <c r="F621">
-        <v>0.27600000000000002</v>
+        <v>0.19800000000000001</v>
       </c>
     </row>
     <row r="622" spans="2:6" x14ac:dyDescent="0.3">
@@ -14513,13 +14524,13 @@
         <v>81</v>
       </c>
       <c r="C622">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E622">
         <v>-1</v>
       </c>
       <c r="F622">
-        <v>0.36</v>
+        <v>0.27600000000000002</v>
       </c>
     </row>
     <row r="623" spans="2:6" x14ac:dyDescent="0.3">
@@ -14527,13 +14538,13 @@
         <v>81</v>
       </c>
       <c r="C623">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E623">
         <v>-1</v>
       </c>
       <c r="F623">
-        <v>0.45</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="624" spans="2:6" x14ac:dyDescent="0.3">
@@ -14541,13 +14552,13 @@
         <v>81</v>
       </c>
       <c r="C624">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E624">
         <v>-1</v>
       </c>
       <c r="F624">
-        <v>0.54600000000000004</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="625" spans="2:6" x14ac:dyDescent="0.3">
@@ -14555,13 +14566,13 @@
         <v>81</v>
       </c>
       <c r="C625">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E625">
         <v>-1</v>
       </c>
       <c r="F625">
-        <v>0.64800000000000002</v>
+        <v>0.54600000000000004</v>
       </c>
     </row>
     <row r="626" spans="2:6" x14ac:dyDescent="0.3">
@@ -14569,27 +14580,27 @@
         <v>81</v>
       </c>
       <c r="C626">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E626">
         <v>-1</v>
       </c>
       <c r="F626">
-        <v>0.75600000000000001</v>
+        <v>0.64800000000000002</v>
       </c>
     </row>
     <row r="627" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B627" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C627">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E627">
         <v>-1</v>
       </c>
       <c r="F627">
-        <v>0.12</v>
+        <v>0.75600000000000001</v>
       </c>
     </row>
     <row r="628" spans="2:6" x14ac:dyDescent="0.3">
@@ -14597,13 +14608,13 @@
         <v>82</v>
       </c>
       <c r="C628">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E628">
         <v>-1</v>
       </c>
       <c r="F628">
-        <v>0.252</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="629" spans="2:6" x14ac:dyDescent="0.3">
@@ -14611,13 +14622,13 @@
         <v>82</v>
       </c>
       <c r="C629">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E629">
         <v>-1</v>
       </c>
       <c r="F629">
-        <v>0.39600000000000002</v>
+        <v>0.252</v>
       </c>
     </row>
     <row r="630" spans="2:6" x14ac:dyDescent="0.3">
@@ -14625,13 +14636,13 @@
         <v>82</v>
       </c>
       <c r="C630">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E630">
         <v>-1</v>
       </c>
       <c r="F630">
-        <v>0.55200000000000005</v>
+        <v>0.39600000000000002</v>
       </c>
     </row>
     <row r="631" spans="2:6" x14ac:dyDescent="0.3">
@@ -14639,27 +14650,27 @@
         <v>82</v>
       </c>
       <c r="C631">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E631">
         <v>-1</v>
       </c>
       <c r="F631">
-        <v>0.72</v>
+        <v>0.55200000000000005</v>
       </c>
     </row>
     <row r="632" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B632" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C632">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E632">
         <v>-1</v>
       </c>
       <c r="F632">
-        <v>0.15</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="633" spans="2:6" x14ac:dyDescent="0.3">
@@ -14667,13 +14678,13 @@
         <v>83</v>
       </c>
       <c r="C633">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E633">
         <v>-1</v>
       </c>
       <c r="F633">
-        <v>0.315</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="634" spans="2:6" x14ac:dyDescent="0.3">
@@ -14681,13 +14692,13 @@
         <v>83</v>
       </c>
       <c r="C634">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E634">
         <v>-1</v>
       </c>
       <c r="F634">
-        <v>0.495</v>
+        <v>0.315</v>
       </c>
     </row>
     <row r="635" spans="2:6" x14ac:dyDescent="0.3">
@@ -14695,13 +14706,13 @@
         <v>83</v>
       </c>
       <c r="C635">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E635">
         <v>-1</v>
       </c>
       <c r="F635">
-        <v>0.69</v>
+        <v>0.495</v>
       </c>
     </row>
     <row r="636" spans="2:6" x14ac:dyDescent="0.3">
@@ -14709,13 +14720,13 @@
         <v>83</v>
       </c>
       <c r="C636">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E636">
         <v>-1</v>
       </c>
       <c r="F636">
-        <v>0.9</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="637" spans="2:6" x14ac:dyDescent="0.3">
@@ -14723,13 +14734,13 @@
         <v>83</v>
       </c>
       <c r="C637">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E637">
         <v>-1</v>
       </c>
       <c r="F637">
-        <v>1.125</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="638" spans="2:6" x14ac:dyDescent="0.3">
@@ -14737,13 +14748,13 @@
         <v>83</v>
       </c>
       <c r="C638">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E638">
         <v>-1</v>
       </c>
       <c r="F638">
-        <v>1.365</v>
+        <v>1.125</v>
       </c>
     </row>
     <row r="639" spans="2:6" x14ac:dyDescent="0.3">
@@ -14751,13 +14762,13 @@
         <v>83</v>
       </c>
       <c r="C639">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E639">
         <v>-1</v>
       </c>
       <c r="F639">
-        <v>1.62</v>
+        <v>1.365</v>
       </c>
     </row>
     <row r="640" spans="2:6" x14ac:dyDescent="0.3">
@@ -14765,27 +14776,27 @@
         <v>83</v>
       </c>
       <c r="C640">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E640">
         <v>-1</v>
       </c>
       <c r="F640">
-        <v>1.89</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="641" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B641" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C641">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E641">
         <v>-1</v>
       </c>
       <c r="F641">
-        <v>0.25</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="642" spans="2:13" x14ac:dyDescent="0.3">
@@ -14793,13 +14804,13 @@
         <v>84</v>
       </c>
       <c r="C642">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E642">
         <v>-1</v>
       </c>
       <c r="F642">
-        <v>0.52500000000000002</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="643" spans="2:13" x14ac:dyDescent="0.3">
@@ -14807,13 +14818,13 @@
         <v>84</v>
       </c>
       <c r="C643">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E643">
         <v>-1</v>
       </c>
       <c r="F643">
-        <v>0.82499999999999996</v>
+        <v>0.52500000000000002</v>
       </c>
     </row>
     <row r="644" spans="2:13" x14ac:dyDescent="0.3">
@@ -14821,13 +14832,13 @@
         <v>84</v>
       </c>
       <c r="C644">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E644">
         <v>-1</v>
       </c>
       <c r="F644">
-        <v>1.1499999999999999</v>
+        <v>0.82499999999999996</v>
       </c>
     </row>
     <row r="645" spans="2:13" x14ac:dyDescent="0.3">
@@ -14835,13 +14846,13 @@
         <v>84</v>
       </c>
       <c r="C645">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E645">
         <v>-1</v>
       </c>
       <c r="F645">
-        <v>1.5</v>
+        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="646" spans="2:13" x14ac:dyDescent="0.3">
@@ -14849,7 +14860,7 @@
         <v>84</v>
       </c>
       <c r="C646">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E646">
         <v>-1</v>
@@ -14860,19 +14871,16 @@
     </row>
     <row r="647" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B647" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="C647">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E647">
         <v>-1</v>
       </c>
-      <c r="K647">
-        <v>1</v>
-      </c>
-      <c r="M647" t="s">
-        <v>102</v>
+      <c r="F647">
+        <v>1.5</v>
       </c>
     </row>
     <row r="648" spans="2:13" x14ac:dyDescent="0.3">
@@ -14880,7 +14888,7 @@
         <v>101</v>
       </c>
       <c r="C648">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E648">
         <v>-1</v>
@@ -14897,7 +14905,7 @@
         <v>101</v>
       </c>
       <c r="C649">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E649">
         <v>-1</v>
@@ -14914,7 +14922,7 @@
         <v>101</v>
       </c>
       <c r="C650">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E650">
         <v>-1</v>
@@ -14931,7 +14939,7 @@
         <v>101</v>
       </c>
       <c r="C651">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E651">
         <v>-1</v>
@@ -14945,13 +14953,19 @@
     </row>
     <row r="652" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B652" t="s">
+        <v>101</v>
+      </c>
+      <c r="C652">
+        <v>5</v>
+      </c>
+      <c r="E652">
+        <v>-1</v>
+      </c>
+      <c r="K652">
+        <v>1</v>
+      </c>
+      <c r="M652" t="s">
         <v>102</v>
-      </c>
-      <c r="C652">
-        <v>1</v>
-      </c>
-      <c r="L652" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="653" spans="2:13" x14ac:dyDescent="0.3">
@@ -14959,7 +14973,7 @@
         <v>102</v>
       </c>
       <c r="C653">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L653" t="s">
         <v>103</v>
@@ -14970,7 +14984,7 @@
         <v>102</v>
       </c>
       <c r="C654">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L654" t="s">
         <v>103</v>
@@ -14981,7 +14995,7 @@
         <v>102</v>
       </c>
       <c r="C655">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L655" t="s">
         <v>103</v>
@@ -14992,7 +15006,7 @@
         <v>102</v>
       </c>
       <c r="C656">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L656" t="s">
         <v>103</v>
@@ -15000,13 +15014,13 @@
     </row>
     <row r="657" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B657" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C657">
-        <v>1</v>
-      </c>
-      <c r="G657">
-        <v>1.6842105E-2</v>
+        <v>5</v>
+      </c>
+      <c r="L657" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="658" spans="2:15" x14ac:dyDescent="0.3">
@@ -15014,10 +15028,10 @@
         <v>104</v>
       </c>
       <c r="C658">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G658">
-        <v>2.8990509000000001E-2</v>
+        <v>1.6842105E-2</v>
       </c>
     </row>
     <row r="659" spans="2:15" x14ac:dyDescent="0.3">
@@ -15025,10 +15039,10 @@
         <v>104</v>
       </c>
       <c r="C659">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G659">
-        <v>3.8067772E-2</v>
+        <v>2.8990509000000001E-2</v>
       </c>
     </row>
     <row r="660" spans="2:15" x14ac:dyDescent="0.3">
@@ -15036,10 +15050,10 @@
         <v>104</v>
       </c>
       <c r="C660">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G660">
-        <v>4.5042840000000001E-2</v>
+        <v>3.8067772E-2</v>
       </c>
     </row>
     <row r="661" spans="2:15" x14ac:dyDescent="0.3">
@@ -15047,27 +15061,21 @@
         <v>104</v>
       </c>
       <c r="C661">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G661">
-        <v>5.0526316000000002E-2</v>
+        <v>4.5042840000000001E-2</v>
       </c>
     </row>
     <row r="662" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B662" t="s">
-        <v>344</v>
+        <v>104</v>
       </c>
       <c r="C662">
-        <v>1</v>
-      </c>
-      <c r="E662">
-        <v>-1</v>
-      </c>
-      <c r="F662">
-        <v>0.15</v>
-      </c>
-      <c r="I662">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="G662">
+        <v>5.0526316000000002E-2</v>
       </c>
     </row>
     <row r="663" spans="2:15" x14ac:dyDescent="0.3">
@@ -15075,13 +15083,13 @@
         <v>344</v>
       </c>
       <c r="C663">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E663">
         <v>-1</v>
       </c>
       <c r="F663">
-        <v>0.315</v>
+        <v>0.15</v>
       </c>
       <c r="I663">
         <v>6</v>
@@ -15092,13 +15100,13 @@
         <v>344</v>
       </c>
       <c r="C664">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E664">
         <v>-1</v>
       </c>
       <c r="F664">
-        <v>0.495</v>
+        <v>0.315</v>
       </c>
       <c r="I664">
         <v>6</v>
@@ -15109,13 +15117,13 @@
         <v>344</v>
       </c>
       <c r="C665">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E665">
         <v>-1</v>
       </c>
       <c r="F665">
-        <v>0.69</v>
+        <v>0.495</v>
       </c>
       <c r="I665">
         <v>6</v>
@@ -15126,13 +15134,13 @@
         <v>344</v>
       </c>
       <c r="C666">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E666">
         <v>-1</v>
       </c>
       <c r="F666">
-        <v>0.9</v>
+        <v>0.69</v>
       </c>
       <c r="I666">
         <v>6</v>
@@ -15140,19 +15148,19 @@
     </row>
     <row r="667" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B667" t="s">
-        <v>85</v>
+        <v>344</v>
       </c>
       <c r="C667">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E667">
         <v>-1</v>
       </c>
-      <c r="K667">
-        <v>4</v>
-      </c>
-      <c r="M667" t="s">
-        <v>86</v>
+      <c r="F667">
+        <v>0.9</v>
+      </c>
+      <c r="I667">
+        <v>6</v>
       </c>
     </row>
     <row r="668" spans="2:15" x14ac:dyDescent="0.3">
@@ -15160,7 +15168,7 @@
         <v>85</v>
       </c>
       <c r="C668">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E668">
         <v>-1</v>
@@ -15177,7 +15185,7 @@
         <v>85</v>
       </c>
       <c r="C669">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E669">
         <v>-1</v>
@@ -15191,25 +15199,19 @@
     </row>
     <row r="670" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B670" t="s">
+        <v>85</v>
+      </c>
+      <c r="C670">
+        <v>3</v>
+      </c>
+      <c r="E670">
+        <v>-1</v>
+      </c>
+      <c r="K670">
+        <v>4</v>
+      </c>
+      <c r="M670" t="s">
         <v>86</v>
-      </c>
-      <c r="C670">
-        <v>1</v>
-      </c>
-      <c r="E670">
-        <v>2.4</v>
-      </c>
-      <c r="F670">
-        <v>1</v>
-      </c>
-      <c r="I670">
-        <v>6</v>
-      </c>
-      <c r="K670">
-        <v>1</v>
-      </c>
-      <c r="O670" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="671" spans="2:15" x14ac:dyDescent="0.3">
@@ -15217,13 +15219,13 @@
         <v>86</v>
       </c>
       <c r="C671">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E671">
-        <v>5.04</v>
+        <v>2.4</v>
       </c>
       <c r="F671">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="I671">
         <v>6</v>
@@ -15240,13 +15242,13 @@
         <v>86</v>
       </c>
       <c r="C672">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E672">
-        <v>7.92</v>
+        <v>5.04</v>
       </c>
       <c r="F672">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="I672">
         <v>6</v>
@@ -15260,19 +15262,25 @@
     </row>
     <row r="673" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B673" t="s">
-        <v>172</v>
+        <v>86</v>
       </c>
       <c r="C673">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E673">
-        <v>-1</v>
+        <v>7.92</v>
+      </c>
+      <c r="F673">
+        <v>1.75</v>
+      </c>
+      <c r="I673">
+        <v>6</v>
       </c>
       <c r="K673">
-        <v>6</v>
-      </c>
-      <c r="M673" t="s">
-        <v>173</v>
+        <v>1</v>
+      </c>
+      <c r="O673" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="674" spans="2:15" x14ac:dyDescent="0.3">
@@ -15280,7 +15288,7 @@
         <v>172</v>
       </c>
       <c r="C674">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E674">
         <v>-1</v>
@@ -15297,7 +15305,7 @@
         <v>172</v>
       </c>
       <c r="C675">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E675">
         <v>-1</v>
@@ -15311,25 +15319,19 @@
     </row>
     <row r="676" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B676" t="s">
+        <v>172</v>
+      </c>
+      <c r="C676">
+        <v>3</v>
+      </c>
+      <c r="E676">
+        <v>-1</v>
+      </c>
+      <c r="K676">
+        <v>6</v>
+      </c>
+      <c r="M676" t="s">
         <v>173</v>
-      </c>
-      <c r="C676">
-        <v>1</v>
-      </c>
-      <c r="E676">
-        <v>1.6666666670000001</v>
-      </c>
-      <c r="F676">
-        <v>0.8</v>
-      </c>
-      <c r="I676">
-        <v>6</v>
-      </c>
-      <c r="K676">
-        <v>1</v>
-      </c>
-      <c r="O676" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="677" spans="2:15" x14ac:dyDescent="0.3">
@@ -15337,13 +15339,13 @@
         <v>173</v>
       </c>
       <c r="C677">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E677">
-        <v>3.5</v>
+        <v>1.6666666670000001</v>
       </c>
       <c r="F677">
-        <v>1.1200000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="I677">
         <v>6</v>
@@ -15360,13 +15362,13 @@
         <v>173</v>
       </c>
       <c r="C678">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E678">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="F678">
-        <v>1.4</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="I678">
         <v>6</v>
@@ -15380,19 +15382,25 @@
     </row>
     <row r="679" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B679" t="s">
-        <v>105</v>
+        <v>173</v>
       </c>
       <c r="C679">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E679">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="F679">
-        <v>5</v>
-      </c>
-      <c r="L679" t="s">
-        <v>106</v>
+        <v>1.4</v>
+      </c>
+      <c r="I679">
+        <v>6</v>
+      </c>
+      <c r="K679">
+        <v>1</v>
+      </c>
+      <c r="O679" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="680" spans="2:15" x14ac:dyDescent="0.3">
@@ -15400,7 +15408,7 @@
         <v>105</v>
       </c>
       <c r="C680">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E680">
         <v>-1</v>
@@ -15417,7 +15425,7 @@
         <v>105</v>
       </c>
       <c r="C681">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E681">
         <v>-1</v>
@@ -15431,16 +15439,19 @@
     </row>
     <row r="682" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B682" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C682">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E682">
-        <v>1.773049645</v>
-      </c>
-      <c r="J682">
-        <v>1</v>
+        <v>-1</v>
+      </c>
+      <c r="F682">
+        <v>5</v>
+      </c>
+      <c r="L682" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="683" spans="2:15" x14ac:dyDescent="0.3">
@@ -15448,10 +15459,10 @@
         <v>107</v>
       </c>
       <c r="C683">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E683">
-        <v>3.7234042550000002</v>
+        <v>1.773049645</v>
       </c>
       <c r="J683">
         <v>1</v>
@@ -15462,10 +15473,10 @@
         <v>107</v>
       </c>
       <c r="C684">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E684">
-        <v>5.8510638300000002</v>
+        <v>3.7234042550000002</v>
       </c>
       <c r="J684">
         <v>1</v>
@@ -15473,16 +15484,16 @@
     </row>
     <row r="685" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B685" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="C685">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E685">
-        <v>-1</v>
-      </c>
-      <c r="F685">
-        <v>0.02</v>
+        <v>5.8510638300000002</v>
+      </c>
+      <c r="J685">
+        <v>1</v>
       </c>
     </row>
     <row r="686" spans="2:15" x14ac:dyDescent="0.3">
@@ -15490,13 +15501,13 @@
         <v>87</v>
       </c>
       <c r="C686">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E686">
         <v>-1</v>
       </c>
       <c r="F686">
-        <v>4.2000000000000003E-2</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="687" spans="2:15" x14ac:dyDescent="0.3">
@@ -15504,13 +15515,13 @@
         <v>87</v>
       </c>
       <c r="C687">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E687">
         <v>-1</v>
       </c>
       <c r="F687">
-        <v>6.6000000000000003E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
     </row>
     <row r="688" spans="2:15" x14ac:dyDescent="0.3">
@@ -15518,13 +15529,13 @@
         <v>87</v>
       </c>
       <c r="C688">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E688">
         <v>-1</v>
       </c>
       <c r="F688">
-        <v>9.1999999999999998E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
     </row>
     <row r="689" spans="2:15" x14ac:dyDescent="0.3">
@@ -15532,27 +15543,27 @@
         <v>87</v>
       </c>
       <c r="C689">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E689">
         <v>-1</v>
       </c>
       <c r="F689">
-        <v>0.12</v>
+        <v>9.1999999999999998E-2</v>
       </c>
     </row>
     <row r="690" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B690" t="s">
-        <v>174</v>
+        <v>87</v>
       </c>
       <c r="C690">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E690">
         <v>-1</v>
       </c>
       <c r="F690">
-        <v>3.3333333E-2</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="691" spans="2:15" x14ac:dyDescent="0.3">
@@ -15560,13 +15571,13 @@
         <v>174</v>
       </c>
       <c r="C691">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E691">
         <v>-1</v>
       </c>
       <c r="F691">
-        <v>7.0000000000000007E-2</v>
+        <v>3.3333333E-2</v>
       </c>
     </row>
     <row r="692" spans="2:15" x14ac:dyDescent="0.3">
@@ -15574,13 +15585,13 @@
         <v>174</v>
       </c>
       <c r="C692">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E692">
         <v>-1</v>
       </c>
       <c r="F692">
-        <v>0.11</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="693" spans="2:15" x14ac:dyDescent="0.3">
@@ -15588,13 +15599,13 @@
         <v>174</v>
       </c>
       <c r="C693">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E693">
         <v>-1</v>
       </c>
       <c r="F693">
-        <v>0.15333333299999999</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="694" spans="2:15" x14ac:dyDescent="0.3">
@@ -15602,36 +15613,27 @@
         <v>174</v>
       </c>
       <c r="C694">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E694">
         <v>-1</v>
       </c>
       <c r="F694">
-        <v>0.2</v>
+        <v>0.15333333299999999</v>
       </c>
     </row>
     <row r="695" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B695" t="s">
-        <v>90</v>
+        <v>174</v>
       </c>
       <c r="C695">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="E695">
+        <v>-1</v>
       </c>
       <c r="F695">
-        <v>0.33</v>
-      </c>
-      <c r="J695">
-        <v>1</v>
-      </c>
-      <c r="M695" t="s">
-        <v>91</v>
-      </c>
-      <c r="N695">
-        <v>0.7</v>
-      </c>
-      <c r="O695" t="s">
-        <v>122</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="696" spans="2:15" x14ac:dyDescent="0.3">
@@ -15639,10 +15641,10 @@
         <v>90</v>
       </c>
       <c r="C696">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F696">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="J696">
         <v>1</v>
@@ -15650,11 +15652,11 @@
       <c r="M696" t="s">
         <v>91</v>
       </c>
-      <c r="N696" t="s">
-        <v>123</v>
+      <c r="N696">
+        <v>0.7</v>
       </c>
       <c r="O696" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="697" spans="2:15" x14ac:dyDescent="0.3">
@@ -15662,10 +15664,10 @@
         <v>90</v>
       </c>
       <c r="C697">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F697">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="J697">
         <v>1</v>
@@ -15674,21 +15676,33 @@
         <v>91</v>
       </c>
       <c r="N697" t="s">
-        <v>92</v>
+        <v>123</v>
       </c>
       <c r="O697" t="s">
-        <v>93</v>
+        <v>124</v>
       </c>
     </row>
     <row r="698" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B698" t="s">
+        <v>90</v>
+      </c>
+      <c r="C698">
+        <v>3</v>
+      </c>
+      <c r="F698">
+        <v>0.35</v>
+      </c>
+      <c r="J698">
+        <v>1</v>
+      </c>
+      <c r="M698" t="s">
         <v>91</v>
       </c>
-      <c r="C698">
-        <v>1</v>
-      </c>
-      <c r="E698">
-        <v>1.4</v>
+      <c r="N698" t="s">
+        <v>92</v>
+      </c>
+      <c r="O698" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="699" spans="2:15" x14ac:dyDescent="0.3">
@@ -15696,10 +15710,10 @@
         <v>91</v>
       </c>
       <c r="C699">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E699">
-        <v>2</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="700" spans="2:15" x14ac:dyDescent="0.3">
@@ -15707,30 +15721,21 @@
         <v>91</v>
       </c>
       <c r="C700">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E700">
-        <v>2.6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="701" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B701" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C701">
-        <v>1</v>
-      </c>
-      <c r="F701">
-        <v>0.25</v>
-      </c>
-      <c r="G701">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="J701">
-        <v>1</v>
-      </c>
-      <c r="M701" t="s">
-        <v>89</v>
+        <v>3</v>
+      </c>
+      <c r="E701">
+        <v>2.6</v>
       </c>
     </row>
     <row r="702" spans="2:15" x14ac:dyDescent="0.3">
@@ -15738,13 +15743,13 @@
         <v>88</v>
       </c>
       <c r="C702">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F702">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="G702">
-        <v>0.09</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="J702">
         <v>1</v>
@@ -15758,13 +15763,13 @@
         <v>88</v>
       </c>
       <c r="C703">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F703">
-        <v>0.45</v>
+        <v>0.35</v>
       </c>
       <c r="G703">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="J703">
         <v>1</v>
@@ -15775,16 +15780,22 @@
     </row>
     <row r="704" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B704" t="s">
+        <v>88</v>
+      </c>
+      <c r="C704">
+        <v>3</v>
+      </c>
+      <c r="F704">
+        <v>0.45</v>
+      </c>
+      <c r="G704">
+        <v>0.11</v>
+      </c>
+      <c r="J704">
+        <v>1</v>
+      </c>
+      <c r="M704" t="s">
         <v>89</v>
-      </c>
-      <c r="C704">
-        <v>1</v>
-      </c>
-      <c r="E704">
-        <v>1.5</v>
-      </c>
-      <c r="N704" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="705" spans="2:15" x14ac:dyDescent="0.3">
@@ -15792,10 +15803,10 @@
         <v>89</v>
       </c>
       <c r="C705">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E705">
-        <v>3.15</v>
+        <v>1.5</v>
       </c>
       <c r="N705" t="s">
         <v>95</v>
@@ -15806,10 +15817,10 @@
         <v>89</v>
       </c>
       <c r="C706">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E706">
-        <v>4.95</v>
+        <v>3.15</v>
       </c>
       <c r="N706" t="s">
         <v>95</v>
@@ -15817,31 +15828,16 @@
     </row>
     <row r="707" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B707" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C707">
-        <v>1</v>
-      </c>
-      <c r="F707">
-        <v>0.15</v>
-      </c>
-      <c r="G707">
-        <v>0.1</v>
-      </c>
-      <c r="H707">
-        <v>0.1</v>
-      </c>
-      <c r="I707">
         <v>3</v>
       </c>
-      <c r="J707">
-        <v>1</v>
-      </c>
-      <c r="K707">
-        <v>1</v>
-      </c>
-      <c r="M707" t="s">
-        <v>97</v>
+      <c r="E707">
+        <v>4.95</v>
+      </c>
+      <c r="N707" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="708" spans="2:15" x14ac:dyDescent="0.3">
@@ -15849,10 +15845,10 @@
         <v>96</v>
       </c>
       <c r="C708">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F708">
-        <v>0.22500000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="G708">
         <v>0.1</v>
@@ -15861,13 +15857,13 @@
         <v>0.1</v>
       </c>
       <c r="I708">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J708">
         <v>1</v>
       </c>
       <c r="K708">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M708" t="s">
         <v>97</v>
@@ -15878,10 +15874,10 @@
         <v>96</v>
       </c>
       <c r="C709">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F709">
-        <v>0.3</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="G709">
         <v>0.1</v>
@@ -15890,13 +15886,13 @@
         <v>0.1</v>
       </c>
       <c r="I709">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J709">
         <v>1</v>
       </c>
       <c r="K709">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M709" t="s">
         <v>97</v>
@@ -15904,25 +15900,31 @@
     </row>
     <row r="710" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B710" t="s">
+        <v>96</v>
+      </c>
+      <c r="C710">
+        <v>3</v>
+      </c>
+      <c r="F710">
+        <v>0.3</v>
+      </c>
+      <c r="G710">
+        <v>0.1</v>
+      </c>
+      <c r="H710">
+        <v>0.1</v>
+      </c>
+      <c r="I710">
+        <v>9</v>
+      </c>
+      <c r="J710">
+        <v>1</v>
+      </c>
+      <c r="K710">
+        <v>3</v>
+      </c>
+      <c r="M710" t="s">
         <v>97</v>
-      </c>
-      <c r="C710">
-        <v>1</v>
-      </c>
-      <c r="E710">
-        <v>10</v>
-      </c>
-      <c r="F710">
-        <v>10</v>
-      </c>
-      <c r="M710" t="s">
-        <v>125</v>
-      </c>
-      <c r="N710" t="s">
-        <v>98</v>
-      </c>
-      <c r="O710" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="711" spans="2:15" x14ac:dyDescent="0.3">
@@ -15930,10 +15932,10 @@
         <v>97</v>
       </c>
       <c r="C711">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E711">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F711">
         <v>10</v>
@@ -15953,10 +15955,10 @@
         <v>97</v>
       </c>
       <c r="C712">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E712">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F712">
         <v>10</v>
@@ -15973,22 +15975,25 @@
     </row>
     <row r="713" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B713" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="C713">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E713">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="F713">
-        <v>3</v>
-      </c>
-      <c r="G713">
-        <v>3</v>
-      </c>
-      <c r="L713" t="s">
-        <v>109</v>
+        <v>10</v>
+      </c>
+      <c r="M713" t="s">
+        <v>125</v>
+      </c>
+      <c r="N713" t="s">
+        <v>98</v>
+      </c>
+      <c r="O713" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="714" spans="2:15" x14ac:dyDescent="0.3">
@@ -15996,13 +16001,13 @@
         <v>108</v>
       </c>
       <c r="C714">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E714">
         <v>-1</v>
       </c>
       <c r="F714">
-        <v>1.9672131150000001</v>
+        <v>3</v>
       </c>
       <c r="G714">
         <v>3</v>
@@ -16016,13 +16021,13 @@
         <v>108</v>
       </c>
       <c r="C715">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E715">
         <v>-1</v>
       </c>
       <c r="F715">
-        <v>1.428571429</v>
+        <v>1.9672131150000001</v>
       </c>
       <c r="G715">
         <v>3</v>
@@ -16036,13 +16041,13 @@
         <v>108</v>
       </c>
       <c r="C716">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E716">
         <v>-1</v>
       </c>
       <c r="F716">
-        <v>1.1009174310000001</v>
+        <v>1.428571429</v>
       </c>
       <c r="G716">
         <v>3</v>
@@ -16056,13 +16061,13 @@
         <v>108</v>
       </c>
       <c r="C717">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E717">
         <v>-1</v>
       </c>
       <c r="F717">
-        <v>0.88235294099999995</v>
+        <v>1.1009174310000001</v>
       </c>
       <c r="G717">
         <v>3</v>
@@ -16073,19 +16078,22 @@
     </row>
     <row r="718" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B718" t="s">
-        <v>175</v>
+        <v>108</v>
       </c>
       <c r="C718">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E718">
         <v>-1</v>
       </c>
       <c r="F718">
-        <v>1</v>
+        <v>0.88235294099999995</v>
       </c>
       <c r="G718">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="L718" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="719" spans="2:15" x14ac:dyDescent="0.3">
@@ -16093,16 +16101,16 @@
         <v>175</v>
       </c>
       <c r="C719">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E719">
         <v>-1</v>
       </c>
       <c r="F719">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="G719">
-        <v>2.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="720" spans="2:15" x14ac:dyDescent="0.3">
@@ -16110,109 +16118,109 @@
         <v>175</v>
       </c>
       <c r="C720">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E720">
         <v>-1</v>
       </c>
       <c r="F720">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="G720">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="721" spans="2:9" x14ac:dyDescent="0.3">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="721" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B721" t="s">
         <v>175</v>
       </c>
       <c r="C721">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E721">
         <v>-1</v>
       </c>
       <c r="F721">
-        <v>4.5999999999999996</v>
+        <v>3.3</v>
       </c>
       <c r="G721">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="722" spans="2:9" x14ac:dyDescent="0.3">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="722" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B722" t="s">
         <v>175</v>
       </c>
       <c r="C722">
+        <v>4</v>
+      </c>
+      <c r="E722">
+        <v>-1</v>
+      </c>
+      <c r="F722">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G722">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="723" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B723" t="s">
+        <v>175</v>
+      </c>
+      <c r="C723">
         <v>5</v>
       </c>
-      <c r="E722">
-        <v>-1</v>
-      </c>
-      <c r="F722">
+      <c r="E723">
+        <v>-1</v>
+      </c>
+      <c r="F723">
         <v>6</v>
       </c>
-      <c r="G722">
+      <c r="G723">
         <v>6</v>
       </c>
     </row>
-    <row r="723" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B723" t="s">
-        <v>176</v>
-      </c>
-      <c r="C723">
-        <v>1</v>
-      </c>
-      <c r="E723">
-        <v>-1</v>
-      </c>
-      <c r="F723">
-        <v>1.6666666670000001</v>
-      </c>
-      <c r="G723">
-        <v>1.6666666670000001</v>
-      </c>
-    </row>
-    <row r="724" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="724" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B724" t="s">
         <v>176</v>
       </c>
       <c r="C724">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E724">
         <v>-1</v>
       </c>
       <c r="F724">
-        <v>3.5</v>
+        <v>1.6666666670000001</v>
       </c>
       <c r="G724">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="725" spans="2:9" x14ac:dyDescent="0.3">
+        <v>1.6666666670000001</v>
+      </c>
+    </row>
+    <row r="725" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B725" t="s">
         <v>176</v>
       </c>
       <c r="C725">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E725">
         <v>-1</v>
       </c>
       <c r="F725">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="G725">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="726" spans="2:9" x14ac:dyDescent="0.3">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="726" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B726" t="s">
         <v>176</v>
       </c>
       <c r="C726">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E726">
         <v>-1</v>
@@ -16224,174 +16232,174 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="727" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="727" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B727" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C727">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E727">
         <v>-1</v>
       </c>
       <c r="F727">
-        <v>0.08</v>
+        <v>5.5</v>
       </c>
       <c r="G727">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="728" spans="2:9" x14ac:dyDescent="0.3">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="728" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B728" t="s">
         <v>177</v>
       </c>
       <c r="C728">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E728">
         <v>-1</v>
       </c>
       <c r="F728">
-        <v>0.13770491800000001</v>
+        <v>0.08</v>
       </c>
       <c r="G728">
-        <v>0.55081967200000004</v>
-      </c>
-    </row>
-    <row r="729" spans="2:9" x14ac:dyDescent="0.3">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="729" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B729" t="s">
         <v>177</v>
       </c>
       <c r="C729">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E729">
         <v>-1</v>
       </c>
       <c r="F729">
-        <v>0.180821918</v>
+        <v>0.13770491800000001</v>
       </c>
       <c r="G729">
-        <v>0.72328767100000002</v>
-      </c>
-    </row>
-    <row r="730" spans="2:9" x14ac:dyDescent="0.3">
+        <v>0.55081967200000004</v>
+      </c>
+    </row>
+    <row r="730" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B730" t="s">
         <v>177</v>
       </c>
       <c r="C730">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E730">
         <v>-1</v>
       </c>
       <c r="F730">
-        <v>0.213953488</v>
+        <v>0.180821918</v>
       </c>
       <c r="G730">
-        <v>0.85581395299999996</v>
-      </c>
-    </row>
-    <row r="731" spans="2:9" x14ac:dyDescent="0.3">
+        <v>0.72328767100000002</v>
+      </c>
+    </row>
+    <row r="731" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B731" t="s">
         <v>177</v>
       </c>
       <c r="C731">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E731">
         <v>-1</v>
       </c>
       <c r="F731">
-        <v>0.24</v>
+        <v>0.213953488</v>
       </c>
       <c r="G731">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="732" spans="2:9" x14ac:dyDescent="0.3">
+        <v>0.85581395299999996</v>
+      </c>
+    </row>
+    <row r="732" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B732" t="s">
         <v>177</v>
       </c>
       <c r="C732">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E732">
         <v>-1</v>
       </c>
       <c r="F732">
-        <v>0.297249335</v>
+        <v>0.24</v>
       </c>
       <c r="G732">
-        <v>1.0070984919999999</v>
-      </c>
-    </row>
-    <row r="733" spans="2:9" x14ac:dyDescent="0.3">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="733" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B733" t="s">
         <v>177</v>
       </c>
       <c r="C733">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E733">
         <v>-1</v>
       </c>
       <c r="F733">
-        <v>0.376590331</v>
+        <v>0.297249335</v>
       </c>
       <c r="G733">
-        <v>1.0127226460000001</v>
-      </c>
-    </row>
-    <row r="734" spans="2:9" x14ac:dyDescent="0.3">
+        <v>1.0070984919999999</v>
+      </c>
+    </row>
+    <row r="734" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B734" t="s">
         <v>177</v>
       </c>
       <c r="C734">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E734">
         <v>-1</v>
       </c>
       <c r="F734">
-        <v>0.43595769699999998</v>
+        <v>0.376590331</v>
       </c>
       <c r="G734">
-        <v>1.0235017630000001</v>
-      </c>
-    </row>
-    <row r="735" spans="2:9" x14ac:dyDescent="0.3">
+        <v>1.0127226460000001</v>
+      </c>
+    </row>
+    <row r="735" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B735" t="s">
         <v>177</v>
       </c>
       <c r="C735">
+        <v>8</v>
+      </c>
+      <c r="E735">
+        <v>-1</v>
+      </c>
+      <c r="F735">
+        <v>0.43595769699999998</v>
+      </c>
+      <c r="G735">
+        <v>1.0235017630000001</v>
+      </c>
+    </row>
+    <row r="736" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B736" t="s">
+        <v>177</v>
+      </c>
+      <c r="C736">
         <v>9</v>
       </c>
-      <c r="E735">
-        <v>-1</v>
-      </c>
-      <c r="F735">
+      <c r="E736">
+        <v>-1</v>
+      </c>
+      <c r="F736">
         <v>0.478845615</v>
       </c>
-      <c r="G735">
+      <c r="G736">
         <v>1.039226674</v>
-      </c>
-    </row>
-    <row r="736" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B736" t="s">
-        <v>467</v>
-      </c>
-      <c r="C736">
-        <v>1</v>
-      </c>
-      <c r="E736">
-        <v>-1</v>
-      </c>
-      <c r="F736">
-        <v>0.35</v>
-      </c>
-      <c r="I736">
-        <v>2</v>
       </c>
     </row>
     <row r="737" spans="2:9" x14ac:dyDescent="0.3">
@@ -16399,13 +16407,13 @@
         <v>467</v>
       </c>
       <c r="C737">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E737">
         <v>-1</v>
       </c>
       <c r="F737">
-        <v>0.73499999999999999</v>
+        <v>0.35</v>
       </c>
       <c r="I737">
         <v>2</v>
@@ -16416,13 +16424,13 @@
         <v>467</v>
       </c>
       <c r="C738">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E738">
         <v>-1</v>
       </c>
       <c r="F738">
-        <v>1.155</v>
+        <v>0.73499999999999999</v>
       </c>
       <c r="I738">
         <v>2</v>
@@ -16433,13 +16441,13 @@
         <v>467</v>
       </c>
       <c r="C739">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E739">
         <v>-1</v>
       </c>
       <c r="F739">
-        <v>1.61</v>
+        <v>1.155</v>
       </c>
       <c r="I739">
         <v>2</v>
@@ -16450,13 +16458,13 @@
         <v>467</v>
       </c>
       <c r="C740">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E740">
         <v>-1</v>
       </c>
       <c r="F740">
-        <v>2.1</v>
+        <v>1.61</v>
       </c>
       <c r="I740">
         <v>2</v>
@@ -16464,16 +16472,16 @@
     </row>
     <row r="741" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B741" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C741">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E741">
         <v>-1</v>
       </c>
       <c r="F741">
-        <v>0.58333333300000001</v>
+        <v>2.1</v>
       </c>
       <c r="I741">
         <v>2</v>
@@ -16484,13 +16492,13 @@
         <v>468</v>
       </c>
       <c r="C742">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E742">
         <v>-1</v>
       </c>
       <c r="F742">
-        <v>1.2250000000000001</v>
+        <v>0.58333333300000001</v>
       </c>
       <c r="I742">
         <v>2</v>
@@ -16501,13 +16509,13 @@
         <v>468</v>
       </c>
       <c r="C743">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E743">
         <v>-1</v>
       </c>
       <c r="F743">
-        <v>1.925</v>
+        <v>1.2250000000000001</v>
       </c>
       <c r="I743">
         <v>2</v>
@@ -16515,16 +16523,19 @@
     </row>
     <row r="744" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B744" t="s">
-        <v>345</v>
+        <v>468</v>
       </c>
       <c r="C744">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E744">
         <v>-1</v>
       </c>
       <c r="F744">
-        <v>0.9</v>
+        <v>1.925</v>
+      </c>
+      <c r="I744">
+        <v>2</v>
       </c>
     </row>
     <row r="745" spans="2:9" x14ac:dyDescent="0.3">
@@ -16532,13 +16543,13 @@
         <v>345</v>
       </c>
       <c r="C745">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E745">
         <v>-1</v>
       </c>
       <c r="F745">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="746" spans="2:9" x14ac:dyDescent="0.3">
@@ -16546,13 +16557,13 @@
         <v>345</v>
       </c>
       <c r="C746">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E746">
         <v>-1</v>
       </c>
       <c r="F746">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="747" spans="2:9" x14ac:dyDescent="0.3">
@@ -16560,13 +16571,13 @@
         <v>345</v>
       </c>
       <c r="C747">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E747">
         <v>-1</v>
       </c>
       <c r="F747">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="748" spans="2:9" x14ac:dyDescent="0.3">
@@ -16574,24 +16585,21 @@
         <v>345</v>
       </c>
       <c r="C748">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E748">
         <v>-1</v>
       </c>
       <c r="F748">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="749" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B749" t="s">
-        <v>292</v>
+        <v>345</v>
       </c>
       <c r="C749">
-        <v>1</v>
-      </c>
-      <c r="D749" t="s">
-        <v>112</v>
+        <v>5</v>
       </c>
       <c r="E749">
         <v>-1</v>
@@ -16602,13 +16610,13 @@
     </row>
     <row r="750" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B750" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C750">
         <v>1</v>
       </c>
       <c r="D750" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E750">
         <v>-1</v>
@@ -16619,13 +16627,13 @@
     </row>
     <row r="751" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B751" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C751">
         <v>1</v>
       </c>
       <c r="D751" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E751">
         <v>-1</v>
@@ -16636,13 +16644,13 @@
     </row>
     <row r="752" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B752" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C752">
         <v>1</v>
       </c>
       <c r="D752" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E752">
         <v>-1</v>
@@ -16653,30 +16661,30 @@
     </row>
     <row r="753" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B753" t="s">
-        <v>110</v>
+        <v>295</v>
       </c>
       <c r="C753">
         <v>1</v>
       </c>
       <c r="D753" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E753">
         <v>-1</v>
       </c>
       <c r="F753">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="754" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B754" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C754">
         <v>1</v>
       </c>
       <c r="D754" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E754">
         <v>-1</v>
@@ -16687,13 +16695,13 @@
     </row>
     <row r="755" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B755" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C755">
         <v>1</v>
       </c>
       <c r="D755" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E755">
         <v>-1</v>
@@ -16704,13 +16712,13 @@
     </row>
     <row r="756" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B756" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C756">
         <v>1</v>
       </c>
       <c r="D756" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E756">
         <v>-1</v>
@@ -16721,30 +16729,30 @@
     </row>
     <row r="757" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B757" t="s">
-        <v>281</v>
+        <v>117</v>
       </c>
       <c r="C757">
         <v>1</v>
       </c>
       <c r="D757" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E757">
         <v>-1</v>
       </c>
       <c r="F757">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="758" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B758" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C758">
         <v>1</v>
       </c>
       <c r="D758" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E758">
         <v>-1</v>
@@ -16755,13 +16763,13 @@
     </row>
     <row r="759" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B759" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C759">
         <v>1</v>
       </c>
       <c r="D759" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E759">
         <v>-1</v>
@@ -16772,18 +16780,35 @@
     </row>
     <row r="760" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B760" t="s">
+        <v>283</v>
+      </c>
+      <c r="C760">
+        <v>1</v>
+      </c>
+      <c r="D760" t="s">
+        <v>113</v>
+      </c>
+      <c r="E760">
+        <v>-1</v>
+      </c>
+      <c r="F760">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="761" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B761" t="s">
         <v>284</v>
       </c>
-      <c r="C760">
-        <v>1</v>
-      </c>
-      <c r="D760" t="s">
+      <c r="C761">
+        <v>1</v>
+      </c>
+      <c r="D761" t="s">
         <v>115</v>
       </c>
-      <c r="E760">
-        <v>-1</v>
-      </c>
-      <c r="F760">
+      <c r="E761">
+        <v>-1</v>
+      </c>
+      <c r="F761">
         <v>2</v>
       </c>
     </row>

--- a/Excel/AffectorValue.xlsx
+++ b/Excel/AffectorValue.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA2846A-893A-488D-9E16-5602B6BCEA73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9DA2317-FFCE-432A-BAB9-167D411CBE4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{F996C25F-1351-4433-9C2A-F11BFB8CD6D3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{F996C25F-1351-4433-9C2A-F11BFB8CD6D3}"/>
   </bookViews>
   <sheets>
     <sheet name="AffectorValueTable" sheetId="1" r:id="rId1"/>
@@ -1938,7 +1938,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43ED1DAD-52FA-4BDA-9F73-B0C57AAAD8AB}">
   <dimension ref="A1:C375"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -4963,7 +4963,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D852FB9-0F3C-4905-91BD-A30305123037}">
   <dimension ref="A1:O761"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -9260,6 +9260,9 @@
       </c>
       <c r="E265">
         <v>10</v>
+      </c>
+      <c r="G265">
+        <v>-16</v>
       </c>
       <c r="I265">
         <v>2</v>

--- a/Excel/AffectorValue.xlsx
+++ b/Excel/AffectorValue.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9DA2317-FFCE-432A-BAB9-167D411CBE4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16223408-745B-4095-8E53-B845F0923D12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{F996C25F-1351-4433-9C2A-F11BFB8CD6D3}"/>
   </bookViews>
@@ -5687,7 +5687,7 @@
         <v>1</v>
       </c>
       <c r="I48">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L48">
         <v>1</v>
@@ -6888,7 +6888,7 @@
         <v>-0.5</v>
       </c>
       <c r="I134">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="135" spans="2:15" x14ac:dyDescent="0.3">
@@ -8100,7 +8100,7 @@
         <v>-0.5</v>
       </c>
       <c r="I212">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K212">
         <v>1</v>
@@ -8669,7 +8669,7 @@
         <v>0.75</v>
       </c>
       <c r="I237">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="238" spans="2:15" x14ac:dyDescent="0.3">
@@ -8864,7 +8864,7 @@
         <v>0.1</v>
       </c>
       <c r="I246">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="247" spans="2:15" x14ac:dyDescent="0.3">
@@ -9326,7 +9326,7 @@
         <v>0.15</v>
       </c>
       <c r="I270">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="271" spans="2:15" x14ac:dyDescent="0.3">
@@ -9343,7 +9343,7 @@
         <v>0.315</v>
       </c>
       <c r="I271">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="272" spans="2:15" x14ac:dyDescent="0.3">
@@ -9360,7 +9360,7 @@
         <v>0.495</v>
       </c>
       <c r="I272">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="273" spans="2:9" x14ac:dyDescent="0.3">
@@ -9377,7 +9377,7 @@
         <v>0.69</v>
       </c>
       <c r="I273">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="274" spans="2:9" x14ac:dyDescent="0.3">
@@ -9394,7 +9394,7 @@
         <v>0.9</v>
       </c>
       <c r="I274">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="275" spans="2:9" x14ac:dyDescent="0.3">
@@ -9411,7 +9411,7 @@
         <v>1.125</v>
       </c>
       <c r="I275">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="276" spans="2:9" x14ac:dyDescent="0.3">
@@ -9428,7 +9428,7 @@
         <v>1.365</v>
       </c>
       <c r="I276">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="277" spans="2:9" x14ac:dyDescent="0.3">
@@ -9445,7 +9445,7 @@
         <v>1.62</v>
       </c>
       <c r="I277">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="278" spans="2:9" x14ac:dyDescent="0.3">
@@ -9462,7 +9462,7 @@
         <v>1.89</v>
       </c>
       <c r="I278">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="279" spans="2:9" x14ac:dyDescent="0.3">
@@ -9479,7 +9479,7 @@
         <v>0.25</v>
       </c>
       <c r="I279">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="280" spans="2:9" x14ac:dyDescent="0.3">
@@ -9496,7 +9496,7 @@
         <v>0.52500000000000002</v>
       </c>
       <c r="I280">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="281" spans="2:9" x14ac:dyDescent="0.3">
@@ -9513,7 +9513,7 @@
         <v>0.82499999999999996</v>
       </c>
       <c r="I281">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="282" spans="2:9" x14ac:dyDescent="0.3">
@@ -9530,7 +9530,7 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="I282">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="283" spans="2:9" x14ac:dyDescent="0.3">
@@ -9547,7 +9547,7 @@
         <v>1.5</v>
       </c>
       <c r="I283">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="284" spans="2:9" x14ac:dyDescent="0.3">
@@ -9564,7 +9564,7 @@
         <v>1.875</v>
       </c>
       <c r="I284">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="285" spans="2:9" x14ac:dyDescent="0.3">
@@ -9581,7 +9581,7 @@
         <v>2.2749999999999999</v>
       </c>
       <c r="I285">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="286" spans="2:9" x14ac:dyDescent="0.3">
@@ -9598,7 +9598,7 @@
         <v>2.7</v>
       </c>
       <c r="I286">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="287" spans="2:9" x14ac:dyDescent="0.3">
@@ -9615,7 +9615,7 @@
         <v>3.15</v>
       </c>
       <c r="I287">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="288" spans="2:9" x14ac:dyDescent="0.3">
@@ -9632,7 +9632,7 @@
         <v>3.15</v>
       </c>
       <c r="I288">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="289" spans="2:9" x14ac:dyDescent="0.3">
@@ -9649,7 +9649,7 @@
         <v>0.45</v>
       </c>
       <c r="I289">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="290" spans="2:9" x14ac:dyDescent="0.3">
@@ -9666,7 +9666,7 @@
         <v>0.94499999999999995</v>
       </c>
       <c r="I290">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="291" spans="2:9" x14ac:dyDescent="0.3">
@@ -9683,7 +9683,7 @@
         <v>1.4850000000000001</v>
       </c>
       <c r="I291">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="292" spans="2:9" x14ac:dyDescent="0.3">
@@ -9700,7 +9700,7 @@
         <v>1.4850000000000001</v>
       </c>
       <c r="I292">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="293" spans="2:9" x14ac:dyDescent="0.3">
@@ -10108,7 +10108,7 @@
         <v>0.1125</v>
       </c>
       <c r="I316">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="317" spans="2:9" x14ac:dyDescent="0.3">
@@ -10125,7 +10125,7 @@
         <v>0.23624999999999999</v>
       </c>
       <c r="I317">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="318" spans="2:9" x14ac:dyDescent="0.3">
@@ -10142,7 +10142,7 @@
         <v>0.37125000000000002</v>
       </c>
       <c r="I318">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="319" spans="2:9" x14ac:dyDescent="0.3">
@@ -10159,7 +10159,7 @@
         <v>0.51749999999999996</v>
       </c>
       <c r="I319">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="320" spans="2:9" x14ac:dyDescent="0.3">
@@ -10176,7 +10176,7 @@
         <v>0.67500000000000004</v>
       </c>
       <c r="I320">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="321" spans="2:9" x14ac:dyDescent="0.3">
@@ -10193,7 +10193,7 @@
         <v>0.84375</v>
       </c>
       <c r="I321">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="322" spans="2:9" x14ac:dyDescent="0.3">
@@ -10210,7 +10210,7 @@
         <v>1.0237499999999999</v>
       </c>
       <c r="I322">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="323" spans="2:9" x14ac:dyDescent="0.3">
@@ -10227,7 +10227,7 @@
         <v>1.2150000000000001</v>
       </c>
       <c r="I323">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="324" spans="2:9" x14ac:dyDescent="0.3">
@@ -10244,7 +10244,7 @@
         <v>1.4175</v>
       </c>
       <c r="I324">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="325" spans="2:9" x14ac:dyDescent="0.3">
@@ -10261,7 +10261,7 @@
         <v>0.1875</v>
       </c>
       <c r="I325">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="326" spans="2:9" x14ac:dyDescent="0.3">
@@ -10278,7 +10278,7 @@
         <v>0.39374999999999999</v>
       </c>
       <c r="I326">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="327" spans="2:9" x14ac:dyDescent="0.3">
@@ -10295,7 +10295,7 @@
         <v>0.61875000000000002</v>
       </c>
       <c r="I327">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="328" spans="2:9" x14ac:dyDescent="0.3">
@@ -10312,7 +10312,7 @@
         <v>0.86250000000000004</v>
       </c>
       <c r="I328">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="329" spans="2:9" x14ac:dyDescent="0.3">
@@ -10329,7 +10329,7 @@
         <v>1.125</v>
       </c>
       <c r="I329">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="330" spans="2:9" x14ac:dyDescent="0.3">
@@ -10346,7 +10346,7 @@
         <v>1.125</v>
       </c>
       <c r="I330">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="331" spans="2:9" x14ac:dyDescent="0.3">
@@ -10363,7 +10363,7 @@
         <v>0.33750000000000002</v>
       </c>
       <c r="I331">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="332" spans="2:9" x14ac:dyDescent="0.3">
@@ -10380,7 +10380,7 @@
         <v>0.70874999999999999</v>
       </c>
       <c r="I332">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="333" spans="2:9" x14ac:dyDescent="0.3">
@@ -10397,7 +10397,7 @@
         <v>1.11375</v>
       </c>
       <c r="I333">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="334" spans="2:9" x14ac:dyDescent="0.3">
@@ -10414,7 +10414,7 @@
         <v>1.11375</v>
       </c>
       <c r="I334">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="335" spans="2:9" x14ac:dyDescent="0.3">
@@ -10431,7 +10431,7 @@
         <v>6.25E-2</v>
       </c>
       <c r="I335">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="336" spans="2:9" x14ac:dyDescent="0.3">
@@ -10448,7 +10448,7 @@
         <v>0.13125000000000001</v>
       </c>
       <c r="I336">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="337" spans="2:9" x14ac:dyDescent="0.3">
@@ -10465,7 +10465,7 @@
         <v>0.20624999999999999</v>
       </c>
       <c r="I337">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="338" spans="2:9" x14ac:dyDescent="0.3">
@@ -10482,7 +10482,7 @@
         <v>0.28749999999999998</v>
       </c>
       <c r="I338">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="339" spans="2:9" x14ac:dyDescent="0.3">
@@ -10499,7 +10499,7 @@
         <v>0.375</v>
       </c>
       <c r="I339">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="340" spans="2:9" x14ac:dyDescent="0.3">
@@ -10516,7 +10516,7 @@
         <v>0.46875</v>
       </c>
       <c r="I340">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="341" spans="2:9" x14ac:dyDescent="0.3">
@@ -10533,7 +10533,7 @@
         <v>0.56874999999999998</v>
       </c>
       <c r="I341">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="342" spans="2:9" x14ac:dyDescent="0.3">
@@ -10550,7 +10550,7 @@
         <v>0.67500000000000004</v>
       </c>
       <c r="I342">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="343" spans="2:9" x14ac:dyDescent="0.3">
@@ -10567,7 +10567,7 @@
         <v>0.78749999999999998</v>
       </c>
       <c r="I343">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="344" spans="2:9" x14ac:dyDescent="0.3">
@@ -10584,7 +10584,7 @@
         <v>0.104166667</v>
       </c>
       <c r="I344">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="345" spans="2:9" x14ac:dyDescent="0.3">
@@ -10601,7 +10601,7 @@
         <v>0.21875</v>
       </c>
       <c r="I345">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="346" spans="2:9" x14ac:dyDescent="0.3">
@@ -10618,7 +10618,7 @@
         <v>0.34375</v>
       </c>
       <c r="I346">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="347" spans="2:9" x14ac:dyDescent="0.3">
@@ -10635,7 +10635,7 @@
         <v>0.47916666699999999</v>
       </c>
       <c r="I347">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="348" spans="2:9" x14ac:dyDescent="0.3">
@@ -10652,7 +10652,7 @@
         <v>0.625</v>
       </c>
       <c r="I348">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="349" spans="2:9" x14ac:dyDescent="0.3">
@@ -10669,7 +10669,7 @@
         <v>0.78125</v>
       </c>
       <c r="I349">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="350" spans="2:9" x14ac:dyDescent="0.3">
@@ -10686,7 +10686,7 @@
         <v>0.94791666699999999</v>
       </c>
       <c r="I350">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="351" spans="2:9" x14ac:dyDescent="0.3">
@@ -10703,7 +10703,7 @@
         <v>1.125</v>
       </c>
       <c r="I351">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="352" spans="2:9" x14ac:dyDescent="0.3">
@@ -10720,7 +10720,7 @@
         <v>1.3125</v>
       </c>
       <c r="I352">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="353" spans="2:9" x14ac:dyDescent="0.3">
@@ -10737,7 +10737,7 @@
         <v>1.3125</v>
       </c>
       <c r="I353">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="354" spans="2:9" x14ac:dyDescent="0.3">
@@ -10754,7 +10754,7 @@
         <v>0.1875</v>
       </c>
       <c r="I354">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="355" spans="2:9" x14ac:dyDescent="0.3">
@@ -10771,7 +10771,7 @@
         <v>0.39374999999999999</v>
       </c>
       <c r="I355">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="356" spans="2:9" x14ac:dyDescent="0.3">
@@ -10788,7 +10788,7 @@
         <v>0.61875000000000002</v>
       </c>
       <c r="I356">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="357" spans="2:9" x14ac:dyDescent="0.3">
@@ -10805,7 +10805,7 @@
         <v>0.86250000000000004</v>
       </c>
       <c r="I357">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="358" spans="2:9" x14ac:dyDescent="0.3">
@@ -10822,7 +10822,7 @@
         <v>1.125</v>
       </c>
       <c r="I358">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="359" spans="2:9" x14ac:dyDescent="0.3">
@@ -10839,7 +10839,7 @@
         <v>1.125</v>
       </c>
       <c r="I359">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="360" spans="2:9" x14ac:dyDescent="0.3">
@@ -10856,7 +10856,7 @@
         <v>4.6875E-2</v>
       </c>
       <c r="I360">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="361" spans="2:9" x14ac:dyDescent="0.3">
@@ -10873,7 +10873,7 @@
         <v>9.8437499999999997E-2</v>
       </c>
       <c r="I361">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="362" spans="2:9" x14ac:dyDescent="0.3">
@@ -10890,7 +10890,7 @@
         <v>0.15468750000000001</v>
       </c>
       <c r="I362">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="363" spans="2:9" x14ac:dyDescent="0.3">
@@ -10907,7 +10907,7 @@
         <v>0.21562500000000001</v>
       </c>
       <c r="I363">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="364" spans="2:9" x14ac:dyDescent="0.3">
@@ -10924,7 +10924,7 @@
         <v>0.28125</v>
       </c>
       <c r="I364">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="365" spans="2:9" x14ac:dyDescent="0.3">

--- a/Excel/AffectorValue.xlsx
+++ b/Excel/AffectorValue.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16223408-745B-4095-8E53-B845F0923D12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224B5F71-F98B-4593-BF97-92064A6504CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{F996C25F-1351-4433-9C2A-F11BFB8CD6D3}"/>
   </bookViews>
@@ -5358,6 +5358,9 @@
       <c r="E25">
         <v>1</v>
       </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B26" t="s">

--- a/Excel/AffectorValue.xlsx
+++ b/Excel/AffectorValue.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224B5F71-F98B-4593-BF97-92064A6504CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72BFF67F-D862-4416-A6DE-388B50B2199C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{F996C25F-1351-4433-9C2A-F11BFB8CD6D3}"/>
   </bookViews>
@@ -5358,7 +5358,7 @@
       <c r="E25">
         <v>1</v>
       </c>
-      <c r="K25">
+      <c r="N25">
         <v>1</v>
       </c>
     </row>

--- a/Excel/AffectorValue.xlsx
+++ b/Excel/AffectorValue.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72BFF67F-D862-4416-A6DE-388B50B2199C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{304CB0C3-3DFF-44B1-ADF5-BDABE5BD5CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{F996C25F-1351-4433-9C2A-F11BFB8CD6D3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{F996C25F-1351-4433-9C2A-F11BFB8CD6D3}"/>
   </bookViews>
   <sheets>
     <sheet name="AffectorValueTable" sheetId="1" r:id="rId1"/>
@@ -5709,6 +5709,9 @@
       <c r="E49">
         <v>0.92</v>
       </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
@@ -5743,6 +5746,9 @@
       <c r="E51">
         <v>0.5625</v>
       </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
@@ -5799,6 +5805,9 @@
       <c r="E55">
         <v>0.23</v>
       </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
@@ -5824,6 +5833,9 @@
       <c r="E57">
         <v>0.23075000000000001</v>
       </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
@@ -5846,6 +5858,9 @@
       <c r="E59">
         <v>0.47</v>
       </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
@@ -5857,6 +5872,9 @@
       <c r="E60">
         <v>0.42499999999999999</v>
       </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
@@ -5893,6 +5911,9 @@
       <c r="E63">
         <v>0.60299999999999998</v>
       </c>
+      <c r="N63">
+        <v>1</v>
+      </c>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
@@ -5924,6 +5945,9 @@
       <c r="E65">
         <v>0.79500000000000004</v>
       </c>
+      <c r="N65">
+        <v>1</v>
+      </c>
     </row>
     <row r="66" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
@@ -5935,6 +5959,9 @@
       <c r="E66">
         <v>1.45</v>
       </c>
+      <c r="N66">
+        <v>1</v>
+      </c>
     </row>
     <row r="67" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
@@ -6014,6 +6041,9 @@
       <c r="E71">
         <v>1.02</v>
       </c>
+      <c r="N71">
+        <v>1</v>
+      </c>
     </row>
     <row r="72" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
@@ -6025,6 +6055,9 @@
       <c r="E72">
         <v>0.57499999999999996</v>
       </c>
+      <c r="N72">
+        <v>1</v>
+      </c>
     </row>
     <row r="73" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
@@ -6070,6 +6103,9 @@
       <c r="E75">
         <v>0.35199999999999998</v>
       </c>
+      <c r="N75">
+        <v>1</v>
+      </c>
     </row>
     <row r="76" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
@@ -6106,6 +6142,9 @@
       <c r="E78">
         <v>0.97</v>
       </c>
+      <c r="N78">
+        <v>1</v>
+      </c>
     </row>
     <row r="79" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
@@ -6191,6 +6230,9 @@
       <c r="K83">
         <v>1</v>
       </c>
+      <c r="N83">
+        <v>1</v>
+      </c>
     </row>
     <row r="84" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B84" t="s">
@@ -6230,6 +6272,9 @@
       <c r="E86">
         <v>0.39500000000000002</v>
       </c>
+      <c r="N86">
+        <v>1</v>
+      </c>
     </row>
     <row r="87" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B87" t="s">
@@ -6286,6 +6331,9 @@
       <c r="E90">
         <v>0.57999999999999996</v>
       </c>
+      <c r="N90">
+        <v>1</v>
+      </c>
     </row>
     <row r="91" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B91" t="s">
@@ -6347,6 +6395,9 @@
       <c r="E95">
         <v>0.38200000000000001</v>
       </c>
+      <c r="N95">
+        <v>1</v>
+      </c>
     </row>
     <row r="96" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B96" t="s">
@@ -6445,6 +6496,9 @@
       <c r="E102">
         <v>0.82499999999999996</v>
       </c>
+      <c r="N102">
+        <v>1</v>
+      </c>
     </row>
     <row r="103" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B103" t="s">
@@ -6473,6 +6527,9 @@
       <c r="E104">
         <v>0.34899999999999998</v>
       </c>
+      <c r="N104">
+        <v>1</v>
+      </c>
     </row>
     <row r="105" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B105" t="s">
@@ -6531,6 +6588,9 @@
       <c r="E109">
         <v>0.76500000000000001</v>
       </c>
+      <c r="N109">
+        <v>1</v>
+      </c>
     </row>
     <row r="110" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B110" t="s">
@@ -6559,6 +6619,9 @@
       <c r="E111">
         <v>1.02</v>
       </c>
+      <c r="N111">
+        <v>1</v>
+      </c>
     </row>
     <row r="112" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B112" t="s">
@@ -6652,6 +6715,9 @@
       <c r="E117">
         <v>0.83499999999999996</v>
       </c>
+      <c r="N117">
+        <v>1</v>
+      </c>
     </row>
     <row r="118" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B118" t="s">
@@ -6686,6 +6752,9 @@
       <c r="E119">
         <v>0.753</v>
       </c>
+      <c r="N119">
+        <v>1</v>
+      </c>
     </row>
     <row r="120" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B120" t="s">
@@ -6720,6 +6789,9 @@
       <c r="E121">
         <v>0.72</v>
       </c>
+      <c r="N121">
+        <v>1</v>
+      </c>
     </row>
     <row r="122" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B122" t="s">
@@ -6731,6 +6803,9 @@
       <c r="E122">
         <v>1.585</v>
       </c>
+      <c r="N122">
+        <v>1</v>
+      </c>
     </row>
     <row r="123" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B123" t="s">
@@ -6756,6 +6831,9 @@
       <c r="E124">
         <v>1.024</v>
       </c>
+      <c r="N124">
+        <v>1</v>
+      </c>
     </row>
     <row r="125" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B125" t="s">
@@ -6784,6 +6862,9 @@
       <c r="E126">
         <v>0.5</v>
       </c>
+      <c r="N126">
+        <v>1</v>
+      </c>
     </row>
     <row r="127" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B127" t="s">
@@ -6818,6 +6899,9 @@
       <c r="E128">
         <v>0.45500000000000002</v>
       </c>
+      <c r="N128">
+        <v>1</v>
+      </c>
     </row>
     <row r="129" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B129" t="s">
@@ -6854,6 +6938,9 @@
       <c r="E131">
         <v>0.85499999999999998</v>
       </c>
+      <c r="N131">
+        <v>1</v>
+      </c>
     </row>
     <row r="132" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B132" t="s">
@@ -6904,6 +6991,9 @@
       <c r="E135">
         <v>0.65</v>
       </c>
+      <c r="N135">
+        <v>1</v>
+      </c>
     </row>
     <row r="136" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B136" t="s">
@@ -6915,6 +7005,9 @@
       <c r="E136">
         <v>1.01</v>
       </c>
+      <c r="N136">
+        <v>1</v>
+      </c>
     </row>
     <row r="137" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B137" t="s">
@@ -6951,6 +7044,9 @@
       <c r="E139">
         <v>0.65500000000000003</v>
       </c>
+      <c r="N139">
+        <v>1</v>
+      </c>
     </row>
     <row r="140" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B140" t="s">
@@ -6962,6 +7058,9 @@
       <c r="E140">
         <v>1.4</v>
       </c>
+      <c r="N140">
+        <v>1</v>
+      </c>
     </row>
     <row r="141" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B141" t="s">
@@ -7063,6 +7162,9 @@
       <c r="E147">
         <v>1.1399999999999999</v>
       </c>
+      <c r="N147">
+        <v>1</v>
+      </c>
     </row>
     <row r="148" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B148" t="s">
@@ -7094,6 +7196,9 @@
       <c r="E149">
         <v>2.57</v>
       </c>
+      <c r="N149">
+        <v>1</v>
+      </c>
     </row>
     <row r="150" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B150" t="s">
@@ -7249,6 +7354,9 @@
       <c r="K159">
         <v>1</v>
       </c>
+      <c r="N159">
+        <v>1</v>
+      </c>
     </row>
     <row r="160" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B160" t="s">
@@ -7378,6 +7486,9 @@
       <c r="E168">
         <v>1.05</v>
       </c>
+      <c r="N168">
+        <v>1</v>
+      </c>
     </row>
     <row r="169" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B169" t="s">
@@ -7389,6 +7500,9 @@
       <c r="E169">
         <v>0.25</v>
       </c>
+      <c r="N169">
+        <v>1</v>
+      </c>
     </row>
     <row r="170" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B170" t="s">
@@ -7471,6 +7585,9 @@
       <c r="E174">
         <v>1.1000000000000001</v>
       </c>
+      <c r="N174">
+        <v>1</v>
+      </c>
     </row>
     <row r="175" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B175" t="s">
@@ -7496,6 +7613,9 @@
       <c r="E176">
         <v>0.76300000000000001</v>
       </c>
+      <c r="N176">
+        <v>1</v>
+      </c>
     </row>
     <row r="177" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B177" t="s">
@@ -7507,6 +7627,9 @@
       <c r="E177">
         <v>0.52500000000000002</v>
       </c>
+      <c r="N177">
+        <v>1</v>
+      </c>
     </row>
     <row r="178" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B178" t="s">
@@ -7543,6 +7666,9 @@
       <c r="K180">
         <v>1</v>
       </c>
+      <c r="N180">
+        <v>1</v>
+      </c>
     </row>
     <row r="181" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B181" t="s">
@@ -7560,6 +7686,9 @@
       <c r="K181">
         <v>1</v>
       </c>
+      <c r="N181">
+        <v>1</v>
+      </c>
       <c r="O181" t="s">
         <v>234</v>
       </c>
@@ -7602,6 +7731,9 @@
       <c r="E184">
         <v>0.224</v>
       </c>
+      <c r="N184">
+        <v>1</v>
+      </c>
     </row>
     <row r="185" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B185" t="s">
@@ -7680,6 +7812,9 @@
       <c r="E190">
         <v>0.39500000000000002</v>
       </c>
+      <c r="N190">
+        <v>1</v>
+      </c>
     </row>
     <row r="191" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B191" t="s">
@@ -7725,6 +7860,9 @@
       <c r="E193">
         <v>0.42499999999999999</v>
       </c>
+      <c r="N193">
+        <v>1</v>
+      </c>
     </row>
     <row r="194" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B194" t="s">
@@ -7739,6 +7877,9 @@
       <c r="G194">
         <v>1</v>
       </c>
+      <c r="N194">
+        <v>1</v>
+      </c>
     </row>
     <row r="195" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B195" t="s">
@@ -7806,6 +7947,9 @@
       <c r="E199">
         <v>0.5625</v>
       </c>
+      <c r="N199">
+        <v>1</v>
+      </c>
     </row>
     <row r="200" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B200" t="s">
@@ -7816,6 +7960,9 @@
       </c>
       <c r="E200">
         <v>0.5625</v>
+      </c>
+      <c r="N200">
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="2:15" x14ac:dyDescent="0.3">

--- a/Excel/AffectorValue.xlsx
+++ b/Excel/AffectorValue.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37486FDC-3023-4DE0-A95D-0FCBA658F968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55111E98-3DE8-4D90-8478-4A56CC8D3E93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{F996C25F-1351-4433-9C2A-F11BFB8CD6D3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{F996C25F-1351-4433-9C2A-F11BFB8CD6D3}"/>
   </bookViews>
   <sheets>
     <sheet name="AffectorValueTable" sheetId="1" r:id="rId1"/>
@@ -2118,7 +2118,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43ED1DAD-52FA-4BDA-9F73-B0C57AAAD8AB}">
   <dimension ref="A1:C415"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -5463,7 +5463,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D852FB9-0F3C-4905-91BD-A30305123037}">
   <dimension ref="A1:O801"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -6599,6 +6599,9 @@
       </c>
       <c r="F81">
         <v>0.4</v>
+      </c>
+      <c r="L81">
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="2:15" x14ac:dyDescent="0.3">

--- a/Excel/AffectorValue.xlsx
+++ b/Excel/AffectorValue.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55111E98-3DE8-4D90-8478-4A56CC8D3E93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E2F25B-5B09-4C0C-83F3-7B8C09742B0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{F996C25F-1351-4433-9C2A-F11BFB8CD6D3}"/>
   </bookViews>
@@ -7393,7 +7393,7 @@
         <v>1</v>
       </c>
       <c r="E135">
-        <v>0.38200000000000001</v>
+        <v>1.91</v>
       </c>
       <c r="N135">
         <v>1</v>

--- a/Excel/AffectorValue.xlsx
+++ b/Excel/AffectorValue.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E2F25B-5B09-4C0C-83F3-7B8C09742B0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19FB0A0C-0B45-419E-BACE-56DB43ACD039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{F996C25F-1351-4433-9C2A-F11BFB8CD6D3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{F996C25F-1351-4433-9C2A-F11BFB8CD6D3}"/>
   </bookViews>
   <sheets>
     <sheet name="AffectorValueTable" sheetId="1" r:id="rId1"/>
@@ -6054,7 +6054,7 @@
         <v>1</v>
       </c>
       <c r="E40">
-        <v>13.8</v>
+        <v>5.8</v>
       </c>
       <c r="O40">
         <v>1</v>
@@ -6195,7 +6195,7 @@
         <v>1</v>
       </c>
       <c r="E49">
-        <v>2.85</v>
+        <v>8.25</v>
       </c>
       <c r="O49">
         <v>1</v>
@@ -6356,7 +6356,7 @@
         <v>1</v>
       </c>
       <c r="E62">
-        <v>6.2</v>
+        <v>7.9</v>
       </c>
       <c r="O62">
         <v>1</v>
@@ -6478,7 +6478,7 @@
         <v>1</v>
       </c>
       <c r="E72">
-        <v>24.6</v>
+        <v>6.2</v>
       </c>
       <c r="O72">
         <v>1</v>

--- a/Excel/AffectorValue.xlsx
+++ b/Excel/AffectorValue.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19FB0A0C-0B45-419E-BACE-56DB43ACD039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD96DB4E-E5B6-4DB7-9FFB-64A03CD8ABEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{F996C25F-1351-4433-9C2A-F11BFB8CD6D3}"/>
   </bookViews>
@@ -6054,7 +6054,7 @@
         <v>1</v>
       </c>
       <c r="E40">
-        <v>5.8</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="O40">
         <v>1</v>
@@ -6503,7 +6503,7 @@
         <v>1</v>
       </c>
       <c r="E74">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
       <c r="O74">
         <v>1</v>

--- a/Excel/AffectorValue.xlsx
+++ b/Excel/AffectorValue.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD96DB4E-E5B6-4DB7-9FFB-64A03CD8ABEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D30890-C473-409B-8F8B-3B11189FEB99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{F996C25F-1351-4433-9C2A-F11BFB8CD6D3}"/>
+    <workbookView xWindow="0" yWindow="510" windowWidth="29040" windowHeight="15690" activeTab="1" xr2:uid="{F996C25F-1351-4433-9C2A-F11BFB8CD6D3}"/>
   </bookViews>
   <sheets>
     <sheet name="AffectorValueTable" sheetId="1" r:id="rId1"/>
@@ -6156,7 +6156,7 @@
         <v>1</v>
       </c>
       <c r="I46">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L46">
         <v>1</v>
@@ -6334,7 +6334,7 @@
         <v>-0.5</v>
       </c>
       <c r="I60">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.3">
@@ -6548,7 +6548,7 @@
         <v>-0.75</v>
       </c>
       <c r="I77">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="78" spans="2:15" x14ac:dyDescent="0.3">
@@ -6618,7 +6618,7 @@
         <v>1</v>
       </c>
       <c r="I82">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O82" t="s">
         <v>262</v>
@@ -7174,7 +7174,7 @@
         <v>1</v>
       </c>
       <c r="I120">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O120" t="s">
         <v>262</v>
@@ -7978,7 +7978,7 @@
         <v>-0.5</v>
       </c>
       <c r="I174">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="175" spans="2:15" x14ac:dyDescent="0.3">
@@ -9250,7 +9250,7 @@
         <v>-0.5</v>
       </c>
       <c r="I252">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K252">
         <v>1</v>
@@ -9819,7 +9819,7 @@
         <v>0.75</v>
       </c>
       <c r="I277">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="278" spans="2:15" x14ac:dyDescent="0.3">
@@ -10014,7 +10014,7 @@
         <v>0.1</v>
       </c>
       <c r="I286">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="287" spans="2:15" x14ac:dyDescent="0.3">
@@ -10473,7 +10473,7 @@
         <v>0.15</v>
       </c>
       <c r="I310">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="311" spans="2:12" x14ac:dyDescent="0.3">
@@ -10490,7 +10490,7 @@
         <v>0.315</v>
       </c>
       <c r="I311">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="312" spans="2:12" x14ac:dyDescent="0.3">
@@ -10507,7 +10507,7 @@
         <v>0.495</v>
       </c>
       <c r="I312">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="313" spans="2:12" x14ac:dyDescent="0.3">
@@ -10524,7 +10524,7 @@
         <v>0.69</v>
       </c>
       <c r="I313">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="314" spans="2:12" x14ac:dyDescent="0.3">
@@ -10541,7 +10541,7 @@
         <v>0.9</v>
       </c>
       <c r="I314">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="315" spans="2:12" x14ac:dyDescent="0.3">
@@ -10558,7 +10558,7 @@
         <v>1.125</v>
       </c>
       <c r="I315">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="316" spans="2:12" x14ac:dyDescent="0.3">
@@ -10575,7 +10575,7 @@
         <v>1.365</v>
       </c>
       <c r="I316">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="317" spans="2:12" x14ac:dyDescent="0.3">
@@ -10592,7 +10592,7 @@
         <v>1.62</v>
       </c>
       <c r="I317">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="318" spans="2:12" x14ac:dyDescent="0.3">
@@ -10609,7 +10609,7 @@
         <v>1.89</v>
       </c>
       <c r="I318">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="319" spans="2:12" x14ac:dyDescent="0.3">
@@ -10626,7 +10626,7 @@
         <v>0.25</v>
       </c>
       <c r="I319">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="320" spans="2:12" x14ac:dyDescent="0.3">
@@ -10643,7 +10643,7 @@
         <v>0.52500000000000002</v>
       </c>
       <c r="I320">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="321" spans="2:9" x14ac:dyDescent="0.3">
@@ -10660,7 +10660,7 @@
         <v>0.82499999999999996</v>
       </c>
       <c r="I321">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="322" spans="2:9" x14ac:dyDescent="0.3">
@@ -10677,7 +10677,7 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="I322">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="323" spans="2:9" x14ac:dyDescent="0.3">
@@ -10694,7 +10694,7 @@
         <v>1.5</v>
       </c>
       <c r="I323">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="324" spans="2:9" x14ac:dyDescent="0.3">
@@ -10711,7 +10711,7 @@
         <v>1.875</v>
       </c>
       <c r="I324">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="325" spans="2:9" x14ac:dyDescent="0.3">
@@ -10728,7 +10728,7 @@
         <v>2.2749999999999999</v>
       </c>
       <c r="I325">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="326" spans="2:9" x14ac:dyDescent="0.3">
@@ -10745,7 +10745,7 @@
         <v>2.7</v>
       </c>
       <c r="I326">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="327" spans="2:9" x14ac:dyDescent="0.3">
@@ -10762,7 +10762,7 @@
         <v>3.15</v>
       </c>
       <c r="I327">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="328" spans="2:9" x14ac:dyDescent="0.3">
@@ -10779,7 +10779,7 @@
         <v>3.15</v>
       </c>
       <c r="I328">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="329" spans="2:9" x14ac:dyDescent="0.3">
@@ -10796,7 +10796,7 @@
         <v>0.45</v>
       </c>
       <c r="I329">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="330" spans="2:9" x14ac:dyDescent="0.3">
@@ -10813,7 +10813,7 @@
         <v>0.94499999999999995</v>
       </c>
       <c r="I330">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="331" spans="2:9" x14ac:dyDescent="0.3">
@@ -10830,7 +10830,7 @@
         <v>1.4850000000000001</v>
       </c>
       <c r="I331">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="332" spans="2:9" x14ac:dyDescent="0.3">
@@ -10847,7 +10847,7 @@
         <v>1.4850000000000001</v>
       </c>
       <c r="I332">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="333" spans="2:9" x14ac:dyDescent="0.3">
@@ -11255,7 +11255,7 @@
         <v>0.1125</v>
       </c>
       <c r="I356">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="357" spans="2:9" x14ac:dyDescent="0.3">
@@ -11272,7 +11272,7 @@
         <v>0.23624999999999999</v>
       </c>
       <c r="I357">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="358" spans="2:9" x14ac:dyDescent="0.3">
@@ -11289,7 +11289,7 @@
         <v>0.37125000000000002</v>
       </c>
       <c r="I358">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="359" spans="2:9" x14ac:dyDescent="0.3">
@@ -11306,7 +11306,7 @@
         <v>0.51749999999999996</v>
       </c>
       <c r="I359">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="360" spans="2:9" x14ac:dyDescent="0.3">
@@ -11323,7 +11323,7 @@
         <v>0.67500000000000004</v>
       </c>
       <c r="I360">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="361" spans="2:9" x14ac:dyDescent="0.3">
@@ -11340,7 +11340,7 @@
         <v>0.84375</v>
       </c>
       <c r="I361">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="362" spans="2:9" x14ac:dyDescent="0.3">
@@ -11357,7 +11357,7 @@
         <v>1.0237499999999999</v>
       </c>
       <c r="I362">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="363" spans="2:9" x14ac:dyDescent="0.3">
@@ -11374,7 +11374,7 @@
         <v>1.2150000000000001</v>
       </c>
       <c r="I363">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="364" spans="2:9" x14ac:dyDescent="0.3">
@@ -11391,7 +11391,7 @@
         <v>1.4175</v>
       </c>
       <c r="I364">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="365" spans="2:9" x14ac:dyDescent="0.3">
@@ -11408,7 +11408,7 @@
         <v>0.1875</v>
       </c>
       <c r="I365">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="366" spans="2:9" x14ac:dyDescent="0.3">
@@ -11425,7 +11425,7 @@
         <v>0.39374999999999999</v>
       </c>
       <c r="I366">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="367" spans="2:9" x14ac:dyDescent="0.3">
@@ -11442,7 +11442,7 @@
         <v>0.61875000000000002</v>
       </c>
       <c r="I367">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="368" spans="2:9" x14ac:dyDescent="0.3">
@@ -11459,7 +11459,7 @@
         <v>0.86250000000000004</v>
       </c>
       <c r="I368">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="369" spans="2:9" x14ac:dyDescent="0.3">
@@ -11476,7 +11476,7 @@
         <v>1.125</v>
       </c>
       <c r="I369">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="370" spans="2:9" x14ac:dyDescent="0.3">
@@ -11493,7 +11493,7 @@
         <v>1.125</v>
       </c>
       <c r="I370">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="371" spans="2:9" x14ac:dyDescent="0.3">
@@ -11510,7 +11510,7 @@
         <v>0.33750000000000002</v>
       </c>
       <c r="I371">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="372" spans="2:9" x14ac:dyDescent="0.3">
@@ -11527,7 +11527,7 @@
         <v>0.70874999999999999</v>
       </c>
       <c r="I372">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="373" spans="2:9" x14ac:dyDescent="0.3">
@@ -11544,7 +11544,7 @@
         <v>1.11375</v>
       </c>
       <c r="I373">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="374" spans="2:9" x14ac:dyDescent="0.3">
@@ -11561,7 +11561,7 @@
         <v>1.11375</v>
       </c>
       <c r="I374">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="375" spans="2:9" x14ac:dyDescent="0.3">
@@ -11578,7 +11578,7 @@
         <v>6.25E-2</v>
       </c>
       <c r="I375">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="376" spans="2:9" x14ac:dyDescent="0.3">
@@ -11595,7 +11595,7 @@
         <v>0.13125000000000001</v>
       </c>
       <c r="I376">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="377" spans="2:9" x14ac:dyDescent="0.3">
@@ -11612,7 +11612,7 @@
         <v>0.20624999999999999</v>
       </c>
       <c r="I377">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="378" spans="2:9" x14ac:dyDescent="0.3">
@@ -11629,7 +11629,7 @@
         <v>0.28749999999999998</v>
       </c>
       <c r="I378">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="379" spans="2:9" x14ac:dyDescent="0.3">
@@ -11646,7 +11646,7 @@
         <v>0.375</v>
       </c>
       <c r="I379">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="380" spans="2:9" x14ac:dyDescent="0.3">
@@ -11663,7 +11663,7 @@
         <v>0.46875</v>
       </c>
       <c r="I380">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="381" spans="2:9" x14ac:dyDescent="0.3">
@@ -11680,7 +11680,7 @@
         <v>0.56874999999999998</v>
       </c>
       <c r="I381">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="382" spans="2:9" x14ac:dyDescent="0.3">
@@ -11697,7 +11697,7 @@
         <v>0.67500000000000004</v>
       </c>
       <c r="I382">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="383" spans="2:9" x14ac:dyDescent="0.3">
@@ -11714,7 +11714,7 @@
         <v>0.78749999999999998</v>
       </c>
       <c r="I383">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="384" spans="2:9" x14ac:dyDescent="0.3">
@@ -11731,7 +11731,7 @@
         <v>0.104166667</v>
       </c>
       <c r="I384">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="385" spans="2:9" x14ac:dyDescent="0.3">
@@ -11748,7 +11748,7 @@
         <v>0.21875</v>
       </c>
       <c r="I385">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="386" spans="2:9" x14ac:dyDescent="0.3">
@@ -11765,7 +11765,7 @@
         <v>0.34375</v>
       </c>
       <c r="I386">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="387" spans="2:9" x14ac:dyDescent="0.3">
@@ -11782,7 +11782,7 @@
         <v>0.47916666699999999</v>
       </c>
       <c r="I387">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="388" spans="2:9" x14ac:dyDescent="0.3">
@@ -11799,7 +11799,7 @@
         <v>0.625</v>
       </c>
       <c r="I388">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="389" spans="2:9" x14ac:dyDescent="0.3">
@@ -11816,7 +11816,7 @@
         <v>0.78125</v>
       </c>
       <c r="I389">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="390" spans="2:9" x14ac:dyDescent="0.3">
@@ -11833,7 +11833,7 @@
         <v>0.94791666699999999</v>
       </c>
       <c r="I390">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="391" spans="2:9" x14ac:dyDescent="0.3">
@@ -11850,7 +11850,7 @@
         <v>1.125</v>
       </c>
       <c r="I391">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="392" spans="2:9" x14ac:dyDescent="0.3">
@@ -11867,7 +11867,7 @@
         <v>1.3125</v>
       </c>
       <c r="I392">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="393" spans="2:9" x14ac:dyDescent="0.3">
@@ -11884,7 +11884,7 @@
         <v>1.3125</v>
       </c>
       <c r="I393">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="394" spans="2:9" x14ac:dyDescent="0.3">
@@ -11901,7 +11901,7 @@
         <v>0.1875</v>
       </c>
       <c r="I394">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="395" spans="2:9" x14ac:dyDescent="0.3">
@@ -11918,7 +11918,7 @@
         <v>0.39374999999999999</v>
       </c>
       <c r="I395">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="396" spans="2:9" x14ac:dyDescent="0.3">
@@ -11935,7 +11935,7 @@
         <v>0.61875000000000002</v>
       </c>
       <c r="I396">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="397" spans="2:9" x14ac:dyDescent="0.3">
@@ -11952,7 +11952,7 @@
         <v>0.86250000000000004</v>
       </c>
       <c r="I397">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="398" spans="2:9" x14ac:dyDescent="0.3">
@@ -11969,7 +11969,7 @@
         <v>1.125</v>
       </c>
       <c r="I398">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="399" spans="2:9" x14ac:dyDescent="0.3">
@@ -11986,7 +11986,7 @@
         <v>1.125</v>
       </c>
       <c r="I399">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="400" spans="2:9" x14ac:dyDescent="0.3">
@@ -12003,7 +12003,7 @@
         <v>4.6875E-2</v>
       </c>
       <c r="I400">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="401" spans="2:9" x14ac:dyDescent="0.3">
@@ -12020,7 +12020,7 @@
         <v>9.8437499999999997E-2</v>
       </c>
       <c r="I401">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="402" spans="2:9" x14ac:dyDescent="0.3">
@@ -12037,7 +12037,7 @@
         <v>0.15468750000000001</v>
       </c>
       <c r="I402">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="403" spans="2:9" x14ac:dyDescent="0.3">
@@ -12054,7 +12054,7 @@
         <v>0.21562500000000001</v>
       </c>
       <c r="I403">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="404" spans="2:9" x14ac:dyDescent="0.3">
@@ -12071,7 +12071,7 @@
         <v>0.28125</v>
       </c>
       <c r="I404">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="405" spans="2:9" x14ac:dyDescent="0.3">
@@ -16242,7 +16242,7 @@
         <v>0.15</v>
       </c>
       <c r="I703">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="704" spans="2:13" x14ac:dyDescent="0.3">
@@ -16259,7 +16259,7 @@
         <v>0.315</v>
       </c>
       <c r="I704">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="705" spans="2:15" x14ac:dyDescent="0.3">
@@ -16276,7 +16276,7 @@
         <v>0.495</v>
       </c>
       <c r="I705">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="706" spans="2:15" x14ac:dyDescent="0.3">
@@ -16293,7 +16293,7 @@
         <v>0.69</v>
       </c>
       <c r="I706">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="707" spans="2:15" x14ac:dyDescent="0.3">
@@ -16310,7 +16310,7 @@
         <v>0.9</v>
       </c>
       <c r="I707">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="708" spans="2:15" x14ac:dyDescent="0.3">
@@ -16378,7 +16378,7 @@
         <v>1</v>
       </c>
       <c r="I711">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K711">
         <v>1</v>
@@ -16401,7 +16401,7 @@
         <v>1.4</v>
       </c>
       <c r="I712">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K712">
         <v>1</v>
@@ -16424,7 +16424,7 @@
         <v>1.75</v>
       </c>
       <c r="I713">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K713">
         <v>1</v>
@@ -16498,7 +16498,7 @@
         <v>0.8</v>
       </c>
       <c r="I717">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K717">
         <v>1</v>
@@ -16521,7 +16521,7 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="I718">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K718">
         <v>1</v>
@@ -16544,7 +16544,7 @@
         <v>1.4</v>
       </c>
       <c r="I719">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K719">
         <v>1</v>

--- a/Excel/AffectorValue.xlsx
+++ b/Excel/AffectorValue.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D30890-C473-409B-8F8B-3B11189FEB99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7998525C-AA26-47C9-8781-F1A92256EFE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="510" windowWidth="29040" windowHeight="15690" activeTab="1" xr2:uid="{F996C25F-1351-4433-9C2A-F11BFB8CD6D3}"/>
+    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{F996C25F-1351-4433-9C2A-F11BFB8CD6D3}"/>
   </bookViews>
   <sheets>
     <sheet name="AffectorValueTable" sheetId="1" r:id="rId1"/>
@@ -6744,7 +6744,7 @@
         <v>1</v>
       </c>
       <c r="E91">
-        <v>0.5625</v>
+        <v>1.21</v>
       </c>
       <c r="N91">
         <v>1</v>
@@ -6803,7 +6803,7 @@
         <v>1</v>
       </c>
       <c r="E95">
-        <v>0.23</v>
+        <v>0.39</v>
       </c>
       <c r="N95">
         <v>1</v>
@@ -7140,7 +7140,7 @@
         <v>1</v>
       </c>
       <c r="E118">
-        <v>0.97</v>
+        <v>1.58</v>
       </c>
       <c r="N118">
         <v>1</v>
@@ -7270,7 +7270,7 @@
         <v>1</v>
       </c>
       <c r="E126">
-        <v>0.39500000000000002</v>
+        <v>0.56499999999999995</v>
       </c>
       <c r="N126">
         <v>1</v>
@@ -7393,7 +7393,7 @@
         <v>1</v>
       </c>
       <c r="E135">
-        <v>1.91</v>
+        <v>0.38200000000000001</v>
       </c>
       <c r="N135">
         <v>1</v>
@@ -7586,7 +7586,7 @@
         <v>1</v>
       </c>
       <c r="E149">
-        <v>0.76500000000000001</v>
+        <v>0.52</v>
       </c>
       <c r="N149">
         <v>1</v>
@@ -7829,7 +7829,7 @@
         <v>1</v>
       </c>
       <c r="E164">
-        <v>1.024</v>
+        <v>1.2</v>
       </c>
       <c r="N164">
         <v>1</v>
@@ -7897,7 +7897,7 @@
         <v>1</v>
       </c>
       <c r="E168">
-        <v>0.45500000000000002</v>
+        <v>1.3919999999999999</v>
       </c>
       <c r="N168">
         <v>1</v>
@@ -8042,7 +8042,7 @@
         <v>1</v>
       </c>
       <c r="E179">
-        <v>0.65500000000000003</v>
+        <v>0.91</v>
       </c>
       <c r="N179">
         <v>1</v>
@@ -8160,7 +8160,7 @@
         <v>1</v>
       </c>
       <c r="E187">
-        <v>1.1399999999999999</v>
+        <v>1.51</v>
       </c>
       <c r="N187">
         <v>1</v>
@@ -8349,7 +8349,7 @@
         <v>1</v>
       </c>
       <c r="E199">
-        <v>0.82499999999999996</v>
+        <v>1.29</v>
       </c>
       <c r="K199">
         <v>1</v>
@@ -8484,7 +8484,7 @@
         <v>1</v>
       </c>
       <c r="E208">
-        <v>1.05</v>
+        <v>1.39</v>
       </c>
       <c r="N208">
         <v>1</v>
@@ -8498,7 +8498,7 @@
         <v>1</v>
       </c>
       <c r="E209">
-        <v>0.25</v>
+        <v>0.59</v>
       </c>
       <c r="N209">
         <v>1</v>
@@ -8583,7 +8583,7 @@
         <v>1</v>
       </c>
       <c r="E214">
-        <v>1.1000000000000001</v>
+        <v>1.45</v>
       </c>
       <c r="N214">
         <v>1</v>
@@ -8611,7 +8611,7 @@
         <v>1</v>
       </c>
       <c r="E216">
-        <v>0.76300000000000001</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="N216">
         <v>1</v>
@@ -8678,7 +8678,7 @@
         <v>1</v>
       </c>
       <c r="E221">
-        <v>1.5</v>
+        <v>0.92</v>
       </c>
       <c r="F221">
         <v>2.2999999999999998</v>
@@ -8729,7 +8729,7 @@
         <v>1</v>
       </c>
       <c r="E224">
-        <v>0.224</v>
+        <v>0.38</v>
       </c>
       <c r="N224">
         <v>1</v>
@@ -8858,7 +8858,7 @@
         <v>1</v>
       </c>
       <c r="E233">
-        <v>0.42499999999999999</v>
+        <v>0.81499999999999995</v>
       </c>
       <c r="N233">
         <v>1</v>

--- a/Excel/AffectorValue.xlsx
+++ b/Excel/AffectorValue.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7998525C-AA26-47C9-8781-F1A92256EFE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D9FCD4-4E8C-449C-BFA2-D89558A68665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{F996C25F-1351-4433-9C2A-F11BFB8CD6D3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{F996C25F-1351-4433-9C2A-F11BFB8CD6D3}"/>
   </bookViews>
   <sheets>
     <sheet name="AffectorValueTable" sheetId="1" r:id="rId1"/>
@@ -6744,7 +6744,7 @@
         <v>1</v>
       </c>
       <c r="E91">
-        <v>1.21</v>
+        <v>1.65</v>
       </c>
       <c r="N91">
         <v>1</v>
@@ -6856,7 +6856,7 @@
         <v>1</v>
       </c>
       <c r="E99">
-        <v>0.47</v>
+        <v>0.35</v>
       </c>
       <c r="N99">
         <v>1</v>
@@ -7801,7 +7801,7 @@
         <v>1</v>
       </c>
       <c r="E162">
-        <v>1.585</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="N162">
         <v>1</v>
@@ -8160,7 +8160,7 @@
         <v>1</v>
       </c>
       <c r="E187">
-        <v>1.51</v>
+        <v>1.91</v>
       </c>
       <c r="N187">
         <v>1</v>
@@ -8498,7 +8498,7 @@
         <v>1</v>
       </c>
       <c r="E209">
-        <v>0.59</v>
+        <v>0.89</v>
       </c>
       <c r="N209">
         <v>1</v>
@@ -8583,7 +8583,7 @@
         <v>1</v>
       </c>
       <c r="E214">
-        <v>1.45</v>
+        <v>1.82</v>
       </c>
       <c r="N214">
         <v>1</v>
@@ -8729,7 +8729,7 @@
         <v>1</v>
       </c>
       <c r="E224">
-        <v>0.38</v>
+        <v>0.46</v>
       </c>
       <c r="N224">
         <v>1</v>
